--- a/blog_post.xlsx
+++ b/blog_post.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickrehill/PycharmProjects/RCTAustraliaReview/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickrehill/PycharmProjects/causalforestreview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3EC104-51E0-C144-8269-1DF8258C5EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD42248B-6F7F-3248-B4F4-C585038666E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="22740" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="254">
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
   <si>
     <t>Hiring tradeswomen - a best practice guide for employers</t>
   </si>
@@ -28,6 +40,48 @@
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/hiring-tradeswomen-%E2%80%93-a-best-practice-guide-for-employers</t>
   </si>
   <si>
+    <t>The challenge
+The jobs are secure, rewarding and well paid, but key industries like construction, manufacturing and automotive are experiencing significant shortages of skilled trades workers.
+Demand for tradies is set to further increase this decade as Australia transitions to a clean energy economy and NSW builds an advanced manufacturing base. With women making up only two percent of the trades workforce, employers are looking to them as an untapped resource. Training Services NSW has been working with partners across government and industry to increase the pipeline of skilled tradeswomen.
+Employers told us they were keen to employ more women in trades but were having trouble finding them. 
+What we did
+We established a community of practice with employers who wanted more women in their trades organisations. They were finding this difficult to achieve and were looking for guidance on best practice.
+In creating the ‘Employer’s Toolkit: Practical steps for attracting, recruiting and retaining women in trades’, we drew on evidence from behavioural science about how people make career decisions as well as the extensive fieldwork we did in partnership with Training Services NSW under the Trades Pathways Program.
+Over two years, we did interviews, workshops, site visits, focus groups and surveys with 950 people across NSW, including women apprentices, employers, school-aged girls, parents, careers advisers and TSNSW staff.
+We learned that trades employers face challenges in three main areas when they try to expand their workforce to include more women – attracting, recruiting and retaining them – so we structured the toolkit around these aspects.
+The advice
+Attracting more women and girls to non-traditional trades
+Stereotypes, inaccurate beliefs and lack of role models mean women and girls may never have considered investigating trades as a career possibility. Rather than seeing this as lack of interest, employers should regard it as lack of awareness or knowledge and think in terms of advertising campaigns designed to appeal to women rather than simple job advertisements. 
+Make women in your community aware that trade jobs may be a good option for them by:
+hosting open days, trade taster days, or workshops for women to learn a relevant skill
+partnering with community organisations like schools and sporting clubs. For instance, by sponsoring a women’s football team you can build a connection with women who are already breaking gender stereotypes
+talking to parents and teachers at information days and careers expos.
+Highlight the benefits of roles in your business for women by:
+telling women what they can expect from a job in your business. Does equipment do the heavy lifting? What are the career advancement opportunities and earning potential? 
+showcasing female success stories from your business. This gives other women and girls a role model to follow and the chance to get credible insider information.
+Recruiting women to work in your business
+If you are not getting enough women applicants, try broadening your recruitment efforts. Also address women’s concerns about male-dominated trades by making it clear that the roles are suitable for them, and the work environment is safe and supportive.
+Broaden recruitment to reach more women by:
+not relying on referrals, because this can limit your candidate pool and disadvantage women and girls who aren’t from a tradie family
+advertising via online job sites and social media like Tik Tok, as well as organisations like Tradeswomen Australia and SALT (Supporting and Linking Tradeswomen).
+Encourage women to apply by:
+ensuring that your job advertisement is free from unconscious bias
+explaining job benefits that matter to women
+signalling that you support equal employment opportunities and welcome diverse applicants.
+Retaining the women who work for you
+Once you’ve hired women, providing a safe and inclusive workplace can help you keep them.
+Create processes that overcome gender bias by:
+offering flexible work options – lack of flexibility is a key barrier for women
+providing women with appropriate uniforms, equipment and facilities.
+Create an inclusive workplace culture by:
+developing and enforcing a code of conduct
+encouraging employees to complete diversity training and follow diversity practices
+providing mentorship and networking opportunities. 
+What's next
+Employer's Toolkit - Women in Trades
+Encouraging more women to become tradies</t>
+  </si>
+  <si>
     <t>2024</t>
   </si>
   <si>
@@ -37,6 +91,55 @@
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/customers-ultimate-winners-after-behaviour-smart-bootcamp</t>
   </si>
   <si>
+    <t>The challenge
+Many teams across NSW Government face challenges that involve customer behaviour. Public servants can improve outcomes for customers or service users if they know how to explore these behavioural challenges and design an effective solution to address them.
+What we did
+In 2022, NSW BIU ran the Behaviour Smart Bootcamp for five teams across NSW Government. Participating teams developed skills to tackle a variety of service challenges, including:
+providing mental health coaching for small businesses
+preventing employee injury in small businesses
+encouraging participation in an environmental rebate scheme
+increasing uptake of solar energy rebates
+supporting young people in the justice system.
+Over the eight months, teams:
+learnt about key behavioural insights concepts
+gathered insights from their customers about service delivery challenges
+designed and implemented a behavioural intervention to tackle the service delivery challenges
+measured the effectiveness of their behavioural intervention.
+What happened next
+After bootcamp, participants increased their usage of behavioural insights, particularly with evaluating customer data and creating journey maps. They are also spreading their knowledge to their wider teams.
+We're much more likely to do effective education for customers, now that we’ve done bootcamp, than we were before.
+Bootcamp participant
+We understand [we need to] first make the change and then measure whether it's been effective. It's a different way of working that we're really trying to embed.
+Bootcamp participant
+[Behavioural insights] is definitely permeating into all of our conversations and everything we do.
+Bootcamp participant
+icare Bootcamp 2022 case study
+Small businesses tend to have fewer resources dedicated to understanding work health &amp; safety (WHS) requirements and are less likely to take proactive steps to ensure the safety and wellbeing of their workplace.
+icare's challenge was to increase the number of small employers completing injury prevention programs to improve their WHS capability and reduce workplace injuries.
+What icare did at bootcamp 
+Over the course of Bootcamp, icare:
+mapped the journey a customer takes with renewal letters and claims conversations
+conducted 300 surveys and six interviews
+made new connections within the team and improved internal ways of working
+created a new decision aid on the icare Small Business Hub.
+How icare’s changes will make a difference
+The new decision aid on the Small Business Hub aims to:
+make it easier for small employers and their workers to complete icare’s prevention programs and increase their WHS capability
+connect small employers to suitable programs from SafeWork NSW and Ahead for Business
+encourage small employers to be more proactive with WHS, rather than reactive
+shift small employers’ perception of icare and the perceived value of workers’ compensation insurance
+reduce the frequency and severity of workplace injuries.
+icare have collected baseline data which they will use to measure the impact of their new decision aid.
+Next steps for icare
+icare will measure the success of various campaigns to direct small employers to the decision aid, such as:
+linking to the decision aid in their policy renewal letter for October 2023
+posting social media updates and sending newsletters to small businesses
+connecting with the Small Business Commissioner and industry associations.
+What’s next 
+There was considerable interest in participating in the 2023 Bootcamp program. We worked with ten more Bootcamp teams to help them address behavioral challenges and apply behavioural insights to their service delivery.
+Are you a public servant interested in improving your team’s impact for customers? Sign up for one of our BI clinics and we’ll provide tailored advice for improving your customer service.</t>
+  </si>
+  <si>
     <t>2023</t>
   </si>
   <si>
@@ -46,36 +149,233 @@
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/behavioural-insights-practice-legal-aid-nsw-immersion-program</t>
   </si>
   <si>
+    <t xml:space="preserve">The program
+The immersion program was a collaboration between Legal Aid NSW and NSW Behavioural Insights Unit (BIU) which gave four Legal Aid staff hands-on experience in the methods and processes of behavioural insights. The aim was to increase the capacity of Legal Aid NSW to apply behavioural insights to benefit clients. 
+While co-located in the BIU, Katrina Wong, Meagan Lee, Sara Crane and Naomi Cheetham each worked on a Legal Aid project to improve outcomes for vulnerable clients. They also started a monthly Behavioural Insights Community of Practice for interested Legal Aid staff.
+The projects
+The objectives of their four projects were: 
+make it easier to get help from Legal Aid NSW and apply for funding
+reduce the number of Drug Court participants being terminated from a reoffending reduction program
+increase compliance with justice orders by providing support after release from prison
+improve police bail decision-making processes to reduce avoidable short-term remand for young people. 
+What was learned
+The value of fieldwork 
+All four secondees had the opportunity to conduct interviews, focus groups and observations with Legal Aid staff and agencies, including Community Corrections, the NSW Drug Court and NSW Police Force. What they learned was invaluable in understanding the issues, barriers and enablers to a behavioural intervention. Fieldwork also allowed them to test assumptions about how processes worked and to see things from a different perspective. 
+We knew things anecdotally, but it had a different impact when we saw the data in front of us. We were reminded about the vulnerability of Drug Court participants when we graphed their education and literacy levels.
+Sara Crane – Drug Court Project
+We make assumptions about why or how police make bail decisions – and the BI framework allows you to really see things from a different perspective. 
+Katrina Wong – Police bail and young people project
+Co-designing is the key to success 
+The program participants found generating ideas in partnership is central to influencing behaviour and developing something people will want to use.  Using human-centred design and humility principles (including critical self-reflection on their role and place in a project), they were able to engage with partners they did not regularly work with. They were also able to use behavioural insights tools such as the EAST framework to workshop interventions focused on making a change Easy, Attractive, Social and Timely.  
+Using behavioural insights in the future
+Legal Aid NSW is keen to continue building staff capacity through a Behavioural Insights Community of Practice and apply behavioural insights to its diverse and multi-faceted client work. 
+I’m excited to see how behavioural insights can be used to strengthen and complement Legal Aid NSW’s policy and law reform work. It will be great to bring my behavioural insights knowledge back to help Legal Aid NSW become a ‘Behaviour Smart’ organisation!”
+Meagan Lee 
+Behavioural insights can provide an effective and neutral framework to strengthen stakeholder relationships in working together to address complex social justice issues.
+Katrina Wong </t>
+  </si>
+  <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/six-ways-to-increase-voluntary-participation-justice-programs</t>
   </si>
   <si>
+    <t>The challenge
+NSW Bureau of Crime Statistics and Research shows 56% of adult ex-prisoners will be reconvicted of another crime within 10 years. Behaviour change programs and other support services are offered to people who are at high risk of reoffending. However, voluntary programs, especially new ones, tend to have low participation rates.
+What we did
+We visited five sites in Sydney and regional NSW and conducted 46 interviews with:
+35 service providers from the justice and health sectors as well as Aboriginal-Community Controlled, and non-profit organisations
+two academic experts in reoffending and crime prevention
+nine clients participating in voluntary programs such as drug and alcohol rehabilitation, domestic and family violence counselling, and anger management. 
+What we found
+The research identified six ways to increase engagement in voluntary programs.
+1. Reduce complicated steps
+Signing up for a voluntary program can be long and difficult for both clients and case workers. Behavioural insights shows that the smallest friction can prevent potential clients from enrolling in the service. Organisations can make sign up easier by using default settings, minimising appointments and reusing information already provided to the organisation.
+2. Highlight personal benefits
+From the clients’ perspective, many programs offer similar rehabilitation services. Providers can personalise delivery to give clients a unique service tailored to their needs. 
+3. Reduce cognitive load
+There can be too many decisions to make when looking at a new service. This is called choice overload. Providers can motivate clients to make more informed choices about joining a programs by reducing the number of service options or structuring content into smaller blocks of information.
+4. Keep communication simple
+The way information is framed can have a profound result on the potential client participating in a program. This may include present information in language that is easy for clients to read and understand or giving them clear instructions on what they can do next. Clients might be averse to risks, so it’s important any risks are addressed upfront and the positive aspects of programs are highlighted.
+5. Positive reinforcement
+Clients can be discouraged from joining a new program because of negative past experiences. Clients often have lifelong negative experiences with services that impacted their self-esteem. Unfortunately, some program screening tools and assessments can reinforce such social stigma. Using motivational interviewing can strengthening a client’s self-worth. Celebrating minor achievements throughout their program can motivate the client to stay.
+6. Timing of messages
+Clients are often exhausted by their experience of the cycle of reimprisonment. Experts say the first 48 hours of being released into the community after an arrest is a pivotal time. The fresh start effect suggests people generally feel more motivated and excited at the beginning of something new. A path to reuniting with family (especially children and grandchildren), or making amends with important people, is an appealing reason for change. Specific Measurable Achievable Relevant Time-bound (SMART) goals can help engage clients during this period of reflection.
+What's next
+Read our report to find out more about how to increase engagement in voluntary programs.</t>
+  </si>
+  <si>
     <t>A graduate's experience in the NSW Behavioural Insights Unit</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/a-graduates-experience-nsw-behavioural-insights-unit</t>
   </si>
   <si>
+    <t>What brought you to the BIU?
+I applied for the graduate program because I was eager to explore different areas of the public sector, to see how I could use my skills and to challenge myself through an open-minded approach to learning.
+After graduating with an Honours and MPhil in English from the University of Sydney, I initially worked as a Customer Service Representative with Service NSW.
+While doing that job, I was both experiencing and witnessing difficulties that affect customers and frontline workers. The pain points I was noticing in transactions and interactions helped me understand what it takes to deliver great customer service.
+With customer focus in mind, I was thrilled to be asked to join the NSW BIU for my first rotation.
+What learning opportunities have you had here?
+Although it is daunting starting a new role, I have been fortunate to work with a team that has consistently gone above and beyond to not only support my growth and development but also to offer me invaluable learning opportunities.
+I was warmly welcomed into the NSW BIU and assigned to help organise a series of workshops (called the Behaviour Smart Bootcamp). The goal of these workshops was to support teams across the NSW public service to apply behavioural insights to specific customer challenges that those teams were facing.
+Interacting with these teams from different agencies taught me a great deal about behavioural challenges and the different methods of working through them.
+Stemming from these workshops, I have also been working on co-creating self-directed learning modules based on the learning material for Bootcamp. It's been an enjoyable experience working collaboratively on content that has a practical purpose and continuously challenges the way I think about the customer experience.
+I’ve also had a chance to be involved with other projects. Notably, I helped organise interviews and focus groups and contributed to the evaluation of research on women’s retirement planning.
+Recently, I have directed my focus toward some research related to sludge, which is the frictions and barriers that make it more difficult for customers to achieve their goal. This was made possible by my manager, who always ensures I work on projects that relate to my interests and goals.
+What were the highlights of your placement?
+There have been many highlights so far, but what I appreciate most about being a graduate in the NSW BIU is the opportunity to learn from a team with a range of expertise, who are generous with offering their knowledge, guidance, and encouragement. With the support of my team, it’s been very motivating and fulfilling engaging in meaningful work that makes a real difference.
+Another highlight has been the connections I have made in the NSW Government, as the BIU works with various agencies and departments. The NSW BIU has been excellent in fostering my learning within and outside of the team. They have offered many opportunities for me to work and network with stakeholders within and beyond the DCS, providing a strong start to my graduate journey and giving me the resources to help build career confidence.
+What's next
+Find out more about the NSW Government Graduate Program.</t>
+  </si>
+  <si>
     <t>How to use behavioural insights when implementing organisational change</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/how-to-use-behavioural-insights-when-implementing-organisational-change</t>
   </si>
   <si>
+    <t>The challenge 
+It is difficult to change behaviour in an organisation. However, implementing behavioural insights can increase the likelihood of success.
+What we found
+To start changing organisational behaviour, facilitators must understand the environment and the behaviour itself. This will help develop an intervention that will have the desired results.
+To achieve organisational change, it is important to:
+Increase trust and reduce resistance in an open and safe environment. For example, create a space for individuals to ask and answer questions without fear of judgement or consequences.
+Focus on the benefits for each person to build buy-in and cooperation. For example, ask staff to commit to change through a specific action, to increase the chances of adopting the proposed changes.
+The techniques
+When the organisation understands the behaviour and environment that requires change, they can start applying behavioural insights techniques such as: 
+Co-designing interventions with people who will be affected by the change or are involved in delivering the change. For example, working with frontline staff to develop interventions that will change their role and how they perform their work.
+Modelling working with people who are advocating for change to demonstrate the change in their behaviour and approach. For example, if managers want staff to work flexibly, they need to lead by example by leaving work on time.
+Removing obstacles by identifying issues that may be preventing organisations from undertaking the desired behaviour. For example, making more cars available for people needing to do off-site visits removes the barrier of not having access to transport. 
+Reciprocity is the act ofgiving a recipient something so they feel the need to return the gesture. For example, giving people access to new technology for their work that they can also use personally.
+Incentives can be used to encourage people to adopt the new behaviour. For example, rewarding staff for reaching their goals.
+Using elements of games in a non-game context such as at work can encourage behaviour change. For example, making the behaviour change a competition and offering prizes.
+Changing informal behaviours that undermine larger changes. For example, when the organisation has a policy of staff not working after 6pm, the manager must also follow the rules.
+Overall, the techniques an organisation adopts will depend on the environment and what behavioural change the organisation is trying to achieve.
+What's next
+If you’d like to learn more about behavioural insight techniques for organisations, contact us.</t>
+  </si>
+  <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/behavioural-insights-practice-a-lesson-from-libraries</t>
   </si>
   <si>
+    <t>Darling Square Library children’s area. Credit: City of Sydney
+The challenge
+If government agencies integrated the latest evidence and experience from behavioural insights into their ways of working, they would be able to bring a fresh perspective to their customers’ challenges and the solutions they build. However, knowing where to start and what to focus on can be challenging. 
+What we did
+The NSW Behavioural Insights Unit partnered with the Public Spaces Division at the Department of Planning and Environment (DPE), the State Library of NSW, the Australian Library Information Association, and the NSW Public Libraries Association to increase community engagement at local libraries following the public health orders of 2020. 
+Local libraries are an essential part of the network of public spaces across NSW, providing a place for people to gather, share ideas, engage in cultural experiences, and learn. We supported four local libraries to learn how to use behavioural insights to increase awareness of and access to their libraries’ services.
+What we learned
+We ran a series of workshops to help partners and local libraries develop and test behaviourally informed interventions to raise awareness and increase access to local library services.
+Understand your customers through surveys
+Staff from the local libraries invited their members and visitors to complete a survey to learn more about barriers their customers faced and how to address these to encourage uptake of their services. Check out our guide on increasing survey completion.
+Use behavioural frameworks to build solutions
+The libraries used the COM-B model to identify and explore the barriers and enablers to using their services. The COM-B model can be used like a checklist of different behavioural factors that could potentially influence your customers ability to use your service. Check out the COM-B model.
+The libraries also used the Easy, Attractive, Social, Timely (EAST) framework to develop solutions to encourage their target behaviour. The EAST framework can be used to generate ideas to influence your customers and promote the use of your services. Check out the EAST framework.
+Test whether your intervention worked
+The libraries captured data on their customers’ behaviour to see whether the changes they implemented were effective. Some of the libraries compared this behaviour before and after the intervention, while others used A/B tests (a feature available in most online communication platforms, like Mailchimp and Campaign Monitor). Check out our guide to testing to learn more.
+What were the results? 
+City of Sydney library saw a 124 per cent increase in unique eBook pageviews from their newsletter. 
+Northern Beaches library visitation increased by 21% after promoting their new refurbishment in their newsletter. 
+Wagga Wagga city council library junior membership increased 15% relative to comparable periods. 
+Check out the results and more about the project in DPE's project report.
+Drew Pinazza from Transport NSW commented that they continue to use BIU techniques in the design of their initiatives, programs, and projects. 
+Cameron Morely from the State Library of NSW reflected that the process and methodology helped library staff learn how to scope and run successful behavioural consultations with their customers. 
+What's next
+Our partners and local councils showed us that you don’t need to be an expert in behavioural insights to build behaviour change and improve outcomes for your customers. There are plenty of free and ready-to-use resources, so you can get started applying behavioural insights today!</t>
+  </si>
+  <si>
     <t>Using behavioural insights to support customers in distress</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/using-behavioural-insights-to-support-customers-distress</t>
   </si>
   <si>
+    <t>The challenge
+Customers impacted by mental and emotional distress, including suicidal thoughts, may display signs of distress when interacting with frontline staff.
+What we did
+We partnered with a NSW Government frontline agency to understand how their staff currently interact with customers in distress and where behavioural insights could be used to improve their response.
+What we found
+Which behaviours matter?
+Staff should respond compassionately to all signs of customer distress, create a supportive environment, and take action to help. Staff also need to look after themselves and others after helping customers in distress.
+What gets in the way of these behaviours?
+Lack of confidence and knowledge about how to respond to customers in distress.
+Role and responsibility.
+Many staff thought acknowledging and responding to customer distress was outside their role.
+Scarcity of time and mental resources.
+Staff often felt responding to distress was time-consuming and took them away from addressing customer queries.
+Frictions in staff accessing support for themselves. 
+The pandemic and working from home made it harder for staff to recognise when colleagues were struggling.
+Lack of clear referral pathways for customers who needed further support.
+What supports these behaviours?
+Social influence from skilled staff members and managers.
+Staff were more likely to exhibit skills in responding to distress when they had colleagues with these skills and managers who modelled these skills.
+Motivation to help customers.
+Staff cared about their customers and were strongly motivated to help them.
+What's next
+Our research found three ways behavioural science can help your staff support customers in distress:
+1. Create clear defaults
+People tend to follow the default option. Staff can:
+create a clear set of actions for staff to take when they encounter a customer in distress
+use visual cues and tools to help them follow these practice.
+2. Close the feedback loop
+People often seek help when unsure what to do. Staff should:
+make sure managers have the training and tools to coach staff on how to respond to distress
+create formal pathways for staff to connect and debrief with each other
+regularly share positive feedback from customers.
+3. Align the environment
+Compassionate responding should feel consistent with other behaviours that staff do. Staff can:
+check that policies, performance frameworks and workplace training reinforce compassionate responding
+address structural barriers to compassionate responses, such as heavy workloads and unclear referral pathways.
+We have successfully piloted tools to address these barriers at our partner agency, which are now being rolled out to their staff. We are now building on this work with other agencies across government.
+More information
+If you would like further information about how to assist customers in distress, see the guide. For all other queries
+Contact us</t>
+  </si>
+  <si>
     <t>Encouraging more women to become tradies</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/encouraging-more-women-to-become-tradies</t>
   </si>
   <si>
+    <t>The challenge
+In key industries with major skills shortages, like construction, manufacturing and automotive, women make up just two percent of qualified tradespeople (PDF 1.53MB). Increasing women’s participation in male-dominated trades won’t just expand the recruitment pool, it will also create more inclusive and diverse workplaces, broaden women’s career opportunities and boost the State’s economy. 
+What we did
+To address underrepresentation, Training Services NSW launched 'Trade Pathways for Women.' As part of this initiative, the NSW Behavioural Insights Unit partnered with Training Services NSW to understand what stops girls and women from taking up apprenticeships in male-dominated trades and suggest solutions based on behavioural science. 
+We reviewed 22 research studies on the recruitment of women and girls in male-dominated apprenticeships and traineeships. We drew on a further 40 studies and applied behavioural insights to identify barriers and enablers to make recommendations for behavioural change. The results of our initial research below are drawn from our new report published by Training Services NSW, 'Women in Trades Promising Practice Review (PDF 2.47MB).'
+What we found
+Influential people discourage women from vocational education and training (VET) 
+Parents, teachers and careers advisors say they encourage students to aim for university. They regard VET courses like hairdressing and plumbing as lower status qualifications – ‘Plan B’ if you cannot get into uni. The male-dominated trades are also stigmatised as involving dirty and physically demanding work.
+These barriers of status and stigma feed the stereotype that trades are for non-academic boys and are not suitable for girls. 
+Recommendations 
+Challenge the inaccurate beliefs and outdated social norms by promoting successful tradeswomen as role models. Tradeswomen can earn as much or more than university graduates, enjoy problem-solving and working with their hands and are likely to end up running their own business. 
+Emphasise the personal and prosocial benefits of working in a trade. Tradeswomen contribute positively to their communities, take pride in their work and their skills are in demand. 
+Use positive framing to shift the context from getting dirty and heavy lifting to creating and fixing things. Explain how advances in technology as well as health and safety regulations mean less reliance on physical strength. 
+Employers don’t do enough to eliminate bias 
+Women entering male-dominated workplaces can face sexism, harassment and discrimination. If they are the first and only female tradie, they may have to deal with inadequate facilities and lack of social support. Women apprentices may also be assigned lower skilled roles and get fewer career opportunities. 
+Recommendations 
+Provide employers with information about how to proactively eliminate bias at work. 
+Match employers with more experienced peers to get tips on creating female-friendly workplaces. 
+Provide timely advice to girls about their workplace rights, how to navigate a male-dominated environment and where to find support and resources. 
+Have influential employers (trusted messengers) send personalised invitations to other businesses to join a network of support for women apprentices. 
+Employers’ recruitment strategies and policies disadvantage women 
+Smaller businesses often don’t have HR departments and find formal recruitment a hassle. Women from non-tradie families find it hard to access the informal networks which many employers rely on to source apprentices. Early starts, rigid hours and inflexible working conditions can make jobs unappealing for women with family responsibilities. 
+Recommendations 
+Reduce the friction costs of formal recruitment by giving employers templates for advertising which use inclusive language and images and promote diversity and flexible working policies. 
+Use personalised email and phone calls to encourage women to keep applying for apprenticeships. 
+Hire a group of women as a cohort to create a network of support. 
+Parents', teachers’ and career advisors’ lack of awareness of VET opportunities reduces take-up 
+Girls say careers advisors don’t talk to them about VET. Consequently, they don’t know what VET courses exist and what’s required to pursue a trade. Careers advisors lack training on supporting young women into trades and don’t understand the diversity of careers it offers. 
+Recommendations 
+Create timely prompts, checklists and conversations guides for parents, teachers and careers advisors to foster discussions with girls about trades. 
+Create a decision tree with case studies of different career and life pathways for girls. 
+Simplify apprenticeship applications. Reduce unnecessary steps and administrative burdens. 
+Send women weekly tips about how to improve their CVs and job applications
+Read more about this report on the Training Services website.
+What's next?
+As part of the Women in Trades project, the Behavioural Insights Unit has collected and analysed data from interviews and focus groups with employers, apprentices and other stakeholders across NSW. We’re also supporting Training Services NSW with communication campaign trials, a community of practice among employers and testing ways to lift women’s participation in non-traditional trades.</t>
+  </si>
+  <si>
     <t>2022</t>
   </si>
   <si>
@@ -85,207 +385,1303 @@
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/capitalise-on-bius-insights-behaviour-smart-bootcamp</t>
   </si>
   <si>
+    <t>The challenge
+Many challenges we face in the NSW public sector involve staff and customer behaviour. While NSW public servants are experts in the services they deliver, most are not sure how to address behavioural barriers when developing solutions to help their customers. This means we can offer a very helpful service but behavioural barriers, such as time-consuming application forms or information overload, may prevent some customers from accessing those services.
+The solution
+The NSW Behavioural Insights Unit developed the Behaviour Smart Bootcamp to equip NSW public servants with the skills they need to identify behavioural barriers and implement impactful solutions. Six teams in NSW Government are participating in the 2022 Bootcamp, where they are learning skills to tackle service delivery challenges using behavioural insights.
+The Bootcamp is built around three workshops. In the first workshop teams brought a variety of challenges, including helping customers claim government subsidies and thinking through how best to provide support to small businesses. Teams identified a customer or staff behaviour they wanted to change and left the workshop with knowledge about:
+key concepts from behavioural insights and human-centred design
+how to identify the key stakeholders in their challenge
+how to identify a target behaviour
+how to develop a research plan for collecting the data that teams need to address their challenge.
+Participants brought great enthusiasm over the two-day workshop and were excited to begin applying the skills and knowledge they had learnt to their service challenges.
+What’s next
+The six teams in the 2022 workshop program will continue working through Bootcamp to create lasting impact for customers.
+Excited by Bootcamp and want to boost impact for your customers? Sign your team up for a BI Clinic run by us in the BIU. Clinics are available to NSW public servants, and we’ll provide tailored advice to address behavioural barriers and promote effective service delivery.
+Contact us to get help from the BIU
+Contact us</t>
+  </si>
+  <si>
     <t>Sludge-a-thon tackles customer frictions</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/sludge-a-thon-returns-to-bust-more-sludge</t>
   </si>
   <si>
+    <t xml:space="preserve">The challenge
+Sludge makes it hard for our customers to get what they want. We need to remove sludge so NSW can be the world’s most customer-centric government by 2030. To achieve this goal, the BIU developed the 'NSW Government sludge audit' to identify and eliminate sludge.
+What we did
+Twelve teams across eight NSW Government clusters used the BIU’s sludge audit method to review their process and identify friction points faced by customers.
+Examples of sludge identified included limited promotion and online accessibility of health services, leading to a lack of awareness and engagement by customers. Another team found that customers were accumulating hefty fines as their letters were confusing and lacked a clear call to action.
+Across the two days, teams generated solutions and developed an action plan to implement their sludge-busting solutions. Participants also dived into a session on behavioural insights principles, which they used to improve their processes.
+Throughout the event, facilitators and experts guided teams with insights on behavioural design, digital innovation and accessibility. Guest speaker Jo Medlin, a mentor on the SBS program Lost for Words, encouraged teams to think about customers’ literacy needs. She suggested teams review how they communicate and use images and videos to make it easier for customers with reading challenges.
+Teams used what they learned to develop sludge busting solutions below
+Engaging parents early and changing appointment processes to encourage health checks for young children.
+Simplifying the application experience and promoting community benefits offered to companions of people with disability.
+Consolidating multiple forms and pre-filling details to assist businesses registering as a provider of youth sports and recreation.
+What we saw
+Teams left the event with sludge-busting solutions and a plan to implement these to improve the customer experience. Participants also gained knowledge on behavioural insights and skills to guide future sludge-reduction efforts. We were excited to know 82 per cent of attendees would use the sludge audit method to tackle other customer frictions.
+Here's what our participants had to say:
+“The event was a high energy, engaging process. It was great to have a diversity of issues and groups doing the process. “
+“Thoroughly enjoyed and it’s about getting the right message to our customers at the right time without bogging them down with paperwork or jargon (sludge)”
+What is next 
+The sludge reduction has not ended for these teams. In November we will host a Sludge Showcase, where teams will share their implementation progress and customer benefits. 
+Accessing the guides
+ To access our full set of Sludge guides and other resources, head to the BIU guides page.
+Contact us to learn how you can bust sludge to improve your customers’ experience.
+Contact us
+ </t>
+  </si>
+  <si>
     <t>Latest sludge guides set to boost customer engagement</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/sludge-guides-boost-engagement</t>
   </si>
   <si>
+    <t xml:space="preserve">The challenge
+Sludge is a key challenge for NSW customers. Confusing forms, missing or inaccessible information and inconsistent eligibility criteria are all forms of sludge. This sludge makes it hard for customers to engage and transact with the NSW government.
+The NSW Government sludge audit provides a consistent and reliable way to identify and quantify sludge in customer services and prioritise what to tackle first. But this is only half the challenge. It is one thing to find the sludge in a process and another to fix it.
+That is where the sludge guides come in to play.
+What we did
+The sludge guides provide information about key channels which public servants use to interact with customers - letters and emails, websites, forms, phone and face to face, text messages and apps.
+Each guide includes:
+Evidence based tips and techniques for improving the customer experience and busting sludge in each channel type – all informed by the latest research in behavioural science, customer experience, and human centered design.
+Examples and case studies on how these techniques have been used successfully around the world, and how they can be applied to common government channels.
+A checklist for best practice on improving processes in a behaviourally informed way.
+What is next?
+The BIU is working on more sludge busting resources for NSW Public Servants including templates to help you complete a sludge audit, so keep an eye out for them.
+Accessing the guides
+Download our sludge resources on our guides page.
+Contact us to learn how you can bust sludge to improve your customers’ experience.
+Contact us
+ </t>
+  </si>
+  <si>
     <t>5 tips to maximise the impact of government text messages</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/maximise-text-message-impact</t>
   </si>
   <si>
+    <t xml:space="preserve">The challenge
+People who are busy may miss important information which can have a significant impact on their lives. For example, paying their social housing rent on time to avoid arrears, showing up to specialist appointments to improve their health or attending court.
+Mobile text messages are a low cost and effective way to improve communication and customer outcomes. By using behavioural insights, text messages can be optimised so customers take notice of important information and understand what actions are available to them.
+What we did
+Personalise the message to the customer
+People respond more favourably when a message is tailored to them. Messages which aren’t personalised may be seen as spam or not relevant to customers.
+Messages can be personalised to customers by using the customer’s name (e.g., “Hi John…”), or including other customer data.
+For example, we sent text messages to first year learners to encourage them to seek help and persevere with their study. Messages addressed the learner by their first name, came from their local service manager and referenced their specific qualification:
+“Hi Mel, I’m Derek, your Regional Manager at Training Services NSW. We’re the regulatory body supporting your apprenticeship… At work you can expect to learn new skills &amp; receive mentorship. Find additional support on our website bitly/TSNSWsupport, or call me on 02 942 1700”
+These messages reduced the dropout rate of learners by 16 per cent.
+Keep it simple and to the point
+Text messages are most effective when they use simple language and contain only crucial information. Customers are reluctant to read longer text messages and can be confused by complex information.
+For example, we sent simple and concise reminder text messages to tenants of social housing whose rent was overdue. We also reminded people about their commitment:
+“Your rent is overdue. When you moved in, you committed to pay your rent on time. You have broken this agreement. Visit housing.nsw.gov.au/pay"
+More than three quarters of people who received the text messages paid their overdue rent or commenced a payment plan. Only 68.5 per cent of tenants who did not receive a behavioural SMS and only received a letter commenced a payment plan.
+Have a clear call to action
+Messages should contain a clear call to action. Tell the customer what they need to do, when and how. Make this action easy for customers by including important links or other information in the message they can use.
+For example, we sent patients SMS reminders about their upcoming hospital appointments. We told customers to call to rearrange or cancel their appointment if they couldn’t make the date. The message also highlighted the loss to the hospital when they don’t take this action:
+“We are expecting you at ENT Clinic Gosford Hospital on Fri 22/03/19 at 11:00am. Please allow time to get here and bring any test results. If you attend, the hospital will not lose the $215 we lose when a patient does not turn up, and you can avoid a waitlist. To rearrange/cancel, call 4320 2111.”
+These messages reduced missed hospital appointments by 33.7 per cent, corresponding to a saving of almost $120,000 in eight months.
+Send at an optimal time
+It is best to send messages at a time when people have the opportunity to read it and action it immediately.
+For example, in our trial with apprentices, we sent text messages during common break times including in the morning between 9am and 11am, lunchtime at about 12pm, and in the afternoon at 3pm. This is when apprentices have a chance to act on the spot.
+We also sent reminder messages at key times during their apprenticeship or traineeship calendar to prompt learners to complete important training documents.
+Use an influential messenger
+Text messages should clearly state the sender and sign the text message from an influential messenger. This ensures customers trust and act on the message.
+Send the message from a dedicated number. Many services will additionally show the organisation’s name in the caller ID (for example “Training Services NSW”). Phone numbers which show up as ‘Blocked’ or ‘Private’ may be seen as untrustworthy. Alternatively, sign-off with your name as well as your role or organisation.
+We sent a weekly text message to parents and carers of school children to provide simple information about what their child learned that week and a clear action they could take to support their learning. These text messages were signed by the childs’ teacher.
+“Hi Karen, this week in class Matt learned about common nouns (e.g. dog, lamp, chair). Take it in turns to identify common items around the house. Making it fun will help Matt learn! – Ms Smith”
+These behavioural messages were effective - parents and carers had 5 per cent higher engagement at schools that sent the messages compared to those at schools that did not send messages.
+How can you use this in your work?
+Behavioural insights from our trials can be used to improve the impact of your text message campaigns:
+Personalise the message using the customer’s name or other relevant information to increase engagement.
+Simplify the message so the customer knows what you want them to do.
+Provide a clear call to action so the customer knows what action you’d like them to take, when and how. Make it easier for them to take the desired action by including any necessary links or other information. Only include actions they can complete on the spot.
+Send message at an optimal time when the customer has an opportunity to read and act on it, such as during break times.
+Use an influential messenger so customers trust and act on the message.
+For more information on our work, please contact us
+Contact us
+ </t>
+  </si>
+  <si>
     <t>Increasing take up of training in disability awareness</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/increasing-take-up-of-training-disability-awareness</t>
   </si>
   <si>
+    <t xml:space="preserve">The challenge
+The NSW Premier has set a target to ensure 5.6 per cent of government sector roles are held by people with disability by 2025. The Public Service Commission (PSC) has developed several initiatives to build disability awareness and confidence among all employees.
+In partnership with the PSC, the NSW Behavioural Insights Unit (BIU) found that diversity initiatives such as training can help promote inclusivity – you can read more about this in our blog. However, this requires increased awareness about disability, which might be achieved through improved engagement in disability inclusion initiatives.
+What we did
+The BIU partnered with the PSC to run a randomized controlled trial to test the impact of communication frames on engagement with disability initiatives. We focused on a specific training course, which had a 2.1 per cent completion rate prior to the trial in 2020.
+We developed three emails (a control and two intervention emails) to encourage training completion.
+To boost engagement across all three emails, we:
+Made engagement easy by shortening the email content (to avoid information overload)
+Attracted attention by including a single “call to action” that allowed a click through to the training
+Made the training timely by allocating training around performance review time, when staff are primed for workplace training
+Used defaults by placing the training in the training ‘to do’ list of staff
+In addition to these techniques, we altered the way the training was framed based on research on framing effects. This shows that the same information, presented in a different way, can prompt different responses. Our research suggested that two message frames could harness the motivation of the audience to complete the training, so we incorporated these into the two intervention emails: 
+1. Pro-social: Highlighting the benefit of training to the recipient’s colleagues.
+2. Self-interest: Highlighting the benefit of training to the recipient’s career
+We tested these two message frames against the third control email, which had a neutral frame but still incorporated behavioural insights principles.
+Control email
+Pro-social email 
+Self-interest email
+What we found
+Across all three emails 22.4 per cent of employees completed the new training during the trial period – a big jump from 2.1 per cent before the trial. There were no significant differences in completion rates between the pro-social and the self-interest message.
+Interestingly, we found that pro-social and self-interest frames significantly increased training start rates compared with the control. This means that these frames were more likely to prompt training, but participants dropped out of it at a higher rate.
+What does this mean? Self-interest and pro-social frames motivate action and engagement. If you’re interested in testing whether they can sustain engagement, consider weaving these motivators into the training itself. For example, to harness pro-social motivators, demonstrate how using the skills covered in training can directly benefit colleagues with disability.
+What’s next 
+We saw a big jump in completion rates across all messages. There are a few ways you can incorporate what works into promotion of your diversity initiatives:
+Harness the power of default. Make engagement the default. For example, if encouraging engagement in training, allocate the training to staff in an online training portal.
+Simplify the message. Communications should be brief. Staff with multiple competing priorities don’t have time to read lengthy emails. 
+Use a clear, strong, call to action. Limit the number of directions you provide and only have one call to action in each communication. Only include key pieces of information and make the call to action prominent.
+Link the timing with framing of the promotion of programs. Staff with competing priorities are more likely to engage with initiatives and programs at salient times. For example, use a self-interest, career-focused frame to promote training at times when staff are completing career development plans.
+Want to know more about our work? Contact us to find out more
+Contact us
+ </t>
+  </si>
+  <si>
     <t>Text service gives a boost to apprentices and employers</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/text-service-gives-a-boost-to-apprentices-and-employers</t>
   </si>
   <si>
+    <t xml:space="preserve">Interview with Training Services 
+We interviewed Derek Hennessy, Regional Manager for Education &amp; Skills Reform at TSNSW. Read the interview below where Derek discusses how behavioural insights helped improve the training outcomes and motivation of first year apprentices and trainees.
+You recently launched a free Employer Support text service. What behavioural challenge does this program address?
+For decades, there’s been a problem where many apprentices and trainees (‘learners’) don’t complete their qualifications. According to one estimate, the total cost of non-completion including lost productivity and budgetary impacts was $348 million. That’s why, in 2015, the NSW Premier made it a State Priority to increase apprenticeship and traineeship completion from 50% to 65%.
+Research by the NSW Behavioural Insights Unit revealed that the learners who are most likely to quit do so in their first year. While there may be varying workplace or training issues, most learners who struggle with their qualifications don’t know where to get help and rarely seek support from NSW Government services as a result.
+Over 12-months, in collaboration with learners, teachers, employers and TSNSW Advisors, we worked with the BIU to develop a free Employer Support text service to:
+Encourage learners to seek help when they needed it; and
+Persevere with their apprenticeship or traineeship.
+To date, this service has successfully reduced dropout rates by 16 per cent. So, we’re very excited by the state-wide rollout in April 2022. This could see an additional 1,850 apprentices and trainees stay in their course each year.
+How did behavioural insights improve this program?
+The NSW Behavioural Insights Unit has been amazing through the whole project. They supported our fieldwork, which found that learners deal with many state and federal government agencies for different purposes. However, learners aren’t clear on where to get help, so they default to doing nothing and eventually drop out. Early on we realised how important it was to quickly contact learners and direct them to relevant support services.
+The team also helped ensure that all our communications incorporated behavioural insights principles. For example, making messages personalised, providing simple and concise instructions, a clear call-to-action and sending texts during common break times. Importantly, these messages were also delivered at pivotal points along the apprenticeship/traineeship journey.
+While the NSW Behavioural Insights Unit helped significantly during the trial period, they also provided TSNSW with structured support and guidance so we could manage and implement this program ourselves.
+What are some of the key lessons you learned from this program?
+Firstly, that failure is a step towards success. The Employer Support program is the result of a six-year collaboration. We initially started with a different behavioural insights trial, which did not yield a statistically significant result. But we didn’t let that deter us. We took those lessons into another trial and scaled it from there.
+Secondly, that seemingly small and simple ideas can have tremendous impact. Improving completion rates for apprenticeships and traineeships remains a complex and difficult challenge. And while there’s several ways to tackle it, behavioural insights proved to be effective tool especially when it came to improving our communications.
+Lastly, that there are opportunities to embed behavioural insights in other areas of our work. While this program targeted apprentices and trainees, we can certainly use the concepts we’ve learned to improve how we engage our other customers, employers within industry, training organisations or any other stakeholders within the vocational education and training (VET) sector.
+Think behavioural insights can help you?
+The Behavioural Insights Unit offers 30-minute clinics for NSW public servants who want advice on resolving a behavioural problem in customer service, policy or programs. 
+If you work in the NSW Government, book a clinic with the Behavioural Insights Unit today.
+Book clinic
+ </t>
+  </si>
+  <si>
     <t>Gamifying cyber security education proves a win</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/gamifying-cyber-security-education-proves-a-win</t>
   </si>
   <si>
+    <t xml:space="preserve">The challenge
+Cyber attackers use tactics such as identity theft and scam emails to gain valuable personal, corporate and government information. Phishing is an email that tricks people into clicking malicious links or sharing sensitive information. Since the COVID-19 pandemic began, phishing schemes and other cyber attacks have been on the rise, with reported incidents increasing by 50 per cent (PDF 4.02MB). Due to this threat, the NSW government has invested $240m into building their cyber security capability, ranging from delivering more research to developing better training.
+Cyber attackers prey on our behavioural vulnerabilities, sending phishing emails when we’re busiest at work or using urgent language to lure us onto malicious websites. Traditionally, we have used training modules and awareness campaigns to share best practices about digital security. However, research shows these approaches do not improve behaviour, such as the reporting of phishing emails. Rethinking how we teach cyber security could be one step towards improving our safety online.
+Gamification applies game design to other types of activities, such as education, health and workplace training. In education, gamification has been used to increase engagement and motivation towards learning. Several laboratory studies also show that gamification can improve our ability to identify cyber security threats. 
+What we did
+In 2021, we partnered with the Department of Customer Service Chief Information Security Office to develop a cyber security game to complement existing training for NSW government employees. ‘Tour de Phish’ immerses players into a young cyclist’s first professional race. To complete the course, players must quickly identify whether incoming emails and requests are safe or malicious. Several game mechanics were used, including a point system, leaderboard, time pressure and increased levels of difficulty.
+The game complements existing training, by incorporating lessons developed by Cyber Security NSW.
+We applied several behavioural principles when designing the game to address barriers that make us more vulnerable to cyber attacks. These principles include:
+Simplification: typical training courses present too many unfamiliar and complex rules, leaving people feeling overwhelmed. Tour de Phish keeps it simple by focusing on a few key cyber security tips and engaging players in a fun learning environment.
+Timeliness: behavioural research tells us that information we learn quickly fades if we don’t have a chance to apply it. In the game, players learn cyber security tips and then immediately practice their phish spotting skills to maximise the chances they remember what they’ve learnt.
+Salience: people often ignore or delete phishing emails as they don’t know what to do or how to report them. Throughout the game, we specifically draw attention to the reporting button to encourage people to act against malicious emails.
+Incentivisation: when players are faced with an email in the game, they can choose to either reply, report or delete it. We reward players if they correctly report an email and penalise points if they reply or delete a phishing email. Rewarding players reinforces the positive impact of reporting and incentivises taking action.
+Players receive feedback about what they got right or wrong, as well as the real-world impact of their actions. For example, when a player correctly reports a phish: “By reporting phishing, you have protected our customers’ confidential information from getting into the wrong hands.”
+For an incorrect action: “Because you clicked on the suspicious link, hackers have delivered malware into our system and have access to our customers’ confidential information.”
+This feedback loop reinforces behaviour change, and helps players improve decisions later in the game.
+We also collaborated with staff with disability to make sure the game was accessible, introducing features such as audio descriptions, voice prompts, audio cues, and adjustments for color blindness.
+What we found
+We tested with users from different teams in the Department of Customer Service. Feedback was overwhelmingly positive, with 89 per cent of users preferring to learn via an online game compared to an online course or face-to-face workshop. Additionally, 92 per cent of users enjoyed playing the game, and 100 per cent of users felt more confident in identifying phishing emails after completing the Tour de Phish.
+What’s next
+Tour de Phish has been included in the learning platform for all staff in the Department of Customer Service. In addition, when staff mistakenly click into simulated phishing emails they are directed to play our training game to build learning.
+The NSW BIU will explore other applications of gamification for other training that supports better citizen outcomes in NSW.
+Our results show that gamifying cyber security made learning easy, effective and enjoyable. Can you deliver challenging content in ways that are more fun and engaging? Where could you apply gamification in other mandated learning and development courses?
+Want help applying behavioural insights so staff make the most out of training? Book a clinic with the BIU today.
+Book clinic
+ </t>
+  </si>
+  <si>
     <t xml:space="preserve">The world’s first sludge-a-thon to eliminate sludge and improve customer experience </t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/worlds-first-sludge-a-thon</t>
   </si>
   <si>
+    <t>What is sludge and why does it matter?
+Sludge is the unnecessary friction that makes it harder for our customers to get what they want, when they want it. With New South Wales committed to being the world’s most customer centric government it is critical we remove these frictions.
+Eliminating sludge in the Department of Customer Service
+The NSW Behavioural Insights Unit have developed a sludge busting method we call the ‘sludge audit’. The sludge audit allows us to identify hidden sludge that gets in the way of a good customer experience so it can be eliminated. In 2021, teams from across the Department of Customer Service had the opportunity to use this method to bust sludge for customers in the world’s first Sludge-a-thon.
+Each of the 11 teams nominated a process to improve for their customers. They learnt about and applied the sludge audit method to first identify, and second eliminate sludge using behavioural insights.
+Identify sludge. The teams were guided through a series of intensive workshops and clinics to complete the two-step audit. They used the results to identify which parts of the customer process to focus on. They used customer feedback and data to amplify the voice of the customer throughout the audit process.
+Eliminate sludge. With sludge identified, teams rapidly moved through a series of design sprints in a two-day hack-a-thon style accelerator. Learning about and applying behavioural insights, they designed and tested prototypes with experts from across the fields of behavioural insights and customer experience.
+After the event they walked away with a sludge busting solutions. Teams are now implementing solutions to improve the customer experience, with support from the NSW Behavioural Insights Unit.
+CASE STUDIES – REAL IMPACT
+Defaults for simple login
+One team have used defaults to improve the experience of customers who forget their password.
+Customers who forget their password have an option to request a temporary one-time code or reset their password altogether. One-time codes, while quicker in the short term, make for a bad experience in the long run.
+The audit revealed that customers were opting for the default option, which was the sludgier one, not realising that it would take them more time to resolve. Changing the default to encourage a password reset has led to a 22 percent increase in customers taking the preferred option, which equates to a saving of 7 minutes per customer.
+Transparent and streamlined consent
+Through simplification and inspired by a ‘whole of customer’ approach to service delivery, a Service NSW team has streamlined their consent process.
+When customers want to change personal details like their address, they should have the ability to ‘tell us once’. The sludge audit revealed that customers need to update details across multiple NSW Government services.
+The team developed a simple consent solution, which will save customers time and makes it simple for customers to update their details once across a range of Government agencies.
+photoExpand
+Image
+Close(Press escape to close)
+Image
+With a sludge-a-thon participant experience rating of 4.8/5, those involved had great things to say:
+“The behavioural insights tools, the facilitators who provided really useful feedback from an objective perspective, proxy customer feedback helped us further refine the solution to remove even more sludge.” 
+“This process is CRITICAL to streamlining any initiative - saving time and money for government but importantly - the customer. It should be a mandatory part of any project plan and evaluation for any program.” 
+The sludge-a-thon will continue to have an enduring impact on NSW government customers.
+Participants reported that the event helped them to think differently about how to solve challenges. 85 percent of participants said they would use what they learned at the sludge-a-thon to improve other customer processes.
+Want to learn how you can bust sludge to improve your customers’ experience?
+Get in touch with us at sludge@customerservice.nsw.gov.au</t>
+  </si>
+  <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/expressions-of-interest-open-for-sludge-a-thon-2022</t>
   </si>
   <si>
+    <t xml:space="preserve">Key information
+The sludge-a-thon is an exciting opportunity to improve customer experience by eliminating sludge from government processes and services.
+This year, teams across the NSW government are invited to come together to rapidly develop solutions to transform the customer experience.
+Any team in NSW Government can nominate a process they own that they’d like to improve at the sludge-a-thon.
+These improvements will save customers time and effort. Not only that, but teams will also learn valuable skills they can apply to continue to improve the customer experience.
+Expressions of interest are open, so submit yours today or get in touch with us to find out more.
+Apply now
+What will I get out of the sludge-a-thon?
+The NSW Behavioural Insights Unit’s ‘sludge-a-thon’ is an opportunity to make a difference for your customers. You will learn about and practically apply the sludge audit method to spot sludge and learn how to use behavioural insights to eliminate it.
+You’ll learn from experts and walk away with a prototype and implementation plan for your improved process. You will be ready to make a big, positive, impact for your customers.
+It all kicks off with a workshop where you’ll learn:
+how to use the sludge audit tool to conduct a sludge audit
+how to present and analyse results
+key insights to consider when prioritising frictions
+Then, over a month you’ll get dedicated support from the NSW Behavioural Insights Unit. We will show you how to use the tool on your process and identify the sludge you’ll be eliminating.
+With your sludge identified, it’s time for 2 action packed days of intensive solution building. Across the 2 days, you will:
+receive expert assistance on how to apply behavioural insights to the friction you’ve prioritised
+move through structured design sprints to build innovative solutions to bust sludge
+rapidly learn about behavioural insights in a behavioural insights immersion
+walk away with a prototype and an action plan to implement for impact
+How to apply
+Anyone working in NSW Government, who wants to improve their customers’ experience by removing sludge from a process customers interact with, can apply
+1
+Select a process
+Select a process that you and your team want to improve.
+2
+Manager approval
+Gain approval from your manager to participate and gather a team to participate.
+3
+Apply
+Complete the online application form to apply.
+Questions and contact us
+Book in to attend an information session to learn about the sludge-a-thon or about how you can bust sludge for your customers
+Two sessions are available:
+Thursday 17 March, 12pm
+Tuesday 22 March, 12pm
+You can also contact alex.galassi@customerservice.nsw.gov.au
+Apply to be part of the sludge-a-thon today!
+Apply now
+ </t>
+  </si>
+  <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/messages-from-teachers-help-parents-connect-schools</t>
   </si>
   <si>
+    <t xml:space="preserve">Key information
+The challenge: Parents and carers want to understand what their children are learning and help them but lack time and information. Schools want to build engagement with parents and carers to improve learning outcomes, school attendance and build community.
+What we did: Together with the Department of Education we developed a weekly text messaging program for schools to send to parents and carers. These messages were based in behavioural science, with easy actions, simple information, and encouragement. Schools customised these messages for their classes. Messages were sent weekly during Term 2, 2021.
+What we learned: Seven simple messages have the power to change how parents and carers engage with their child’s education. We found parents and carers had 5 percent higher engagement at schools that sent the messages compared to those at schools that did not send messages. This increase in engagement is like bringing the engagement of parents and carers of Year 5/6 children back up to the level of parents and carers of kindergarten children, who are generally much more engaged.
+The challenge
+Parents and carers want to help their children do well at school but they may not know how to do this. Parents and carers face barriers like a lack of time and information. Evidence from studies in Australia and overseas shows that when parents and carers are engaged, children have increased attendance and better learning outcomes.
+Access learning guidance resources for parents.
+When we spoke to parents and carers in NSW, they told us:
+they want to help their children learn, but do not know how best to help.
+they think their children can easily catch up when they miss school.
+some do not feel connected to the school community, and do not engage with social media or newsletters.
+teachers are the most important and impactful messengers.
+What we did
+In Term 2, 2021, schools sent seven personalised, weekly SMS to parents and carers. These messages were prepared by teachers and school leaders using behaviourally designed message templates. The templates were developed by the Behavioural Insights Unit and the Department of Education.
+Each message gave parents and carers simple information about what their child learned that week. They also had a clear action they could take to support learning and provided encouragement to help them follow through.
+For example:
+“Hi Karen, this week in class Matt learned about common nouns (e.g. dog, lamp, chair). Take it in turns to identify common items around the house. Making it fun will help Matt learn! – Ms Smith”
+We tested the impact of our SMS on NSW primary school students using a randomised controlled trial. We had 195 NSW primary schools, with 26005 students, express interest in being part of the trial.
+We also surveyed parents, carers, and teachers. This survey measured how engaged parents and carers felt with their child’s school, what their child was learning, and their attitudes towards school attendance.
+What we learned
+Parents and carers had 5 percent higher engagement at schools that sent the messages compared to those at schools that did not send messages.
+Parents and carers who got the messages reported they were more likely to help their kids with schoolwork, felt better informed and felt more welcome at school.
+More than two thirds, 73 percent, of parents and carers who got the messages reported talking with their child about what they learned in class, and more than half, 53 percent, reported doing short learning activities with their kids at home.
+Parents and carers said they really appreciated having easy ways to connect with their child and support their learning:
+“I have loved this system. It has made me feel more a part of learning with my son and also has allowed me to reinforce his learning at home.” –Parent involved in the trial
+Parents and carers who speak a language other than English at home, those with a year 12 or lower education, and those at more disadvantaged schools were especially positive about the messages.
+Parents and carers were more likely to think attendance matters as their engagement increased. This positive attitude did not lead to an increased rate of attendance in the seven-week period of this test but suggests that over time the SMS may lead to increased attendance.
+These messages work because they are:
+An easy way for parents and carers to support learning – they get the information they need and a clear action they can take to support what their child is learning in class.
+Timely – messages are sent weekly at a time of day when most parents and carers will soon be with their children.
+Able to reach parents and carers – SMS is a cut-through channel to reach more parents and carers.
+Next steps
+Based on the success of this trial we are working with our partners in the Department of Education to build a new suite of resources for schools that might like to implement this.
+These resources will enable schools to use this messaging to transform how their parents and carers connect with learning.
+How can I apply this
+These results show that SMS can be a valuable tool to change how you connect with customers. By using personalised, helpful content you can build engagement and build a relationship with customers.
+If you want to apply this in your work, we recommend you:
+Know your purpose – know what you want your customers to do after getting your message
+Build a call to action – clearly communicate your ask in the SMS to your customers
+Make it easy – your message should contain information that makes it easy for your customers to respond to that call to action.
+Send at the right time – consider the time and day of the week when your customers are most likely to take action immediately.
+Want help applying behavioural insights to build engagement with your customers?
+Book a clinic with the BIU today.
+Book clinic
+ </t>
+  </si>
+  <si>
     <t>Helping public servants turn training into impact</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/helping-public-servants-turn-training-into-impact</t>
   </si>
   <si>
+    <t xml:space="preserve">Key information
+The challenge: Skills learned in training are not always put into practice in the workplace.
+What we did: We worked with two NSW Government frontline agencies to learn how best to encourage staff to use skills from training in their regular work.
+What we learned: Training is more likely to be used when the behaviour is easy to do, the learnings become habits, and the work environment reinforces those behaviours. 
+How can I apply this? The next time your staff need training, think about how you can encourage and reinforce that training in the workplace.
+The Challenge
+The disconnect between the training environment and the work environment means that training alone is unlikely to cause long term behaviour change.
+There are a range of reasons that training may not get put into practice:
+Difficulty applying the skills outside of training scenarios
+Lack of confidence
+Few opportunities to use the skills in the workplace
+A belief that other colleagues are not applying the skills
+What we did
+We worked with two frontline agencies in the NSW Government to help them make lessons from training stick – and make an impact on their customers.
+What we learned
+Make it easy for staff to implement new skills
+Managers need to set clear processes for staff to follow so that they know when and how to make decisions in unfamiliar situations.
+Rules of thumb. Turn the key take-aways from training into memorable rules of thumb for your staff. This will help people make the best decision in stressful or unfamiliar situations. For example, create staff email templates for common communications with customers. The rule of thumb can be: if you have to email a customer about topic X, use template X.
+Decision aids provide clear guidance on how to make decisions when faced with a complex choice. A simple chart with a ‘if a customer enquires about X, do Y’ type of branching diagram can help staff make the right decision quickly.
+Changing situational cues are effective at modifying behaviour. You can change a person’s environment to signal the appropriate behaviour. Example situational cues include posters with guidance displayed in the workplace. Posters and visual aids can prompt people to perform the correct behaviour in the setting where it needs to be performed. 
+Turn the skills learned in training into habits
+Skills learned through training are unlikely to become routine practices if staff do not have the chance to use them regularly. Staff may want to use their new skills, but either forget or don’t know how to.
+Skills can be forgotten or neglected if they are not used frequently, so it is important to provide plenty of opportunities for practice.
+Training top ups. Staff may struggle to use each aspect of training, particularly if the session covers a lot of material. Refresher courses can help to reinforce learnings.
+If/then action plans help staff to plan ahead for instances in which they can use the skills, so they are ready to respond when the situation arises. For example, request your staff to fill in their own planned responses to a range of workplace situations.
+Set up a supportive environment
+Staff may be reluctant to practice new ways of working if they think that their colleagues are not adjusting their behaviour.
+Regular feedback from managers can show that leaders support the change in behaviour and gives them an opportunity to model that behaviour to their staff.
+Establish training buddies (or groups) who can check in on each other, share learnings, and motivate one another to apply what they have learnt.
+Report back at team meetings. This shows the team ways the lessons can be applied. It also helps to set expectations for correct behaviour.
+How can I apply this?
+When planning training, you need to consider more than just what happens in the training room. You can run an amazing training session but if people don’t put it into practice afterwards then it’s no benefit to your staff or customers.
+Think about the next piece of training your staff need to do. How can you make it easier for your staff to follow through and implement what they have learned? What opportunities do staff have to practice their skills so they can use it when the time is right? How might you create a supportive environment where your staff can learn from one another and see what the correct behaviour is?
+Want help applying behavioural insights so staff make the most of training?
+Book a clinic with the BIU today.
+Book clinic
+ </t>
+  </si>
+  <si>
     <t>Teach-back and behavioural communication improved self-isolation while awaiting COVID clinic test results</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/teach-back-and-behavioural-communication-improved-self-isolation-while-awaiting-covid-clinic-test-results</t>
   </si>
   <si>
+    <t xml:space="preserve">Key information
+The challenge: To limit the spread of Covid, self-isolation between getting tested at a clinic and getting the test result was critical. Uncertainty about when and how to self-isolate was hampering some compliance in 2020.
+What we did: In 2020, we worked with NSW Health, SydPath and Western Sydney Local Health District to run a trial to identify and remove behavioural barriers to correct self-isolation.
+Result: Our succinct handout, and 'teach-back' instructions delivered by clinicians, decreased self-reported self-isolation breaches by 29 per cent.
+Ehsan Shahsavandharati (HETI), Dr Jeremy McAnulty (NSW Health), Cathy Miller (HETI), Howard Dawson (HETI)
+The challenge
+During 2020 and 2021, self-isolation after COVID testing was an essential part of the public health strategy to prevent further community outbreaks of COVID. However, self-isolation behaviour confused some people. Despite good intentions, maintaining self-isolation could be challenging. People getting COVID tests may not have considered practical issues like picking up children from school, attending work, grocery shopping or visiting family. Additionally, some people who do not have severe symptoms get tested for peace of mind, or to satisfy work and childcare requirements. They may perceive lower likelihood that they are COVID-19 positive. They are subsequently caught off guard when they’re told they need to self-isolate until they get a negative test result.
+What we did
+We conducted fieldwork in Western Sydney to understand the behavioural barriers impacting on correct self-isolation behaviour. We found that:
+Different information materials were being used in different testing clinics. Some clinics gave customers numerous leaflets with dense information, while others may not specifically provide written instructions on self-isolation.
+Verbal briefing of self-isolation varied, with some clinics spending around five minutes to explain the importance of self-isolation in detail, while others presume familiarity and place less emphasis on self-isolation.
+There was inconsistent explanation of self-isolation behaviours. The relevant Public Health Order at the time required that people go straight home after a test, until they receive a negative test result. However, some customers would stop off along the way, or continue with their activities for the day.
+Our trial began with a one-week benchmarking period (12 November to 22 November 2020), where customers were sent an English language survey prior to the intervention, to gauge a baseline of compliance.
+We then delivered the intervention over six weeks, from 24 November 2020 to 3 January 2021. Everyone who was tested in nine clinics in Western Sydney Local Health District was randomly assigned to either the treatment or control group.
+Treatment: this group received a new handout and an enhanced briefing process (‘teach-back’), which were designed using behavioural insights principles.
+Control: this group received a standard NSW Health leaflet for customers with the pre-existing briefing process delivered (no teach-back).
+The nine trial sites alternated between treatment and control from one week to the next, for the six-week period. The figure below provides an illustration of this process. 
+In addition, a further four clinics served as benchmarking sites. They were not placed into Treatment or Control. Rather, they were used to monitor the impact of testing volumes and to provide a benchmark of customer experience.
+Customers who received a negative test result were invited to complete our survey about their customer service experience, as well as report on their self-isolation behaviours.
+People with positive results were not surveyed for ethical reasons. People who are COVID-19 positive are under stress and already receive additional monitoring from NSW Health that reinforces self-isolation.
+Almost 76,000 customers with negative COVID-19 results were sent a link to our survey via SMS. The survey could be completed in English or one of the other three biggest languages in Western Sydney, which have the lowest level of English-language proficiency: Chinese, Arabic and Korean. We received almost 8,000 valid responses to our survey across the 13 clinics. In this analysis we focus solely on responses from the 9 clinics (n=3,289), including 1,649 customers in Treatment and 1,640 in Control.
+We relied on self-reported measures, including how many times customers left home while waiting for their test results. To limit social desirability bias (responding to questions in the best positive light) customers were surveyed online after they received a negative result and their required self-isolation was over, and the survey was completely anonymous. We also reduced perceived stigma by asking about a range of reasons that people may need to break self-isolation, including permissible reasons under the Public Health Order, such as seeking medical assistance.
+Behaviourally informed written advice to customers
+The behaviourally informed handout provided simple, but targeted, written information at the point of testing: a clear call to action, practical steps to overcome barriers to self-isolation, assurance about the 24-hour time waiting for results, and multilingual instructions.
+The behavioural science techniques embedded in our handout include:
+Simplification: Breaking down complex and unfamiliar tasks into easy steps increases compliance. The handout told people the two things they need to do immediately after leaving the testing clinic: 1) Go straight home. Don’t stop off along the way. 2) Self-isolate. The instructions were provided in Easy English.
+Salience: People are more likely to pay attention to details that stimulate their senses (such as attractive colours), and which focus attention on important details. Our handout reminded people they’ll get results within 24 hours, and they should stay home even if they don’t feel sick. Graphics of the key messages aid understanding.
+Scarcity mindset: People who are busy or overwhelmed have limited ability to take in new information (PDF 142.3KB) and make optimal choices. We can help busy people who feel unprepared for self-isolation by offering suggestions to major behavioural barriers. 
+Timeliness: People are more likely to take action if they receive clear directions at an optimum time. Rather than overwhelming customers with detail, we focused on essential information they need at time of testing: how to best self-isolate at home. Additional information about testing and self-isolation from the business-as-usual leaflets were accessible via a QR code. Each language had its own QR code, that led customers to a translated webpage.
+Make it easy: Asking for translated materials is sometimes a barrier. Our double-sided multilingual handout included four languages in one place. This meant customers weren’t forced to request additional help, and staff didn’t spend time trying to find the right materials for those who need it most.
+A sample of our behavioural handout is included below.
+Teach-back: improving what clinicians tell customers using behavioural insights
+‘Teach-back’ is an effective way for health professionals to check whether customers are confident in following directions when they leave a healthcare setting. We provided clinic staff with standardised script on self-isolation that mirrors the messages in the handout. Customers were then asked to repeat back what they need to do to correctly self-isolate. Clinic staff also had a checklist, to ensure they listen for key information.
+Teach-back ensures clinic staff don’t assume customers’ understanding and ability to action directions (that is, their health literacy), and provides opportunity to ask questions and clarify self-isolation issues. 
+The teach-back script draws on the following behavioural principles:
+Simplification: Clarifying messages strengthens compliance. The script clarifies the meaning of self-isolation and reinforces the call to action from the behavioural handout.
+Temporal discounting: People tend to discount future benefits and consequences. The script emphasises that 24 hours is a short wait for peace of mind on test results.
+Error management: People are more likely to make mistakes in stressful working conditions. Checklists present complex information clearly and concisely, ensuring important details are not missed. Our checklist ensures clinic staff can double check the customer has understood the key messages on self-isolation.
+What we found
+Our handout and teach-back intervention led to increased compliance. People who received our intervention were less likely to break isolation (92.5% said they never left home) compared to people who received business-as-usual service (89.5%). The difference was statistically significant.
+The intervention could decrease the number of people leaving home before getting their test results by 300 people each day, or 2,100 each week for every 10,000 tests conducted. This equates to 29% fewer people breaching self-isolation weekly.
+Customer satisfaction with COVID-19 clinics
+The enhanced process was stress-tested during the Northern Beaches outbreak. Throughout the six-week trial period, customers gave COVID-19 testing clinics a high satisfaction rating, with an average 9.4 out of 10. Even with a significant increase in testing volume, the handout and teach-back did not impact high customer satisfaction (see the graph below).
+Willingness to be re-tested
+Additionally, our trial found that only 3 out of 5 customers reported they would get re-tested in less than 24 hours if they had symptoms again. This suggests continued communications could improve responses to public calls for testing.
+Multilingual survey options increase response rates
+We found that more people completed our survey when they received a SMS text that offered multilingual options. During benchmarking week, an average of 10.8% of people completed our survey, however, during the trial, when people had the option to complete in English, Chinese, Arabic or Korean, an average of 16.4% of people completed our survey.
+Nevertheless, most people completed the survey in English. Possibly because the survey in English was simple enough for people to understand.
+Our results suggest that multilingual materials boost compliance and reciprocity. Providing COVID-19 materials in multiple languages, and surveying in multiple languages, demonstrates the NSW Government is listening to multilingual communities.
+Managing additional information by using a QR code
+Only 11% of people used the QR code to access more information on self-isolation on the NSW Health webpages. Most people visited the English page, but spent little time reading these resources (there was a 70% bounce rate, meaning people left within seconds of opening the page).
+Our results suggest that QR codes may be useful for instrumental purposes (e.g. COVID Safe check in), but less impactful in delivering health education. Further testing is required on the efficacy of QR codes for delivering complex health information. It seems likely that the public requires less information and responds well to simplified directions that clarify what they need to know on the spot.
+What’s next
+After reviewing the research findings, in 2021 NSW Health has:
+1. Redesigned the written information provided to customers at public COVID testing clinics
+The new information provides easy-to-follow instructions, which addresses common behavioural barriers that lead to people breaking self-isolation
+The new information includes practical tips on how to plan ahead, such as asking friends to drop off groceries or for family to pick up children from school
+A personalised QR code allows customers to register for their test results following a small number of simple steps
+Translated information is available to maximise community reach.
+2. Provided new training resources to all clinic staff across NSW, including a training video produced by the Health Education and Training Institute. In the first three months of use, over 1500 NSW Health staff had completed the training.
+Additionally, private clinics around NSW have adopted advice on behavioural communications into their practices (see the example from Histopath below). In the first three months of implementation, there were 1,000 unique views of the webpage for private clinics containing the teach-back training.
+How can you use this in your work?
+Lessons from this trial can be used to improve information or other services that require behavioural change.
+Provide timely information: people are more likely to comply with a short call to action. Focus on what they need to do right away. Give customers practical advice to help them overcome barriers. Use salient features, like simple graphics and bright colours to call attention to important details.
+Provide multilingual materials and feedback: people are more likely to comply with behaviours with multilingual translations that are made easy. Rather than simply expecting customers to call translation services, or navigate webpages to find relevant information, make it easy by including the top languages in your local service area. Providing multilingual surveys also increases people’s willingness to complete a questionnaire.
+Make customer service easy: when introducing a large behavioural change for customers, provide a behavioural script for staff delivering services, so they cover important information succinctly. Include a checklist as a prompt to help staff.
+Please contact us for more information.
+Contact us
+ </t>
+  </si>
+  <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/ten-tips-for-communicating-information-to-customers-an-emergency</t>
   </si>
   <si>
+    <t>Introduction
+When facing a stressful event such as preparing for an evacuation, customers absorb information differently. Government must take this into consideration so that in an emergency our customers can get the information they need. We want to share with you some advice about how best to communicate with customers in these situations.
+What we did
+We identified ten simple, evidence-based tips that NSW public servants can implement that respond directly to barriers customers face in times of stress.
+Barrier: People are confronted with more information than they can process.
+Tip 1: Avoid information overload
+Provide clear and simple actionable steps.
+Use short sentences and avoid long paragraphs, opt for bullet points instead.
+Information that is most important should be presented first - we’re more likely to remember what we see first.
+Create checklists to simplify actions e.g. an evacuation preparation checklist.
+Tip 2: Simplify complex information
+Use simple visuals and layouts to communicate risk into understandable information e.g. use colour to highlight key information and remove unnecessary text.
+Present information in a way that people can visualise and compare quickly.
+Tip 3: Foster an adaptive mindset
+Remind users that it’s normal to feel stress when facing a potential emergency, and that we can harness the stress response for positive gain.
+Barrier: People seek to minimise effort and are disproportionately affected by small frictions.
+Tip 4: Build resilience
+Help customers formulate a plan of steps to take in the event of an emergency. Present users with sets of "if... then..." statements to prompt planning e.g. “If I receive a warning to evacuate, then I will….”
+Tip 5: Manage customers who may be too optimistic
+Share stories of others who have been impacted by an emergency, emphasising the need to be prepared early.
+Avoid ambiguous calls to action. Provide a specific explanation for why and how people should prepare as we are more likely to take action when there is clear information.
+Barrier: People resist changing behaviour in times of uncertainty.
+Tip 6: Remember that people tend to focus on immediate rather than future outcomes
+Frame information to highlight potential financial losses of not taking action.
+Frame information to highlight the immediate benefits of planning.
+Tip 7: Explain assumptions about the role of government
+It is important to communicate that government measures are not total security against emergencies, and that individual responsibility is important.
+Highlight what the individual is losing by being unprepared (property damage, livelihood etc.).
+Tip 8: Focus on using collective terms
+Address the public in collective terms like urging ‘us’ to act for the common good.
+Avoid communicating about panic. News stories that employ the language of panic can foster individualism, turning sensible preparations into dysfunctional stockpiling.
+Barrier: People interpret information using rules of thumb that confirm existing beliefs and experiences.
+Tip 9: Boost self-efficacy
+Increase perceived control by providing positive stories of people benefiting from preparation or adding a short paragraph about how people can achieve positive outcomes with minimal effort.
+Make it clear that it is ‘not too late’ to successfully prepare for an emergency and that a huge difference can be made even within a matter of hours. 
+Tip 10: Target customers who have not experienced an emergency before
+Use social norms to prompt behavioural change. A message might say, ‘the overwhelming majority of people in your community have made evacuation preparations to protect their family’.
+How can you use this in your work?
+These tips can be adapted and utilised by anyone communicating to customers (both individual &amp; businesses) facing a stressful situation such as seasonal weather or COVID-19 related events. 
+If you would like to discuss how you can implement these tips into your work, the Behavioural Insights Unit offers 30-minute clinics for NSW public servants. Clinics are delivered online every Wednesday. If you work in the NSW Government, book a clinic with the Behavioural Insights Unit today. 
+Book clinic
+Read more
+References
+Grothmann, T., &amp; Reusswig, F. (2006). People at risk of flooding: Why some residents take precautionary action while others do not. Natural hazards, 38(1), 101-120.
+Burd, H., &amp; Hallsworth, M. (2016). Making the change: Behavioural factors in person-and community centred approaches for health and wellbeing. Realising the Value. London: Behavioural Insights Team.
+Van Bavel, J. J., Baicker, K., Boggio, P.S. et al (2020). Using social and behavioural science to support COVID-19 pandemic response. Nature human behaviour, 4(5), 460-471.</t>
+  </si>
+  <si>
     <t>2021</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/supporting-recruitment-and-retention-of-people-disability</t>
   </si>
   <si>
+    <t>Key information
+The challenge: Administrative hurdles and inadequate support create barriers to the career progression of people with disability in the NSW public service.
+What we did: Managerial relationships were identified as a barrier, so we partnered with the NSW Public Service Commission to see how managers could play a role in supporting the career progression of people with disability.
+Result: We found that behavioural insights can help managers to improve recruitment and promotion of people with disability, implement workplace adjustments, capture actionable information on staff disability, and offer relevant training and support.
+The challenge
+Disability is more common than most people may think. One in five Australians have a disability (18%). It’s likely that we work with someone who has a disability, even if we don’t know it.
+The NSW Premier’s Priority to create a ‘world class public service’, includes ensuring that 5.6% of government sector roles are held by people with a disability by 2025. In 2019, 2.5% of public servants were people with disability. To meet the Premier’s target, the NSW public service sector is supporting a broad range of activities to improve recruitment and workplace culture.
+What we did
+We did fieldwork to understand how we could support the Premier’s Priority with a behavioural intervention.
+We interviewed 50 NSW public servants:
+22 one-on-one interviews with staff with a range of physical, sensory, and cognitive/ mental health disabilities. Most of these staff members had more than one disability. Two of the participants were Aboriginal, and five were ethnic minorities from non-English-speaking backgrounds (two are Auslan speakers, one of whom is an ethnic minority).
+Six focus groups with 28 senior managers and HR experts (‘managers’).
+Participants were roughly balanced by gender and age (14 were over 41 years, the rest under 40 years).
+We also consulted with experts from the Department of Customer Service to better understand data collection on people with disability, to identify potential improvements to the recruitment and promotion of people with disability.
+The result
+Support managers to improve recruitment and promotion
+Managers told us that there are many hurdles, as well as hidden costs, to recruitment (friction costs). For example:
+Navigating extensive information for recruitment panels, with dense guidelines and too many forms.
+Lack of focus on disability inclusion; for example, not knowing how to check for interview adjustments.
+Little flexibility to modify role descriptions.
+No awareness about Rule 26, which allows recruiters to vary recruitment and selection process, to improve outcomes for non-Executive candidates with disability (e.g. advertising requirements, recruitment assessments, modifying bulk recruitment processes).
+Difficult to understand how workplace adjustments work once a candidate is hired, especially in fast paced environments experiencing budget cuts.
+Reduce unnecessary administrative burden from recruitment (‘sludge’)
+Provide hiring panels with a brief checklist that includes tips on disability inclusion, such as offering all candidates adjustments during the selection process, discussing job share and flexible work options as part of the job interview, and considerations on whether Rule 26 might apply.
+Create a feedback loop
+In our interviews, staff report that they are looking to better understand how to act on promotion opportunities. Individuals improve their results when they are provided timely feedback data they can reflect and use to change their behaviour (‘feedback loop’). Examples discussed in our interviews include:
+Constructive feedback on how to improve their capabilities.
+Opportunities to learn new skills on-the-job.
+Collaborating with a manager to come up with a list of specific skills and goals to prepare staff for a higher-level position.
+Executive Roundtables create an opportunity for leaders and managers hear directly from staff with disability on what they need to ensure their career progression.
+Specialist programs, such as Stepping Into, provided staff with more dedicated support to navigate career planning. Public servants can tap into these established networks to recruit and retain talent.
+Make it easier to implement workplace adjustments
+In our interviews, staff report many challenges and delays to get reasonable workplace adjustments properly implemented (e.g. multiple assessments).
+Simplify implementation of adjustments. People are more likely to act when forms are easy to follow, and unnecessary steps are removed (simplification). The Department of Customer Service has rolled out a ‘Workplace Adjustment Passport,’ that eliminates the need to re-apply for, and chase up, their adjustments each time an employee applies for a new role. The Passport states the employee’s approved adjustments, without specifying disability or other personal details. This simple administrative action could be efficiently used across the public service.
+Managers told us it is confusing to navigate information about how to pay for and implement adjustments for their staff. Other research has also identified that lack of awareness and perceived cost about adjustments hampers recruitment of those who might need them.
+Establish central funding as the default. Individuals prefer to go with the pre-set option (default bias). Therefore, making a new or unfamiliar decision the automatic choice encourages positive behaviour change. The Department of Customer Service has recently introduced central funding for adjustments, taking financial pressure off individual teams and hiring managers. As part of the recruitment processes, hiring managers can be prompted with a reminder about central funding, and encouraged to proactively promote workplace adjustments in job ads.
+Improve data collection to inform recruitment and promotion decisions
+Our fieldwork included a review of data and systems. We found that there are many systems where potential candidates can choose to disclose their disability. This includes on their job application, during onboarding, and on the human resources portal. However, these systems aren’t connected. If they are comfortable disclosing, staff should only have to tell us once about their disability status and have full control to update this easily.
+Prompt staff to update their disability status. Behavioural research shows that individuals are more likely to change preferences if they are given a reminder at an optimal time. Behavioural reminders could regularly encourage staff to update their records by highlighting the benefits and outcomes of diversity initiatives. For example, if staff opt-in, they could be confidentially offered relevant training or targeted career opportunities.
+Support for managers
+Managers told us they need improved resources and training on disability inclusion. 
+Send personalised invitations to relevant training. Managers told us that they want dedicated training on how to support staff with disability, including on mental health issues. Managers have access to hundreds of courses online, but it’s hard to know which course is most relevant (information overload). Behavioural insights suggest that personalisation can improve uptake of relevant training. This could be emailing personalised invitations to managers with a direct link to relevant training, with clear links to the specific skills gained from the course.
+Provide peer support. Managers told us that they seek advice and mentorship from senior colleagues with first-hand experience of supervising staff with disability. Research shows that volunteer networks who provide practical support improve workplace culture (reciprocity). One way to achieve this is to establish a peer mentoring network to help managers upskill their management techniques, and receive support from influential peers.
+Create more training opportunities for people with disability
+In our fieldwork, staff with disability said they want accessible training to support their career progression. 
+Make training easier to access. Staff with disability find it difficult to find relevant courses that are accessible, and how to negotiate time, funding, and approval to attend. Training can be made easier by removing complex approvals, and other unnecessary administrative burdens (friction costs). All courses should make electronic materials available ahead of time. 
+What’s next?
+Using these insights, our team ran a randomised control trial in 2020, to improve disability awareness and training.
+How can you use this in your work?
+Behavioural insights from our project have wide application for other diversity initiatives:
+Make training more attractive: Make training more accessible and send personalised invitations to managers. Promote training and resources at optimal times with reminders of how team members and customers benefit from inclusion.
+Make it easy to implement change: set up centralised funding for diversity initiatives as the default option. Use a checklist to prompt hiring managers to ask about inclusion (e.g. adjustments, flexible work). Use a simple, once-off approval process to facilitate voluntary disclosure of diversity (e.g. Workplace Adjustment Passport). Prompt staff to voluntarily opt-in to disclose by showing the benefits and practical outcomes of diversity programs.
+Please contact us to find out more.
+Note: We received ethics approval prior to fieldwork. Interviewees were provided with their stated adjustments: most staff with disability opted for online or phone interviews (rather than face to face), and two interviews were conducted with Auslan interpreters.</t>
+  </si>
+  <si>
     <t>How to consult customers during COVID-19</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/how-to-consult-customers-during-covid-19</t>
   </si>
   <si>
+    <t>What we did
+We have partnered with Corrective Services NSW to learn what motivated correctional staff to participate in, and implement, a new training program.
+We ran telephone focus groups with custodial officers and offender services and programs staff, as well as using online surveys and online interviews.
+Physical environments can have a significant impact on the way we make decisions. We used additional methods to learn about correctional centre environments because it wasn’t possible to visit them.
+Use existing data: We drew on administrative data to understand the decision-making environment. For example, human resources data measure how long people stay in their jobs. This could tell us how ingrained particular behaviours may be among staff, or how to better target behavioural change interventions for staff who are new, versus more established.
+Behavioural journey mapping: We used the information from interviews to visually map the different decision points, frictions and enablers, involved in performing a desired behaviour. For example, all the steps that correctional staff need to do to implement training. We then shared these maps with relevant stakeholders for their input and to check our understanding.
+Measure the impact of COVID-19: To better understand how the correctional centre environment was different because of COVID-19, staff completed a voluntary online survey about how COVID-19 restrictions had impacted their experiences at work. Our interviews and focus groups also included questions about how COVID-19 restrictions might potentially impact on uptake of the training program.
+What’s next?
+Switching to remote methods did not impact on the quality of our findings. We visited correctional centres after COVID-19 restrictions were eased, and found that our existing fieldwork had identified the most critical insights.
+The findings from our fieldwork will published on our blog soon.
+How can you use this in your work?
+There are many benefits to using online methods to talk to customers and stakeholders
+Leverage existing data and resources
+Keep it simple. Chats over the phone can be just as valuable as in person interviews
+Use behavioural journey maps to get customer input on the steps involved in behavioural change. 
+Measure what’s different to normal. COVID-19 has changed the way we work and deliver services. Make sure you find out whether customers are behaving differently because of COVID-19 or other changes. 
+Use video.While it wasn’t a suitable method to use in correctional centres, asking customers to film their typical day, interactions, or the completion of a task is a great way to learn about what influences decision making. This footage gives information about how long tasks take, how people move about in their physical environment and who they interact with – all of which can influence decision making.
+Please contact us to find out more.
+Note: As with all of our research, the NSW Behavioural Insights Unit received ethics clearance to carry out this research.</t>
+  </si>
+  <si>
     <t>Helping frontline staff stay mentally healthy</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/helping-frontline-staff-stay-mentally-healthy</t>
   </si>
   <si>
+    <t>Firefighters regularly work in challenging contexts, such as searching for someone in a smoke-filled room, racing towards a fire, or providing rescue services and support. Healthy behaviours can keep firefighters doing their best work. Healthy behaviours include recognising when they’re not doing well and reaching out for help.
+However, national research with police and emergency services agencies has found firefighters are less likely to seek help than the average person. Many already live with high or very high psychological distress.
+The NSW Behavioural Insights Unit recently partnered with Fire and Rescue NSW to increase the impact of FITMIND, a program to increase resilience and mentally healthy behaviours among firefighters. Our partnership was part of wider work the NSW BIU does to support behaviour smart organisations. 
+What we did
+There were three behavioural outcomes Fire and Rescue NSW wanted to change:
+Firefighters taking regular action to support their wellbeing
+Recognising signs of ill-health in themselves and others
+Seeking help when they need it for themselves and others
+We broke down these aims into more specific behaviours. For example, one part of recognising ill-health is taking a minute to check in with yourself after a stressful situation. 
+We identified the barriers to achieving behavioural change. Some were physical, such as finding a place to have a quiet conversation in a busy fire station. Others were mental, for example, feeling like they needed to be the ‘strong one.’
+Fire and Rescue NSW then incorporated evidence-based strategies from behavioural science into their program to overcome these barriers:
+Planning and commitment to overcome inaction: the FITMIND program helps firefighters use planning to break down abstract ideas about wellbeing into concrete actions. They will make a personal plan, with three simple actions they commit to taking for their mental health.
+Implementation intentions: firefighters will be asked to identify what might get in the way of them completing their healthy behaviours. They will then think of actions they could take to overcome those obstacles. This if-thenplanhelps people remember their goals and think deeply about their behaviour.
+Cues that last beyond training: firefighters will be given a fridge magnet postcard to write their three actions on. The postcard will be an ongoing reminder of the actions they agreed to take.
+Social support: in training, each person will be paired up with a support buddy. At the end of the training, buddies will keep checking in with each other. This social support makes it more likely they will complete their goals.
+Influential messengers: FITMIND trainers will work with the station commander of the crew to help them be champions for wellbeing. They can encourage people to keep using the training after it finishes.
+What’s next?
+Later this year, Fire and Rescue NSW plan to test the impact of FITMIND by running a randomised controlled trial. 
+How you can use this in your work
+You can support the wellbeing of frontline staff by using behavioural insights:
+Identify concrete behaviours you can target. Talk to frontline staff to understand how their work environment makes it easier (or harder) for them to stay healthy. What are the behaviours staff need to do to stay healthy? What is getting in the way of them doing those behaviours?
+Help staff make a plan to take care of themselves and overcome obstacles. For example, if staff know they are swamped, is there a quiet point in the day when they can check in with themselves?
+Use timely reminders and cues. Have influential messengers send encouraging messages to staff about the benefits of maintaining their health plan or have visual reminders of wellbeing activities that can be done at work.
+If you work in NSW Government and have a behavioural problem that would benefit from behavioural insights, we can provide rapid advice. Click here to book a 30-minute clinic with us.
+Please contact us if you would like to find out more about our work.
+Related information
+1. National Mental Health and Wellbeing Study of Police and Emergency Services – Final report
+2. Beyond good intentions: Prompting people to make plans improves follow-through on important tasks</t>
+  </si>
+  <si>
     <t>Electrical safety campaign gets spark from behavioural insights</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/electrical-safety-campaign-gets-spark-from-behavioural-insights</t>
   </si>
   <si>
+    <t>You have recently launched your Electrical Safety campaign. Can you give us a quick overview of the behavioural challenge the campaign is addressing?
+The Electrical Safety Awareness campaign was launched in response to numerous deaths and serious injuries caused by electrical faults in people’s homes in NSW. Fire &amp; Rescue NSW statistics show that 40% of the 4,500 house fires in NSW each year are caused by electrical faults and appliances. These fires, death and injuries could have been prevented by a licensed electrician checking the electrical wiring and installing safety switches.
+The campaign was developed as a co-designed project with other government departments and close to 20 industry partners who came together to develop solutions in a series of workshops over 12 months.
+The campaign had three aims:
+highlight the importance of installing safety switches in all homes
+check existing safety switches (if already installed)
+encourage people to always use a licensed electrician to do electrical work.
+The campaign is continuing, and we hope to see an increased number of safety switches installed, less electrical do-it-yourself work being performed, and consequently fewer deaths, injuries and house fires caused by electrical faults.
+What are the behavioural insights principles incorporated in the campaign? How did behavioural insights improve the campaign? 
+We (the Electrical Safety project team) did some research into the issues that residents face when they make choices about electrical safety in their homes. We found that many people have low levels of awareness about electrical safety switches. The research also showed that the cost of installing switches, as well as hiring a licensed electrician, were both major barriers to electrical safety. 
+We worked with the Behavioural Insights Unit to make sure our messages incorporated behavioural insights principles. For example, by including urgency into our messages to make them persuasive and to make our instructions simple and concise.
+The Behavioural Insights Unit also helped us workshop the campaign messages and delivery methods to consider the target audience’s Capability, Opportunity and Motivation factors (that is, the Com-B Framework).
+Can you share your key ‘lessons learned’ for how behavioural insights can help government deliver better customer services?
+The Behavioural Insight Unit was great in terms of helping the Electrical Safety project team to think more deeply about how to achieve behavioural change. The Unit was also generous in sharing resources and frameworks with the project team and provided advice on research questions, messaging and delivery methods. Their advice was practical, applicable and straight-forward.
+I would recommend booking in a clinic interview to get some worthwhile insights into how to achieve behavioural change with your program or campaign.
+How you can use this in your work
+The NSW Behavioural Insights Unit works to increase NSW public sector confidence and capability to use behavioural sciences and economics to improve citizen outcomes.
+The Behavioural Insights Unit offers 30-minute clinics for NSW public servants who want advice on resolving a behavioural problem in customer service, policy or programs. We also provide guidance on testing solutions. Clinics are usually delivered online on Wednesdays 2pm-4pm. If you work in the NSW Government, book a clinic with the Behavioural Insights Unit today.</t>
+  </si>
+  <si>
     <t>Increasing completion of apprenticeships and traineeships using behaviourally informed messages</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/increasing-completion-of-apprenticeships-and-traineeships</t>
   </si>
   <si>
+    <t xml:space="preserve">The challenge
+Completion rates for apprenticeships and traineeships have been a persistent challenge in recent decades. In 2015, the New South Wales (NSW) Premier set a State Priority to increase apprenticeship and traineeship completion from 50% to 65%.
+The annual cost of non-completion to the state and federal governments had been estimated in 2011 to be $91 million. The total cost of non-completion including productivity forgone plus budgetary impacts was $348 million.
+Apprentices and trainees (‘learners’) spend much of their time in the workplace. Learners also deal with various state and federal agencies but often do not have awareness of where to get help for specific workplace and training issues. As a result, learners who are struggling with their qualification were rarely seeking help from NSW Government services.
+What did we do?
+The NSW Behavioural Insights Unit worked with Training Services NSW (TSNSW) and the Centre for Education Statistics &amp; Evaluation (CESE) in the Department of Education to help learners get timely support to complete their apprenticeships and traineeships.
+We sent behaviourally informed text messages to the learners. The messages were designed to encourage them to seek help when they needed it, and persevere during their apprenticeship or traineeship.
+From May to November 2019, 13,065 first year learners were randomly assigned into three groups:
+One third of learners were sent six SMS about how to build self-efficacy and get a ‘fair go’ at work (e.g. seeking mentorship, finalising their training plan, and other workplace rights).
+One-third of learners received six SMS about incentives (e.g. travel concessions, pay progression, and early completion).
+Both groups were sent a link to visit the Training Services NSW website for resources to help them persevere with their training, or they could get further help by calling or texting their local Regional Office.
+The other third of learners did not receive any SMS (the control group), however, they still had access to the same online resources and support from their local TSNSW Regional Office. More apprentices &amp; trainees will complete their training if they are given 6 low-cost behaviourally informed SMS prompts.
+Does it work?
+The results of the trial were very positive. The Fair Go message was most effective in reducing 12-month dropout rates.
+The dropout rates for learners who received the Fair Go message was 2.8 percentage points lower than those who received no SMS (15.1% for treatment vs 17.9% for the control group). The Fair Go messages were also more effective than those who received messages about Incentives (who had 16.7% dropout rate).
+If we implement this behavioural intervention and send the Fair Go messages to all 13,100 first year learners around NSW, an additional 370 learners will continue their training.
+These six simple and effective SMS will retain an additional 1,850 qualified workers over the next five years alone.
+The text messages also led to increased customer engagement, with 552 direct phone calls and 512 text messages from learners seeking support, plus almost 6,000 clicks to TSNSW online resources.
+Why do the results matter?
+Our low-cost intervention led to $2.0M avoided costs for NSW Government and a further $1.1M avoided costs for business. For 2020-2025, the net present value is $2.4M.
+Economic analysis shows the messages offer a sevenfold return on investment. This means that for every $1 the NSW Government spent on supporting learners in this way, $7 is returned in benefits, primarily of students progressing with their qualifications, as well as other benefits to businesses.
+Our trial shows that low cost, behaviourally informed text messages improve outcomes for young, vulnerable customers, many of whom governments struggle to engage with. This insight has broad application across the NSW Government.
+Several recommendations have been made in the report to support the implementation of this proven intervention to support learner completions.
+Implement the behavioural messages to boost proactive self-help behaviour
+Include personalised messages, and send timely messages throughout the training calendar, from April to November, on Wednesdays, from 11am to 12pm
+Measure longer term impact of the interventions 
+What were the behavioural insights?
+Our intervention was co-designed with TSNSW stakeholders and drew on several behavioural insights concepts.
+Personalisation and messenger effect. Our messages included the learners’ first name, it specifically referenced their apprenticeship or traineeship (instead of a generic message about their ‘qualification’), and it was signed off from their local Regional Manager (personalisation). Regional Managers are senior figures within TSNSW, which reinforced that the organisation was taking seriously the responsibility of supporting learners (messenger effect).
+Salience. Our messages had a clear call to action to visit a relevant TSNSW webpage, or call their local Regional Office if learners needed more specific help.
+Timeliness. Because learners from different trades work varying hours (from 5am to 5pm), we tested sending our texts during common break times, in the morning, lunchtime, and early afternoon. Each campaign was timed at pivotal points in the apprenticeship/ traineeship journey. For example, when learners needed to complete key training documents.
+Address information bias. Learners are overwhelmed by too many documents at the time of enrolment, and cannot recall which government agency sent them helpful information about their services. Our SMS campaigns called attention to useful resources from TSNSW that learners may have overlooked, and which could help them at specific points in their first-year journey.
+Change habits. The current default for learners who have problems is to do nothing, suffer in silence, and eventually quit because they see no other option (default bias). Our messages sought to change the default by helping learners develop new habits. We established an early routine at the time of enrolment, sending behavioural texts every two months, to encourage learners to stay motivated to progress through their first year, and proactively seek help before problems got out of control.
+Additionally, for each intervention group, we tested a different set of behavioural principles.
+Self-efficacy: Our Fair Go messages encouraged learners to build up their capacity to better manage stressful situations, exercise their workplace rights, and persevere with their training (this principle had the best result in our test).
+Incentives: Our Incentives messages appealed to both intrinsic incentives (self-improvement) and extrinsic incentives (financial and material rewards), to make staying in their training more attractive.
+Read report
+ </t>
+  </si>
+  <si>
     <t>Increasing compliance with domestic violence orders</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/behaviourally-informed-app-design</t>
   </si>
   <si>
+    <t>Compliance with Apprehended Domestic Violence Orders (ADVOs) is a key aspect of reducing domestic violence reoffending and ensuring victim safety. An ADVO is a court order issued to protect victims of domestic violence by imposing conditions on a perpetrator, including limiting their contact with the victim, or specifying places they cannot visit.
+Services are available to address broader behaviour change and the root causes of domestic and family violence. Compliance with ADVOs presents a specific behavioural challenge. This led the NSW Government to question: how can we use behavioural insights to improve compliance with ADVOs?
+The NSW Behavioural Insights Unit, Department of Communities and Justice, and Miroma Project Factory developed ‘Avow’, a digital app that aims to hold domestic violence perpetrators to account by increasing ADVO compliance. Avow puts the information and tools perpetrators need to comply with their ADVO at their fingertips. The app incorporates planning tools, timely reminders and easy to access information, as well as embracing several digital nudges to enhance engagement.
+Find out more about Avow and how to download it.
+Behavioural barriers to ADVO compliance create a need for a digital resource for perpetrators
+We did research to identify behavioural barriers to complying with ADVO conditions, including:
+Scarcity and cognitive load: It is important that ADVO recipients understand the content of their orders so that they can be held to account. ADVOs contain language that can be difficult to understand, so ensuring clear comprehension of conditions is crucial.
+Intention-action gap: An ADVO recipient’s intentions to comply with their ADVO may not translate into compliance.
+Present bias: Offender’s may engage in risky behaviour because it offers them an instant reward, despite the longer-term reward of ADVO compliance being much greater (such as avoidance of a criminal charge, a fine or jail time).
+Avow seeks to address these behavioural barriers to increase ADVO compliance.
+Figure 1. Avow make a plan
+The app is designed to enhance users’ understanding of their ADVO by providing behaviourally-informed tools and easy to understand information, including:
+An evidence-based planning tool that educates users about obstacles to compliance and provides simple actions they can take to overcome them.
+Users can create a personalised if-then plan to help them build healthier non-abusive habits. An example plan is shown in figure 1.
+Personalised reminders prompt users about their plan, encouraging positive behaviour at times they have identified as being most at risk for breaching their order.
+As tested through our SMS trial, timely court date reminders appear throughout the app, along with information about attending court.
+Personalisation, as well as features that allow users to have a ‘conversation’ with the app, increase user engagement and build trust.
+A dynamic home screen ensures that relevant and personalised information is salient and reduces friction. Tips about attending court are placed front and centre before a user’s court date, and the user’s motivation moves to the top of the home page once their ADVO is finalised by the court.
+For more information, visit the Avow webpage or email Avow.
+Published: 2 June 2021</t>
+  </si>
+  <si>
     <t>New South Wales - leading the world in fighting sludge</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/new-south-wales-leading-world-fighting-sludge</t>
   </si>
   <si>
+    <t xml:space="preserve">David Halpern, Chief Executive of the UK Behavioural Insights Team, identifies the NSW Government as one of the first governments in the world to seriously start addressing ‘sludge’. Minister Dominello discusses how the New South Wales is reducing 'sludge' and reshaping markets. He also discusses the NSW Behavioural Insights Unit 'sludge audit' process, which is being used to improve government services, support market reform, reduce frictions that impede better decisions for individual consumers. The podcast provides an excellent introduction to the vision and focus of the NSW Government.
+Listen here
+ </t>
+  </si>
+  <si>
     <t>Using behaviourally-informed reminders cuts missed hospital appointments by more than a third</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/using-reminders-to-cut-missed-hospital-appointments</t>
   </si>
   <si>
+    <t>Our approach – which resulted in public health and productivity benefits of almost $120,000 – can be used to optimise reminders in other customer service contexts.
+While many government services use SMS texts to remind customers about their appointment times, this does not necessarily lead to more people showing up. That’s where behavioural insights can help. Behavioural insights can ensure reminders use effective, evidence-based principles to support changed behaviour.
+In 2016, we reduced no-shows in Sydney's St Vincent's hospital by 19%, using timely reminders and a behaviourally-informed message about the cost of missed appointments.
+In 2019, Central Coast Local Health District scaled this behavioural intervention in the Central Coast, NSW.
+We found that similar reminders reduced no-shows at two hospitals by almost 34%, saving $119,000 in eight months at just four clinics. The reminders are now being implemented across 800 clinics.
+The challenge
+For patients who don’t need to be admitted to hospital, outpatient clinics will schedule appointments to assess, diagnose and treat patients who require specialised care. When patients don’t show up to these appointments, they miss out on healthcare.
+These ‘no-shows’ also cause inefficiency and lost funding for the clinics – each missed appointment costs the hospital between $125 and $800.
+What we did
+In 2015, the UK’s Behavioural Insights Team found that SMS reminders which highlight the specific cost of a missed appointment was particularly effective in reducing no-shows, by 32%.
+In 2016, we translated these findings into NSW, partnering with St Vincent’s Hospital in Sydney. We found that sending a SMS reminder with the specific cost of the missed appointment to the hospital was highly effective: ‘If you attend, the hospital will not lose the $125 we lose when a patient does not turn up.’
+Our messages reduced no-shows by 19% and saved the hospital $200,000. Our results suggest that people care about the specific cost of their no show, especially when they know they are preventing a loss to the hospital and other patients. This is known as ‘loss aversion’ – in many contexts, people prefer to avoid losses, rather than focusing on potential gains. In this case, people care about who bears the cost of their no show, but are more motivated by being able to play a part in preventing the loss. Our trial was featured in the NSW Ministry of Health’s Outpatients Services Framework.
+In 2019, we partnered with the Central Coast Local Health District (CCLHD) to scale (i.e. implement more widely) our behaviourally-informed reminders in Gosford and Wyong hospitals. We supported CCLHD to analyse their clinics’ data, select trial sites, co-design the reminder SMS, implement the messages, and evaluate their impact.
+In these messages, we updated the average cost of a missed appointment at Gosford and Wyong Hospitals. Again, the message used loss aversion to highlight the loss that could be avoided, adjusted to the specific local hospital: “If you attend, the hospital will not lose the $215 we lose when a patient does not turn up.”
+We co-designed the messaging with hospital staff, district staff and consumer panel representatives (patients). We also adapted the wording to local factors that could be influencing attendance. This included reminding patients to allow travel time, bring their test results, and highlighting the personal loss to be avoided (avoiding a waitlist).
+What we found: 34% reduction in missed appointments
+We ran a pre-post study for four months (i.e. we tested outcomes before and after we introduced our intervention). Reminders were sent seven days and 24 hours in advance of appointments for the Ear, Nose, Throat, and Orthopaedic outpatients at Gosford Hospital, and the Cardiac and Orthopaedic outpatients at Wyong Hospital. A total of 5,447 SMS reminders were sent. As is the case in all pre-post studies, it was possible that other initiatives could influence attendance during this time. To mitigate this, CCLHD chose clinics that were not undergoing any organisational or other changes during the study period. 
+At the end of the study, we ran a logistic regression analysis on the proportion of missed appointments. We found that the proportion of missed appointments when the intervention was in place from March to June 2019 was 4.3 percentage points lower than March to June 2018 (p &lt; .001). This was a 33.7% reduction in missed appointments.
+Public health and productivity benefits of $119,606 
+CCLHD’s accounts team calculated the productivity benefits of the BI reminders to be $119,606, across only four clinics and over only eight months in the district.
+Since the study ended in June 2019, CCLHD has continued to use these SMS reminders at the four clinics. Between July 2019 to February 2020, CCLHD have experienced a 37.7% reduction in missed appointments at these clinics compared to July 2018 to February 2019.
+There are many other benefits to reducing missed appointments with BI reminders.
+Patients are still free to choose if they attend, but their increased likelihood to attend provides them with timely healthcare
+Reduced appoints can potentially reduce the risk of other health issues arising
+CCLHD also reported that the study improved clinic efficiency. 
+As a result of the initial and ongoing success of the intervention, and benefits to both hospitals, clinicians and patients, CCLHD are now committed to scaling up this intervention across the district’s 800 clinics.
+How can you use this in your work?
+Send timely reminders: our behavioural insights can optimise SMS reminders for other health services, including GP appointments. Similarly, reminding customers what they lose by not showing up to appointments can be effective in other areas, such as service centres, parent-teacher interviews, license tests, and more. In fact, we’ve previously shown that SMS reminders can reduce the proportion of people not showing up to court for domestic violence attendance by 23% (see pages 14-17 (PDF 2.35MB)).
+Use loss frame messages: highlighting what customers stand to lose if they don’t turn up to appointments can improve customer retention across many government services and programs. Simply calculate the cost of the no-show appointment and tweak it to your local setting. For example, if you deliver community services, you could fill in gaps in bold text. “We are expecting you at your government service at XXX date and time. If you attend, the community will not lose the $XXX we lose when a customer does not turn up.”
+Encourage take-up of other opportunities (such as COVID testing): The Behavioural Insights Unit used behaviourally informed SMS to increase customers’ intentions to get another COVID-19 test. Timely reminders have proved effective in increasing take-up of the flu vaccine in the USA, by 11%.
+Consider and test whether insights on SMS reminders may, or may not, apply to QR check-ins, within app notifications and other technology: behavioural scientists are exploring whether reminders using other technologies might also have a positive impact on behaviours like turning up to hospital appointments. Testing is essential to prove impact.
+Be sure to sign up to our newsletter to learn more about how you can implement insights from our trials. 
+More information
+For further information about how our reminder SMS study is being implemented, contact CCLHD directly. 
+For further information about our study design and analysis, you can also contact the Behavioural Insights Unit.
+Published: 6 April 2021</t>
+  </si>
+  <si>
     <t>Making government easier by eliminating ‘sludge’</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/making-government-easier-by-eliminating-sludge</t>
   </si>
   <si>
+    <t>The NSW Behavioural Insights Unit is helping make government easier by providing new tools to take the ‘sludge’ out of the customer experience.
+We have developed a 'sludge audit' framework to help public servants to identify, quantify and prioritise sludge. This includes the time, costs and impact on customer experience.
+What is sludge and how does it impact our customers?
+You may not be familiar with the term sludge but you (and your customers) will have definitely experienced it. Examples of sludge include: 
+Forms or documents that have you scratching your head and calling helplines for clarification
+Websites that send you across multiple pages to find key information
+Waiting for a long time on an application with no clarity on when you’ll hear back
+Confusing rules or instructions that leave you unsure if you have done what you need to comply 
+Behavioural scientists use the term sludge to describe these experiences, it’s the ‘excessive or unjustified frictions’ that make it harder for customers to achieve their goals.
+Sometimes friction can be justified – you shouldn’t be able to delete all the files on your computer in one click. Having some extra steps can be helpful to guard against issues like user error, misuse or ineligibility. But if a simple government application takes someone four hours of searching and reading, two phone calls to the help line and three forms of identification, this is enough to prevent our customers from accessing the services, entitlements or support they need.
+Sludge stands in the way of New South Wales (NSW) becoming the world’s most customer centric government.
+How behavioural insights can you help you reduce sludge
+Understanding of human behaviour is one of your best defences against sludge. We draw on evidence and methods from the behavioural sciences to help you identify and remove sludge.
+At the NSW Behavioural Insights Unit, we have developed a framework to help you identify, quantify and prioritise sludge. We call this a ‘sludge audit’ – a concept first proposed by ‘nudge’ pioneer Professor Cass Sunstein. Our sludge audit has two key components: 
+A time and cost audit of the behavioural journey - this helps you determine how long a process takes and how much this time costs the customer and the government
+A customer experience audit – our ‘NSW sludge scales’ help you rate each step of the behavioural journey against evidence-based criteria that draw on behavioural science and the NSW Customer Commitments
+The sludge audit lets you identify hidden sludge that your customers experience and the steps that are most costly and inconvenient for customers. The audit allows you to prioritise what frictions to fix first. Once you’ve implemented the changes, our audit and tools help you to measure the impact of your improvements.
+Sludge busting in practise: building homes and greening cities
+We’ve worked with teams across the NSW Government to trial our sludge audits and have had great results so far.
+We partnered with Fair Trading to review the home building trade license application process. Using the results of the sludge audit, the team revamped their communications to customers using behavioural insights which led to a 32% reduction in follow-up enquiries from tradies needing to clarify their requirements. Annually, this means that approximately 3,000 more tradies are receiving their licences quicker.
+We partnered with the Department of Planning, Industry and Environment to run a trial to increase take up of their "Free Trees" program. During the trial we worked together to improve the process and remove ‘sludge’. The changes implemented by DPIE reduced the process time for customers by 73% which represented a saving of $213 per order in equivalent customer time.
+What’s next? Our first NSW Government sludge-a-thon!
+This year we will be organising Australia’s (and perhaps the world’s) first sludge-a-thon! Inspired by hackathons and nudge-a-thons, our sludge-a-thon will invite NSW Government teams to rapidly design solutions to address sludge in their processes using behavioural insights. We will guide teams through the sludge audit methodology and provide a toolkit to reduce sludge.
+Watch this space for more info on our upcoming sludge-a-thons. If you work in NSW Government and you’re interested in doing a sludge audit or want to learn more about applying behavioural insights to reduce sludge, please contact us.
+Published: 24 March 2021</t>
+  </si>
+  <si>
     <t>How to build behavioural insights skills in your team</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/how-to-build-behavioural-insights-skills-your-team</t>
   </si>
   <si>
+    <t>Behavioural insights is used to improve services, programs and policies, but there are currently few dedicated behavioural insights practitioners in the NSW government.
+The Behavioural Insights Unit works with a range of agencies to build evidence to achieve behavioural changes, primarily by running randomised control trials and other experiments. We think all agencies can benefit from applying behavioural insights and becoming ‘behaviourally smart’.
+A behaviourally smart organisation doesn’t need to have a dedicated team of behavioural scientists running randomised control trials – while we like the sound of that, it’s not quite realistic. But the NSW Behavioural Insights Unit has found different ways to embed behavioural skills as part of the every-day work of frontline agencies.
+The Behavioural Insights Unit has collaborated with Revenue NSW over the past decade, and we are proud of the results. In 2015, changes to how fines are communicated increased on-time payment of fines by 3.1 percentage points.
+We did this by redesigning payment notices using a clear call to action (through a 'Pay Now' stamp), simplified language, plus social norm messages about the fact that most people pay on time, and the consequences for not complying. Scaled across NSW, this equates to nearly 9,000 fewer people losing their licences or having their vehicles deregistered each year.
+Given our productive partnership over the years, in 2020, we partnered with the Revenue Customer Experience Team to embed behavioural insights capability through bespoke training modules and the development of a network of enthusiastic Behavioural Insights Champions. 
+How is Revenue NSW becoming a behaviourally smart organisation?
+Revenue NSW worked with us to develop training sessions, which were variations to our existing workshops, but with a focus on a Revenue’s needs. These sessions were promoted by members of the Revenue Executive Team and co-delivered by the Behavioural Insights Unit and the Revenue Customer Experience Team. 
+Revenue NSW put a call out for volunteers to be a part of a network of ‘Behavioural Insights Champions’. These champions work to apply behavioural insights across Revenue and help upskill other members of their teams.The Champions meet every month to discuss how they’re applying their skills and to explore opportunities to improve processes.
+Several passionate members of the Behavioural Insights Champions Network are also working with the Customer Experience Team to deliver training across Revenue NSW. The goal is to empower the champions to develop and deliver their own training, with the aim of establishing their own behavioural insights unit. 
+What we’ve achieved so far
+In its first few months, the Champions Network has:
+more than 40 champions actively applying behavioural insights to improve outcomes for customers.
+worked with the Customer Experience Team to deliver three bespoke training sessions in 2020 and have three more ready to go in 2021.
+made improvements to multiple letters and notices and developed a communications campaign for a wellbeing program. 
+“We have achieved some fantastic outcomes and have also recently established a ‘BI Champions Network’, which now has over 40 members! We look forward to continuing working closely and learning more alongside the Behavioural Insights Unit, whilst spreading BI techniques, knowledge and awareness across Revenue NSW.” – Revenue CX Team
+How can you become a behaviourally smart organisation?
+Start with teams that have related functions. Revenue NSW has an established Customer Experience Team. This was a great place to start because Behavioural Insights and Customer Experience share similar approaches to addressing meaningful change for customers. Think about innovation enablers in your agency; these could be specialists in data insights, evaluation, human centred design or change management (just to name a few).
+Draw from all areas of your business. To embed behavioural insights in the everyday work of your organisation, it’s important to involve as many teams as possible. The Behavioural Insights Champions Network has members from every team in Revenue NSW, ensuring the agency gets the benefits of applying behavioural insights in a way that’s complementary to existing expertise.
+Build executive buy-in. The Revenue NSW Executive Team has been a great support of the application of behavioural insights to Revenue. With this support, staff feel empowered to apply behavioural insights to improve existing services.
+Need resources? We have a range of guides which are a great base for training. They cover a range of topics, from how to test whether your behavioural intervention works (PDF 130.08KB), to how to increase form and survey completion (PDF 307KB). They’re a resource to draw from.
+If you’re stuck on how to get started with applying behavioural insights to your team, get in touch with us.
+Published: 1 March 2021</t>
+  </si>
+  <si>
     <t>How to encourage young people to wear face masks</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/how-to-encourage-young-people-to-wear-face-masks</t>
   </si>
   <si>
+    <t>Face masks recently became mandated in New South Wales in public venues that are indoors. However, the NSW Government also encourages (but does not mandate) mask use in other settings, where physical distancing may not be possible. Our findings can be used to promote mask-use in these cases, where face masks are still optional.
+While we wait for a vaccine, behavioural change is key to slowing the spread of COVID-19. While behaviours such as handwashing aren’t so new to us, others, such as mask wearing, are less familiar and are harder take on. 
+We now know that face mask compliance is critical in reducing the spread, especially in those places where it’s not always possible to socially distance. Mandating masks in Melbourne led to increased mask use, from 43% (when recommended but not mandated) to 97%. This was associated with a decrease in the rate of COVID-19 infections by between 22 and 33. From 3 January 2021, New South Wales (NSW) made mask wearing mandatory in indoor public settings, such as in shopping centres, public transport, airports and planes, hair and beauty salons, in indoor entertainment venues, and places of worship. 
+Additionally, the NSW Government encourages (but does not mandate) mask use in other settings where this may help reduce community transmission (such as where it is not possible to keep 1.5 metres away from others). In this case, behaviourally informed framing of public messages can boost voluntary mask use. 
+It’s important that messages are tailored to their audience for maximum effect, especially for those groups who are resistant to masks or don’t see COVID-19 as a risk to them – such as young people. So, what messaging works best? 
+What we did 
+We worked with the DCS NSW Government Brand and Campaigns team to test what works best to motivate young people to wear masks. We selected two behaviourally informed Facebook ads to encourage mask wearing. These were specifically tailored to young people. 
+We used a simple A/B test (PDF 130.08KB) to test the most effective message. Almost 150,000 Facebook users aged between 18-29 were randomly shown one of two videos: 
+1. Animation
+The animation was a young person wearing a mask and a cape with the message ‘real heroes wear masks’. 
+ Why? This is an appeal to ego. We’re more likely to engage in a behaviour if it makes us feel better about ourselves and is consistent with a positive self-image. 
+2. Vox pops
+A compilation of vox pops with young people, who spoke about why they wear a mask. 
+Why? This used a messenger effect. We’re more likely to be influenced by a message when the messenger is similar to us. 
+Recipients were then invited to complete a survey, which asked how likely they would be to wear a mask the next time they entered public transport and a shop or supermarket. 
+What worked best? 
+The animation led to a 10% increase in the proportion of respondents who would definitely or probably wear a mask on public transport compared to the vox pop. This was highly statistically significant (p=0.007). 
+The animation also led to a 5% increase in the proportion of respondents who would definitely or probably wear a mask in shops (66%) compared to the vox pop (63%). This was not statistically significant but that may be because of the small number of survey respondents. 
+The animation also led to more ‘engagement’ than the vox pop, with more reactions and survey completions. 
+What did we learn? 
+Our simple A/B test suggests that connecting masks with a positive social identity could encourage young people to wear them. 
+There were multiple differences between the two ads – for example, one was animated and one wasn’t. More testing could help us understand what components of the animation were most effective and which components of the vox pop didn’t resonate. 
+Published: 25 January 2021</t>
+  </si>
+  <si>
     <t>Encouraging citizens to collect free trees</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/encouraging-citizens-to-collect-free-trees</t>
   </si>
   <si>
+    <t>More tree canopy promotes biodiversity, helps cool our suburbs and improves air quality. Tree canopies can even increase the value of a property.
+In 2019 the NSW Premier set a Premier’s Priority to plant one million trees by 2022. In 2018, the Department of Planning, Industry and Environment also launched the Free Tree Initiative. The Initiative aims to boost tree coverage by providing eligible new households with vouchers to claim up to three free trees from Western Sydney Bunnings stores.
+The NSW Behavioural Insights Unit (NSW BIU) partnered with the Department of Planning, Industry and Environment and Bunnings to encourage take-up of the Free Tree Initiative by applying behavioural insights.
+The challenge
+To understand the behavioural challenge, the NSW BIU interviewed NSW customers and key stakeholders, analysed existing take-up data, and user-tested the current application portal. Our fieldwork suggested that there were two barriers to take-up:
+Low awareness – few people knew about the program, even those who were eligible.
+Cumbersome application and redemption process – the customer experience of the application portal was difficult and confusing, deterring people from completing their order.
+What we did
+1. We tested two message frames
+To increase awareness of the initiative, we sent some eligible households a behaviourally-informed postcard. We wanted to find out whether a message promoting the public benefits of tree planting or one that appeals to self-interest would be more effective at encouraging people to apply and redeem the free trees. To test this, we randomly allocated eligible households in two Local Government Areas (LGAs) to be sent one of the following postcards:
+Postcard A: Planting a tree framed as a benefit to the public and the environment.
+Postcard B: Planting a tree framed as a benefit to the individual households.
+2. We improved the portal experience
+To improve the customer experience, we upgraded the application portal to streamline the application and redemption process and make it easier to claim the free trees. To minimise friction, we removed unnecessary steps, gave clear instructions upfront and provided a free-of-charge delivery service (due to COVID-19 restrictions).
+The result
+Across the three-month pilot period, the postcard and the improved processes led to a 150% increase in free trees being claimed as compared to the two years prior.
+When we compared the two postcards, those who received the public benefits message were 2.3 percentage points more likely to submit an application and 1.8 percentage points more likely to redeem their free tree. These results were not statistically significant. These null results in message framing are likely due to the small sample size in the pilot.
+While more testing is needed, our results indicate that appealing to the social and environmental benefits can be an effective strategy to boost residential tree cover.
+Published: 19 January 2021</t>
+  </si>
+  <si>
     <t>How behavioural insights can help improve responses to COVID-19</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/improving-responses-to-covid-19</t>
   </si>
   <si>
+    <t>The NSW Behavioural Insights Unit partnered with government agencies to help the people of NSW make informed choices, comply with social distancing rules, and stay COVID safe together.
+Social communications help to stop the spread
+All over the world, people have had to rapidly adopt new behaviours to reduce the spread of COVID-19. Effective communication has been vital to public health campaigns.
+What we did
+We provided insights to inform the NSW Government’s communications advertising campaign aimed at stopping the spread of COVID-19.
+Harness social norms. Show the public that most people are complying and doing the right thing to stop the spread.
+Highlight social responsibility and identity. Keep the messaging positive and reinforce that we can do this together. Tap into the public’s identity as ‘part of NSW’ by using essential workers in the campaign. Simplify and highlight the benefits. Provide simple messaging about why the behaviour is required. Be as clear as possible on how to comply with the desired behaviour.
+Together, we A/B tested campaigns on social media to find the most effective message and creative execution to get young people to follow COVID-safe behaviours. 
+The result
+The campaign continues to see high public engagement and encourage positive behaviour change to help the NSW community stay COVID safe.
+These insights are continuing to inform the development of the next phase of the campaign. Summer messaging and creative will be clear, concise, and relatable and demonstrate a new social etiquette for enjoying summer in a responsible way.
+Social norms boost COVID safe Public Transport
+Social distancing has meant that the capacity of our public transport system has been halved. We know people travelling to work make up the bulk of public transport travel. So how can we reduce the demand for public transport among workplace commuters?
+What we did
+We co-wrote a guide with Transport for NSW to encourage businesses to allow their employees to work remotely where possible. The guide provided simple ways to do this. For example:
+Harness social norms. Use managers and senior staff as advocates, or ‘work from home’ role models, and show people their peers are working from home.
+Draw attention to active transport routes, including walks and cycle paths.
+Make it easier to work flexibly for example encourage staggered start times, or simplify the process around flexible work arrangements. 
+The result
+The guide has been distributed to 1,800 businesses across NSW, making it easier for businesses to stay open while keeping their employees and NSW safe.
+Simple and clear messages improve testing rates
+Getting tested (and retested again) can help to prevent the spread of COVID-19. NSW’s focus on testing has helped keep numbers low, so it’s essential that we keep at it. We partnered with NSW Health and SydPath to run a trial on COVID-19 testing.
+What we did
+BIU provided advice to increase testing rates, including:
+Make testing easy by highlighting that testing is free and no ID is required.
+Provide clear messages about what testing involves, available in several languages.
+Simplify the message: be consistent about who should get tested, and when, as well as when and how to self-isolate.
+Stimulate a sense of achievement and community. Use leader boards to show the performance of local health districts against targets.
+Rule-of-thumb SMS increases people’s intention to get retest​ed
+We don’t always know what will work, especially when we’re dealing with unfamiliar circumstances. We wanted to test what message would be most effective in encouraging people who receive a negative COVID-19 test to get retested if they experience new symptoms in future.
+What we did
+We trialled three different SMS messages to see which text could increase the intention to retest. One of three text messages was sent to people with their negative COVID-19 test result:
+The business-as-usual text message
+Prosocial message with the lines “By getting tested you have helped prevent deaths in NSW. You need to get re-tested as soon as you feel sick again.”
+Rule-of thumb (clear and simple instruction) with the lines “Come back as soon as you have symptoms again. You need to get re-tested as soon as you feel sick.”
+We surveyed recipients of these messages and asked them:
+ "After you’ve recovered, if you get a sore throat next week, how likely are you to get tested?"
+The result
+The rule-of-thumb message performed best, with an 11% increase over the business-as-usual message in the proportion of people who were extremely likely to get re-tested. This message is now being widely used.
+This research also gathered feedback on the experience of getting tested. The overwhelmingly positive feedback motivated testing healthcare staff. Constructive suggestions also helped testing centres address their processes to reduce waiting times and keep up with test demands.
+It’s fantastic to see this effect on intention to get tested, but we know that what people intend to do is not always reflective of what they do. It’s important to continue to test what works to change behaviour. That’s why we are continuing to run behavioural insights trials on behaviours to improve self-isolation and testing outcomes.
+How can you use this in your work?
+The approaches we’ve taken to promote COVID-safe behaviours can be used in other contexts.
+Some techniques public servants might consider:
+Provide clear, consistent and simple instructions: make it easy for people to do the right thing
+Harness the power of social norms: show that most people are behaving in a COVID-safe way
+Evoke a sense of social responsibility: show how following public health rules can help the people around us
+Test to see what works: an intervention that’s effective in one context might not work in all settings. Test your approach before scaling an intervention. 
+Published: 30 November 2020</t>
+  </si>
+  <si>
     <t>How to increase adherence to procedures in the public service</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/increasing-adherence-to-public-service-procedures</t>
   </si>
   <si>
+    <t>BIU’s new guide (PDF 265.16KB) provides strategies to design procedures in line with the realities of human behaviour and to bring public servants’ conduct in line with procedures.
+Have you ever accidentally left your computer unlocked when you leave your desk for a few minutes?
+Ever been tempted to stay in the office and keep working on an important task during a fire drill?
+For the most part we do our best to comply with procedures at work, but the reality is that adherence can be harder than we think. Research from management, healthcare and aviation shows that workers prioritise tasks based on length, urgency, importance and reward. 
+This is where behavioural insights can help. BIU has a new guide on using behavioural insights to increase adherence to procedures in the public service (PDF 265.16KB). It provides strategies to design procedures in line with the realities of human behaviour and to bring the behaviour of public servants in line with procedures.
+The guide covers three key strategies to help increase adherence: 
+Make compliance convenient: Employees may be expected to follow a number of extremely difficult or time consuming procedures, leading them to prioritise in order to maintain job productivity. Remove unnecessary procedures and minimise the time and effort it takes to follow procedures. 
+Explain why procedures are necessary and legitimate: We’re less likely to follow procedures if we don’t understand their purpose, even when we’re paid to do so. Ask employees to contribute to the development of compliance strategies. 
+Design procedures to reduce the chance of mistakes: Errors can’t be avoided so instead design procedures around them. Checklists, planning for what could go wrong, and timely feedback can help to reduce the negative consequences of mistakes.
+Adherence to procedures in the public service can drive better customer outcomes and ensure the smooth running of organisations, especially during times of crisis. As with all behaviour change interventions, it’s important to test them with your target audience to find out what works best for your context. BIU’s testing guide can help you to do this (PDF 130.08KB).
+Published: 27 August 2020</t>
+  </si>
+  <si>
     <t>2020 BIU Report: our project highlights and emerging opportunities</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/2020-biu-report</t>
   </si>
   <si>
+    <t>Now more than ever, behaviour change has become central to public policy. From the bushfires and floods earlier in 2020, to the ongoing response to COVID-19, the need for large-scale behaviour change has never been more front of mind.
+The NSW Behavioural Insight Unit (BIU) aims to see behavioural insights applied in everyday policy and service design to deliver better outcomes for the people of NSW. To achieve this, we focus on three areas: running trials, building capability across the sector and providing advice on behavioural insights.
+Today, we are delighted to launch our latest results report (PDF 3.65MB). The report showcases our major projects over the last two years and shares some of the emerging opportunities in behavioural science that we are excited to explore.
+Some of our key accomplishments include:
+Women in senior leadership trial: Our combined email and phone call intervention reduced the gender gap between men and women reapplying for senior roles from 45% to just 4%.
+Flexible working trial: Managers who received our intervention email were three times more likely to engage with their team about flexible working.
+Reducing missed hospital appointments: Our behaviourally informed reminders led to a 33.7% reduction in no-shows for outpatient clinics at two hospitals in the Central Coast Local Health District.
+Drought assistance: We worked with Department of Primary Industries to make it easier for farmers to access drought assistance.
+Land tax: Our work with Revenue NSW led to 39% more customers confirming or updating their land tax details.
+COVID-19: We are working across the NSW Government to apply behavioural insights to help support the response to the COVID-19 pandemic.
+Capability building: Over the last 12 months, we have trained 1,500 public servants in how behavioural insights could apply to their work.
+We are proud of our work to date and excited by the opportunity to explore new frontiers for behavioural science in public policy. As well as our current work program, the BIU is actively shaping the future of the behavioural insights field, with some of the most exciting new trends including:
+Combining data science and behavioural insights: the BIU now works closely alongside the NSW Data Analytics Centre and we are excited to explore how advances in data analytics may lead to the next generation of nudges.
+Reducing “sludge” in Government: there is a shift across Government to put the customer at the centre of what we do. The BIU is developing an innovative “Sludge” project to identify and quantify the cost of “sludge” to customers and Government, and develop behaviourally informed solutions to reduce it.
+Cross-jurisdictional collaboration: the opportunity for cross-jurisdictional collaboration has come to the fore as BI teams nationally have been considering complex challenges, such as the response to bushfires and COVID-19. This ongoing collaboration enables us to share and replicate ideas to build a strong evidence base in an Australian policy context.
+To read more about our current or emerging work, read more in our report (PDF 3.65MB).
+Published: 2 July 2020</t>
+  </si>
+  <si>
     <t>Enhancing interaction between government and citizens</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/enhancing-interaction-between-government-and-citizens</t>
   </si>
   <si>
+    <t>BIU has a new guide on using behavioural insights to increase completion of forms and surveys (PDF 307KB). It covers three key strategies:
+Make completion easy by keeping your form or survey quick, simple, mobile friendly, and by starting with easy questions.
+Send timely and frequent prompts such as pre-notifications, follow-up reminders, and deadlines.
+Send attention grabbing invitations that are brief, direct, personal, incentivised, honest, and obligated.
+When a customer receives a form or survey by email, it is easy to optimise the invitation through a randomised experiment with two variants A and B, known as A/B testing.
+The EDConnect Team in the Department of Education ran a simple A/B test to determine the best time of day to send their weekly newsletter to schools.
+The team randomised over 5,000 subscribers to receiving their newsletter in either the morning (10am) or afternoon (1pm). They found that more people opened the newsletter when it was sent in the morning (47% open rate) than in the afternoon (42% open rate), and this difference was statistically significant!
+While morning emails were more effective for increasing engagement with this particular newsletter, every audience is different. That’s why we recommend testing the strategies in our guide on increasing form and survey completion with your target audience to ensure they have the desired effect. This is easy with our short guide on How to test whether your behaviour change intervention works (PDF 130.08KB).
+Published: 25 May 2020</t>
+  </si>
+  <si>
     <t>Getting public benefits to the people who need them</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/getting-public-benefits-to-people-who-need-them</t>
   </si>
   <si>
+    <t>It’s common for government programs and grants to have unmet capacity despite attempts to promote effective take-up. Around the world, it’s a challenge which can end up costing the community and being a poor return on investment.
+Policy makers designing programs want strong take-up but, for example, a 2011 analysis of major US social assistance programs estimated that up to two-thirds of eligible families do not participate. 
+Now, more than ever, it’s critical to explore behavioural strategies to engage citizens. 
+BIU has a new guide on using behavioural insights to increase the take-up of programs and services (PDF 94.92KB). It covers four key strategies: 
+Change the default to automatically enrol people into beneficial programs and services, with the choice to opt out
+Reduce hassle for customers by cutting steps, pre-filling information, and providing easy instructions
+Personalise the invitation by telling people why the offer is tailored to their needs and what the benefits are
+Support follow-through by encouraging participants to plan when, where and how they will participate, and sending reminders to attend 
+As with all behavioural insights interventions, we recommend testing their impact in your unique context to ensure they have the desired effect. This is easy with our guide on How to test whether your behaviour change intervention works (PDF 130.08KB).
+SafeWork NSW were early adopters of BIU’s ‘Do it Yourself’ guides. Their case study below should give confidence to other government teams that they can design and test their own behavioural insights too! 
+SafeWork NSW
+Using BI to improve take-up of the Mentally Healthy Workplaces program
+In late 2019, the Mentally Healthy Workplaces (MHW) team from SafeWork NSW wanted to increase take-up of our free mental health programs by NSW businesses. We designed and tested improvements to our Mental Health at Work eNews which is sent to 1,800 subscribers.
+Using BIU’s Testing Guide, we experimented with different email subject lines. We also used BIU’s Program and Service Take-up Guide (PDF 94.92KB) to make the following improvements to the body of the email:
+Reduce hassle for customers by shortening the newsletter and simplifying the content;
+Highlight the customer benefits of each service showcased in the newsletter; and
+Provide easy instructions at the top of the email to encourage recipients to sign up to mental health training.
+We did not find a statistically significant difference in open rates or click-throughs when we compared different email subject lines. This finding was unexpected and reinforced how important it is to test behavioural interventions because what works in one context might not work in another. The MHW team plans to keep applying behavioural insights strategies to the Mental Health at Work website and measuring the impact on customer engagement.
+Resources
+BIU’s guide is available to download and we are running online workshops for NSW public servants. 
+Download the guide (PDF 94.92KB)
+Sign up to our newsletter for online workshop invitations
+ Want more resources on increasing take-up of programs and services?
+Comprehensive review of factors that can affect program take-up
+US case study on increasing participation in government programs
+Published: 27 April 2020</t>
+  </si>
+  <si>
     <t>Behavioural insights strategies to help your team work remotely</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/insights-to-help-your-team-work-remotely</t>
   </si>
   <si>
+    <t>The good news is that behavioural scientists have been researching strategies to get the most out of teams while they are not sharing a physical location.
+The NSW Behavioural Insights Unit have summarised our top five behavioural strategies for you and your teams to get the most out of working remotely.
+Communicate in bursts
+Researchers have shown that teams working remotely who communicate in bursts—exchanging messages quickly during periods of high activity—perform much better than teams whose conversations involve a long lag time between responses and are spread across multiple topic threads.1
+Intuitively, we may think that constant communication is the most effective and productive, but the research points to bursts of rapid communication, followed by longer periods of silence. These bursts of communication and with periods of silence are the hallmarks associated with the most successful teams.
+How do you do this?
+Schedule short, regular catchups: The goal should be to agree priorities and allow time for energetic collaboration, followed by a period of truly focussed work time.
+Minimise channels: It can be tempting to keep conversations going through multiple different channels (emails, Slack, phone calls, IMs) but we’re more likely to be productive if we keep thoughts together in just a few channels. This can allow for more focussed work time, reduce stress and the likelihood of burnout!
+Get SMART with goals
+Although setting SMART goals (i.e. specific, measurable, achievable, relevant and time-based) is common for most teams, they become even more important when working from different locations.
+When working remotely, there are less opportunities for spontaneous conversations, for example, overhearing a colleague’s conversation and identifying the need to collaborate. Without these spontaneous opportunities it is more important to set clear goals and timeframes.
+How do you do this?
+In your regular ‘bursts’ ask team members to share their SMART goals for the day or week.
+Share goals across the team to ensure that you’re all working in the same direction.
+Create time for team collaboration
+With teams working remotely, employees can quickly feel isolated and de-motivated. Rallying the team around a shared goal can help to keep momentum. In the Behavioural Insights Unit, we often run digital brainstorms - sessions where team members share their thoughts in a shared document (e.g. Teams on Office 365). Everyone can see what others are thinking and it allows team members to build on others’ ideas, but without being together in the room. We use this over traditional methods because it helps to avoid key behavioural challenges like Groupthink2 and allows time for individuals to work alone first. Working alone first encourages more creative approaches and input from more people in your team.3 
+How do you do this?
+Think about a key challenge for your team or a project you’re working on. Set up a document that you can share and edit simultaneously.
+To boost creativity, suggest your team members think of two ideas that are feasible or practical and one that is out of the box!
+Create opportunities for ‘deep work’
+Deep work is the ability to focus without distraction on a cognitively demanding task. Having time for deep work allows you to master complicated information and produce better results in less time.
+When working remotely teams may have more time for ‘deep work’, noting some employees may have more distractions and responsibilities. Research shows that juggling several tasks and disruptions can create an ‘attentional residue’ – a phenomenon where even though attention is shifted, a small amount of attention remains on the previous task making us less focused on the new task.4
+How do you do this?
+Embrace the opportunity for deep work in the team. Think about a task that requires deep focussed thinking and prioritise that.
+Consider what deep work you have for the day and schedule those tasks for when you are likely to havethe fewest distractions. Consider sharing deep work with a colleague who might have fewer distractions.
+Build in habits to foster psychological detachment from work
+Many of us already battle thoughts about work intruding on our leisure time. Organisational psychologists have been studying how we can best leave those thoughts of work behind when we’re no long at work. It is a concept known as psychological detachment.5
+Psychological detachment can become harder when we’re no longer physically detaching from work. Building in strategies to foster psychological detachment has been shown to be an important way to maintain wellbeing and reduce stress.
+How do you do this?
+Make time for activities that are enjoyable and active. Consider building in a creative task that you enjoy at the end of the day as a transition from work to leisure.
+Try to create a routine of when you are working and when you’re not.
+Think about physical cues (e.g. a dedicated workstation) that allow you to transition from work to leisure. Leaving this work zone means you’re no longer ‘at work’. If physical space is not an option, perhaps visualise ‘leaving work’ or send a 'goodbye' email to delineate work time and maintain social contact.
+What to read next?
+The NSW Public Service Commission resources for managers on how to manage dispersed and flexible teams:
+A Guide to Managing Your (Newly) Remote Workers
+Managed Remote Working: Building a sustainable way of working
+15 Questions About Remote Work, Answered
+References
+1 Riedl, C. and Woolley, A. W., (2016). Teams vs. crowds: A field test of the relative contribution of incentives, member ability, and emergent collaboration to crowd-based problem solving performance. Academy of Management Discoveries, 3(4), 382-403. Available at http://dx.doi.org/10.2139/ssrn.2384068
+2 Janis, I. L. (1972). Victims of groupthink: A psychological study of foreign-policy decisions and fiascoes.
+3 Markman, A. (2019). Your team is brainstorming all wrong. Harvard Business Review, 18 May. Available at https://hbr.org/2017/05/your-team-is-brainstorming-all-wrong
+4 Leroy, S. (2009). Why is it so hard to do my work? The challenge of attention residue when switching between work tasks. Organizational Behavior and Human Decision Processes, 109(2), 168-181.
+5 Sonnentag, S., &amp; Bayer, U. V. (2005). Switching off mentally: predictors and consequences of psychological detachment from work during off-job time. Journal of occupational health psychology, 10(4), 393.
+Published: 20 April 2020</t>
+  </si>
+  <si>
     <t>Simple behavioural insights interventions significantly reduce the gender gap in recruitment</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/reducing-gender-gap-recruitment</t>
   </si>
   <si>
+    <t>The theme for International Women’s Day 2020 is Generation Equal. This theme speaks to the collective role our organisations and we as individuals play in creating a gender equal world. Today, we’re pleased to share the results of a trial that we hope will build the evidence of how organisations can help build a more equal world.
+We designed and tested two behaviourally informed interventions, an email and a phone call, to increase the proportion of women reapplying for senior roles in the NSW Government. The combined BI interventions increased the likelihood of women reapplying for a senior role by 27% and significantly reduced the gender gap between men and women reapplying for senior roles from 45% to just 4%. 
+The challenge
+Since 2015, there has been a Premier’s Priority target to increase the proportion of women in senior leadership roles in the NSW Government sector to 50% by 2025. Since this time, the representation of women has steadily increased from 33% to 40%.
+While this increase is an important step, there is still a considerable way to go. Greater gender diversity in senior leadership can lead to better performance and innovation. This makes gender parity an imperative to delivering a stronger economy and better outcomes for the people of NSW.   
+A common challenge for organisations trying to reach equal representation of men and women in senior roles is that women simply do not apply for these roles at the same rate that men do.
+Indeed, this was the key challenge the Behavioural Insights Unit identified in the research we conducted in the NSW Government.
+What we did
+Understanding the context
+The Behavioural Insights Unit partnered with the Public Service Commission and the Customer Service, Stronger Communities, Transport Clusters to increase the proportion of women applying for senior leader roles. 
+First, we took an innovative, data-driven approach to understanding the barriers and enablers to women in the NSW Government sector. Some of the key insights from this research were:
+Women were less likely to apply for senior roles compared to men in all Clusters of Government. 
+In comparison to men, women were much more likely to doubt their skills.
+There was a significant gender gap in the rate of male and female applicants reapplying for a senior role within 6 months of narrowly missing out. Men were more likely to reapply compared to women. 
+Read more in our report Applying behavioural insights to drive public sector diversity: Insights from research in NSW.
+Building the interventions
+Using these insights, we developed two behaviourally-informed interventions designed to encourage women to reapply for senior roles after they narrowly missed out. The interventions were an email and a phone call with a recruitment manager that focused on how well the applicant had done and encouraged them to apply again. 
+Both interventions leverage the BI principle of the peak-end rule. The peak-end rule describes a tendency where we tend to judge an experience based on how we felt during its emotional peak and at its end.
+During the recruitment process, the emotional peak is often an interview, while the end for most candidates tends to be a generic email advising that their application was not successful.
+The BI interventions tried to disrupt this final impression by providing candidates who were interviewed but not successful with an encouraging email or phone call with a recruitment manager.
+We thought improving this final experience could have disproportionately large impacts on the overall candidate experience, but especially so for women who we knew from our research were more likely to doubt their skills and less likely than men to re-apply after narrowly missing.
+Testing the results
+We tested these interventions using a randomised-controlled trial design with 1614 candidates randomly allocated to receive business as usual recruitment processes, a BI email only or BI email and phone call. 
+Two weeks after receiving the BI intervention (or not), candidates were sent a survey to record their overall satisfaction with the recruitment process, intentions to reapply and likelihood to refer a colleague to the NSW Government. We then measured whether candidates reapplied for another senior role in the NSW Government within three and six months after receiving the interventions.
+Of the 29% of candidates who completed the survey, the interventions had a significant impact on candidates’ intention to reapply for a senior role, from 49.2% to 68.1% (p &lt; 0.01) in the email condition and to 75.6% (p &lt; 0.001) in the email and phone call condition. The effect of the email/phone call condition was even larger for women, with 82.7% of women reporting an intention to reapply.
+Candidates' satisfaction and optimism with the recruitment process, as well as their likelihood to refer a colleague to the NSW Government all significantly increased with the email and phone call interventions.
+But did the interventions lead to actual behaviour change? 
+The simple answer is yes, the interventions did lead to a change in candidates reapplying!
+When we look at the candidates overall, the interventions did not lead to greater reapplication rates than the business as usual (all p values &gt; 0.20). However, this was because the interventions had a different impact depending on whether the candidate was male or female. After 6 months, we could see that receiving the phone call and email led to a 27% increase in women reapplying compared to the usual recruitment process (p=0.097).
+The interventions significantly reduced the gender gap in likelihood to reapply within 6 months.
+Without the interventions, there was a significant gender difference in reapplication rates with men 45% more likely to reapply than women (59.5% vs. 41%; p &lt; 0.001). 
+The BI-interventions reduce this gender gap to 12.1% (email only) and 4% (phone and email). Although men were still more likely to reapply, the difference between men and women was no longer statistically significant (email p = 0.34; phone and email p= 0.85). 
+When scaled across the entire NSW Government we estimate this could increase the proportion of women in senior roles by up to .5% each year and make a significant contribution to achieving equal gender representation in senior roles.
+Next steps 
+These simple, low cost interventions are now being scaled across the NSW Government, making better candidate care part of business as usual. 
+The Public Service Commission is developing a toolkit to help recruitment managers implement the interventions in their organisations. 
+Developing innovative new strategies to increase gender equality using behavioural insights is just one way the NSW Government is delivering on being a world class public service.
+Watch the video below, where Acting Public Service Commissioner, Scott Johnston discusses our trial.
+Published: 9 March 2020</t>
+  </si>
+  <si>
     <t>Encouraging managers to support flexible working</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/encouraging-managers-to-support-flexible-working</t>
   </si>
   <si>
+    <t>Increasing access to flexible work is a NSW government priority. We know it is linked to improved productivity, engagement and supports workplace diversity. Across the government sector, employee satisfaction on flexible work has plateaued so we set out to find ways to improve it.
+What did we do?
+Our research showed middle managers are a key dependency in employees’ perceptions of their access to flexible working. We partnered with the NSW Public Service Commission and other agencies to develop an email intervention aimed at encouraging managers to engage with their staff about flexible working. Our partners included the Department of Customer Service, Department of Education, Department of Premier and Cabinet, Department of Transport and Local Land Services. 
+We ran a randomised controlled trial with two conditions. The control email used standardised messaging. The behaviourally-informed email drew on a range of BI principles such as social influence and salience, and also reduced friction by providing a template email for managers to send to their staff. 
+What did we learn? 
+Our analysis showed that managers who received the BI email were three times more likely to send an email to their team inviting a discussion about flexible work. 6.1% of managers in the treatment group sent the email compared to 1.8% in the control group. This was a significant effect, but the low proportion of managers engaging overall highlights the limitations of agencies using email as a tool to trigger action. 
+Our key take-away is that if you’re going to send an email asking managers (or any busy person!) to do something make sure you use behavioural insights techniques – but don’t rely on email alone as your primary tool to drive behaviour change. That’s why the NSW Public Service Commission and our partner agencies use emails as only one component of their broader strategy to implement flexible work across the NSW government sector. 
+The BIU has also designed and tested other novel solutions to improve flexible work practices – such as changing default settings in outlook, encouraging our managers to become flex work ambassadors and running a team-based competition. You can read more about that work in the 2018 Behavioural Insights report (PDF 2.35MB).
+Published: 17 December 2019</t>
+  </si>
+  <si>
     <t>Building capability in applying and testing behavioural insights</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/building-capability-applying-and-testing-behavioural-insights</t>
   </si>
   <si>
+    <t>We wanted to make it easy for busy public servants to test their BI ideas, so we created a short and practical guide on RCTs, A/B tests and before-and-after studies.
+We are building capability in three ways: 
+'Do it yourself’ guides covering our most frequently asked questions, from ‘How to increase service take-up’ to ‘How to encourage digital adoption’. This first guide on 'How to test whether your behaviour change intervention works (PDF 130.08KB)' is designed to accompany each of these. 
+Monthly workshops for public servants covering a mix of BI 101 and masterclasses on our guide topics - these are promoted regularly through our newsletter.
+Weekly clinics for public servants to troubleshoot their BI project with a BIU staff member - these clinics can be booked online.
+A new guide on testing for government 
+Many evidence-based interventions don’t produce the same outcomes when applied to new contexts. Testing is essential to understand whether a policy, program or communication actually works. We wanted to make it easy for busy public servants to test their BI ideas, so we created a short and practical guide.
+In three pages, our new guide covers three common testing methods: Randomised controlled trials, A/B testing and before-and-after studies, with a step-by-step overview of each and links to more detailed resources. The guide also helps you choose the testing method that best meets your needs. 
+In November 2019, we launched this guide with a workshop on 'How to test’. Fifty employees from across the NSW Government explored the challenges of randomisation, data collection, analysis and ethics, focusing on a real-world case study. 
+Workshops and clinics 
+Over the next 12 months, we will be running more workshops for government on applying behavioural insights to common policy challenges, such as tackling myths and misinformation and increasing regulatory compliance. Each workshop will come with a 'do it yourself' guide on BI strategies to apply to the challenge, and this guide on testing is designed to help evaluate whether these strategies work in your own context. 
+We’re also running a weekly clinic to support government teams using these guides. Public servants can book a 30 min session with a BIU staff member online.
+We’d love to hear the results of your own BI projects. Email us.
+BIU helps NSW government agencies to achieve measurably better outcomes for the people of NSW by guiding them on how to develop and test behavioural science solutions to policy, program and service goals.
+Published: 9 December 2019</t>
+  </si>
+  <si>
     <t>Opportunities to remove gender as a barrier to senior leadership</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/opportunities-to-remove-gender-as-a-barrier-to-senior-leadership</t>
   </si>
   <si>
+    <t>Today we are launching the findings of research we conducted in partnership with the Public Service Commission, Customer Service, Stronger Communities and Transport Clusters.
+We are excited to tell you what we learnt from analysing 1.1 million job applications, 500 survey responses and 65 interviews.
+We identified 10 opportunities to remove some of the obstacles facing women rising to senior roles in NSW:
+remove opportunities for bias in recruitment systems, such as removing identifiable information from CVs
+increase visibility of, and contact with, female leaders
+shift informal social norms, such as subtle cues in calendar settings that reward and sustain a nine-to-five culture
+set KPIs for flexible working
+simplify the job application process to increase the number of applications submitted
+use gender-neutral language in job descriptions
+remove self-evaluation from performance reviews
+encourage women to take up promotional opportunities
+only include essential criteria in job advertisements
+provide comparable and actionable feedback on performance
+This project is part of BIU's wider program of work on applying behavioural insights to support the Premier's commitment to a world class public service through diversity. Previously we wrote about how behavioural insights can be used to drive public sector diversity by summarising findings from the academic literature. In the coming months we will share the results of a trial we ran to encourage job candidates to reapply for senior leadership roles after narrowly missing out.
+We hope that you can take some of these lessons and apply them in your organisations to help drive workforce diversity as well.
+Published: 21 November 2019</t>
+  </si>
+  <si>
     <t>Increasing apprenticeship course attendance through behavioural interventions</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/increasing-apprenticeship-course-attendance</t>
   </si>
   <si>
+    <t>We found that if the employers of apprentices and trainees (henceforth "learners") were sent a text message detailing what the learners are studying at TAFE, we could significantly increase course attendance.
+The issue
+In 2015, the Premier Mike Baird set a state target of 65% completion rates for apprentices and trainees. Since November 2015, BIU has worked closely with Training Services NSW (TS NSW) and TAFE NSW to design and deliver a range of interventions to increase the proportion of people completing apprenticeships and traineeships. Our collaboration has resulted in three trials.
+Today, we have published our report on our second trial, Strengthening Connections: Increasing Apprenticeship Course Attendance Through Behavioural Interventions. 
+Barriers to completion
+Our previous fieldwork revealed two key barriers to apprenticeship and traineeship completion: a disconnect between formal study and on-the-job learning, and insufficient employer support.
+At work, learners often do not communicate what they are learning to their employers. Consequently, employers do not value the training their learners received.
+Employers are also often unaware of what their learners study at TAFE so they cannot give them a chance to practice their skills at work. Due to this disconnect, both employers and learners have negative perceptions about the value of the training they receive at TAFE.
+SMS can improve learning
+Prior behavioural research on school attendance shows that improving communication between teachers and parents using SMS has increased benefits for students, from preschool to high school.
+Our trial sought to apply these empirical insights into a new setting for a different cohort: vocational learners and their employers.
+We ran a trial
+We ran a randomised control trial (RCT). One set of learners in the Treatment group received our behavioural intervention. Their employers received text messages for one semester. Each week, TAFE NSW teachers and head teachers wrote to our project team with a brief summary of what they taught in class. We then used this content to craft a behaviourally informed message, either prompting employers to give the apprentice a chance to practice that skill on the job, or to talk to their apprentice about that topic. 
+The other set of students were in the Control group. They benefited from the same level of service all students already receive, but without these text messages.
+Our text messages had a positive effect on class attendance
+Our primary outcome measure was to increase class attendance. Our text messages to employers were effective in increasing the students’ class attendance by 3.1 percentage points. This effect was mainly driven by attendance in the last two weeks of Term. This finding translates to 147 out of 966 (15.2%) extra classes that students attend as a result of our treatment. Multiplied across the state, the impact of our trial could improve attendance for thousands of learners.
+The effect may be understated because of the possibility of spillover. This refers to the possibility that learners in the Control group who worked with employers who also had students in the Treatment group (the Spillover group) may have also benefited from the treatment, as employers may have changed the way they treated all of their employees as a result of our treatment. 
+Treatment did not encourage more interaction
+We had two secondary outcome measures. First, we conducted a survey to to better understand the experience of receiving additional communication. Learners in the Treatment group did not report more frequent interactions with their employers, nor did they receive more opportunities to practice what they learnt on the job, in comparison to the Control group. Similarly, employers with learners in the Treatment group did not report higher understanding of what their learners were studying. It could be that receiving text messages increased class attendance simply due to greater perceived social pressure from employers to learners, rather than the specific content of the messages.
+Nevertheless, our survey suggests all learners and employers were likely to recommend studying at TAFE (with the exception of carpentry).
+Some employers were confused by relevance of the course information in the text messages and did not see the value. For example, during our trial, carpentry courses were focused on mathematics. A typical message was: ‘This week we learned about Pythagoras’ theorem.’ We suggest demonstrating the relevance of courses and include actionable messages that link theory to practice. For example, ‘This week we learned about Pythagoras’ theorem to show how to accurately lay out footing for a new building. Here’s a quick tip on how you can get Sarah to try this at work &lt;include hyperlink to five-minute exercise easily achieved at work&gt;.’
+No impact on cancellation but 1/5 of learners who leave keep studying
+Our other secondary outcome measure was to see the impact of messages on completions 12 months after treatment ended. Both the Treatment and Control groups showed similar levels of contract cancellation rates. The treatment ran for only three months in the first semester. This suggests the benefits of messages to class attendance wear off without ongoing reinforcement.
+Still, we found that one-fifth of learners who cancelled their first contract continued studying under a subsequent contract with another employer. This implies that cancelling a contract does not mean that the learner drops out of their apprenticeship or traineeship. 
+Policy implications
+Based on the findings from our trial, we proposed the following policy recommendations.
+Continue timely text messages with actions employers can take
+Create stronger links to translate curriculum (including theory) to on-the-job-learning.
+Enhance communication with employers using SMS at optimum times, detailing what learners are learning and providing succinct tips, ‘cheat-sheets,’ checklists and other actionable messages to boost class attendance.
+Use behavioural insights (BI) to disseminate best practice to employers:
+Make behaviour change easy. Reduce the hassle for employers to learn better communication and supervision skills, with mobile-accessible resources and support. 
+Design attractive rewards and sanctions. Boost communication between learners and employers using incentives and disincentivise poor practices.
+Reinforce social norms of best practice. Disseminate best practice from employers with high completion rates. Make completions data available from top employers, using social comparison methods from behavioural science. This will stimulate peer influence and promote changed behaviour among low-performing employers.
+Maintain timeliness of messages. Effects of messages are short-lived and require ongoing reinforcement during difficult periods where learners may be considering quitting.
+Apply lessons from the trial to better use data on completions.
+As TAFE NSW has moved to the ‘One TAFE’ model and looks to standardise course content in 2019, the methods of our intervention show that getting access to data early and achieving consistency in reporting attendance and cancellations would benefit these aims.
+Better use of data allows for superior monitoring of negative patterns, targeting and timing of interventions.
+Proactively support learners using machine learning to identify problem patterns in class attendance and target interventions.
+Support employers’ supervision capability using electronic prompts. SMS can be used to update records and inform employers on learners’ ongoing outcomes and class attendance.
+TAFE NSW will be incorporating this body of recommendations into broader activities that the organisation is undertaking to enhance customer experience. 
+What’s next?
+We are currently supporting TAFE NSW and TS NSW to continue testing SMS messages to boost attendance and on-the-job learning. 
+Our trial would be of interest to other jurisdictions currently working on improving apprenticeship and traineeship attendance and completion rates.
+Read our report.
+Published: 31 May 2019</t>
+  </si>
+  <si>
     <t>2019</t>
   </si>
   <si>
@@ -295,174 +1691,871 @@
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/reducing-missed-hospital-appointments-better-text-messages</t>
   </si>
   <si>
+    <t>While St Vincent’s Hospital send reminder text messages to patients to remind them of their outpatient appointments, nearly 15 per cent of people still miss their appointments. Each missed appointment reduces patient care and costs the hospital money.
+Our research that found it wasn’t enough to send a reminder text message - the content of the message also matters.
+We worked with St Vincent’s Hospital to test different types of text message reminders to see which one was the most effective at getting people to attend their appointment.
+Two randomised controlled trials were conducted. Each trial ran for six-months over a 13-month period and included nearly two-thirds of all outpatient appointments at the hospital. During the two trials around 20,000 text messages were sent to nearly 7,500 people.
+First trial
+In the first trial, seven new messages were developed. The new messages built on the original text message reminder sent by St Vincent’s Hospitals.
+VersionText messageOriginalYou have an appointment with Dr [XXXX] in [clinic XXXX] on [date] at [time]. For enquiries, call 8382–3150. Do not reply.Version 1Original Message + Last year the hospital lost $500,000 due to lost appointments.Version 2Original Message + If you do not attend the hospital loses $125.Version 3Original Message + If you do not attend the hospital loses $125 that can be used to treat other patients.Version 4Original Message + If you attend the hospital will not lose the $125 we lose when a patient does not show up.Version 5Original Message + By attending the hospital will not lose the $125 that we lose when a patient does not turn up. This money will be used to treat other patients.Version 6Original Message + You are free not to attend but please call us on 8382–3150 if you need to cancel or rearrange.Version 7Original Message + Please attend or call 8382–3150 to cancel/rearrange, or we will record as a missed appt.
+The two most effective messages were Versions 4 and 5.
+Second trial
+The second trial tested four messages: the two most effective messages from the first trial and two new messages which focused on non-financial impacts that missed appointments have on clinics and staff.
+VersionText messageVersion 8We are expecting you at [clinic XXXXXX] on [day] [date] at [time]. If you do not attend, St Vincent’s loses the ability to treat others in need of our services. Please call 8382–3150 if you need to cancel or rearrange.Version 9We are expecting you at [clinic XXXXXX] on [day] [date] at [time]. Your clinic is depending on you to attend. Please call 8382–3150 if you need to cancel or rearrange.
+While all of the messages in the second trial led to a reduction in people missing their appointments, the most effective message was Version 5:
+You have an appointment with Dr [XXXX] in [clinic XXXX] on [date] at [time]. By attending the hospital will not lose the $125 that we lose when a patient does not turn up. This money will be used to treat other patients.
+During the first trial there was a 19 per cent reduction in the number of the people missing their appointments, which saved St Vincent’s Hospital over $68,000.
+The information from the second trial was used by St Vincent’s Hospital to better target their messaging strategies for patients in the future.
+Published: 28 February 2019</t>
+  </si>
+  <si>
     <t>SMS reminders to reduce social housing rent arrears</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/sms-reminders-to-reduce-social-housing-rent-arrears</t>
   </si>
   <si>
+    <t xml:space="preserve">There are currently 290,000 people living in social housing in NSW. This housing provides a safety net for vulnerable people, providing assistance to those who need it, while they need it. Tenants pay less than the usual market price for rent and other related expenses.
+When a tenant’s account goes into arrears, FACS has to follow up with them to collect the overdue rent or set up a payment plan. They send letters, make phone calls and visit tenants in person. Could SMS text messages help lower the cost and time spent on this?
+The trial
+We worked with FACS to set up a randomised controlled trial. When people went into rental arrears, they were randomly allocated to one of five groups. All groups received the letter notifying them they were in rental arrears; however four of the groups also received one of four different text messages.
+VersionText messageVersion 1Your rent is overdue. More than 9 out of 10 tenants in your area have paid their rent on time. Paying now keeps you in your home. Visit housing.nsw.gov.au/payVersion 2Your rent is overdue. Your tenancy may be at risk if you do not pay now. Call your local office or visit housing.nsw.gov.au/payVersion 3Your rent is overdue. Unpaid rent costs the government and community money which could be used to help others like you find a home. Visit housing.nsw.gov.au/payVersion 4Your rent is overdue. When you moved in, you committed to pay your rent on time. You have broken this agreement. Visit housing.nsw.gov.au/pay
+Results
+10,000 text messages were sent during the six-month trial. It was a success.
+Over three quarters of people who received the text messages paid their overdue rent or entered into a payment plan, compared to 68.5 per cent who only received the letter.
+The most effective text message was version 4. 
+VersionText messageVersion 4Your rent is overdue. When you moved in, you committed to pay your rent on time. You have broken this agreement. Visit housing.nsw.gov.au/pay
+We also found some groups of tenants, such as people aged between 55 and 64 and households that included people with a disability were more responsive to the text message than letters.
+During the trial, some people went into rental arrears for a second or third time. We found that these people were more likely to pay their overdue rent if they received another text message. The trial also found that sending different messages to tenants was more effective than sending the same message again. </t>
+  </si>
+  <si>
     <t>Helping injured education workers return to work</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/helping-injured-education-workers-return-to-work</t>
   </si>
   <si>
+    <t>Research was conducted in a partnership between NSW Treasury Managed Fund, insurer Allianz and the Department of Education, to see if personalised support for individual workers with encouragement to get them to actively participate in the recovery process would help them get well sooner. 
+Understanding the context and building a new approach
+We undertook research to better understand the process of and challenges faced by employees when trying to return to work after an injury. It was clear that the injured employees had to deal with large amounts of paperwork and the process was complex and confusing. 
+Another observation was that workers weren’t taking an active role in developing or contributing to their Injury Management Plan. Rather than engaging workers in developing the plan, it was largely set by medical professionals, the insurer and the employer, with little coordination between these three groups.
+We developed a new approach to working with injured workers. This included:
+simplifying and reducing communications to workers
+clearly communicating the responsibilities of the worker, insurer and employer
+developing messages focusing on recovery and returning to work, rather than about being injured
+encouraging workers to make commitments that support their return to work. For example: "I will do all the exercises that my physio tells me to do"
+To support this new approach, case managers were trained and coached to focus more on building relationships with injured workers and achieving health and employment outcomes, than satisfying process requirements.
+Testing the effectiveness of the approach
+We tested this new approach in a trial. Injured workers were divided into two groups:
+one group received the new approach
+group two received the normal services
+The trial ran for 10 months and 1,700 people were included in the trial.
+We measured results after 90 days. The trial found that people returned to work 27 per cent faster in the first 90 days when they received the new approach compared with people in group two.
+Published: 28 February 2019</t>
+  </si>
+  <si>
     <t>A guide to reducing the effects of scarcity with simplification, timing and salience</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/a-guide-to-reducing-effects-of-scarcity</t>
   </si>
   <si>
+    <t>Think back to a time when you were stressed or had too much to do and not enough time to do it.
+Perhaps you procrastinated, assuming you’d get it done quickly when the deadline rolled around, or maybe you neglected other things while you worked, like healthy eating and exercise? If so, you might have had a brief look into the scarcity mindset.
+When we feel that we don’t have enough resources to cover our needs (such as time or money), we use a significant amount of mental energy making trade-offs. The problem is, we only have so much mental energy to use. This is called a scarcity mindset.
+People experiencing a scarcity mindset make more biased decisions and mistakes, tunnel on pressing issues, and perform comparatively worse on tests. One study found that a scarcity mindset in shoppers completing cognitive tasks actually resulted in the equivalent of a 13-point dip in IQ, or the loss of an entire night’s sleep!
+It is important for policy makers to understand the effects of scarcity because public services can be hard to navigate for people who are already under pressure. They often require people to make decisions that prioritise long-term future benefits over costs experienced in the present – think education or superannuation. This can be especially hard for those experiencing scarcity.
+The good news is that negative effects of scarcity can be reduced by using simple behavioural insights tools.
+Applying behavioural insights to reduce the effects of scarcity
+In October, the Behavioural Insights Unit hosted researchers from the Australian National University, Professor Nicholas Biddle and Dr Katherine Curchin, to unpack the evidence underpinning the Scarcity mindset and the lessons for Government. 
+Watch the full event 
+Download the guide
+To provide more practical tips and strategies to understand and reduce the effects of scarcity, we developed Behavioural Insights in Action: Scarcity (PDF 142.3KB). This easy-to-use guide explains how to:
+simplify steps to reduce the effort required for people to engage with our services
+target our services when people are most receptive, and have the capacity to engage
+make our messages clear, relevant and memorable, so that people get the information they need to make informed decisions.
+By understanding the effects of scarcity, we – as policy makers, program designers and front line workers – can make our services easier to access for the people who need them the most, and for all citizens of NSW.
+Published: 13 December 2018</t>
+  </si>
+  <si>
     <t>How to increase job applications in regional NSW</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/how-to-increase-job-applications-regional-nsw</t>
   </si>
   <si>
+    <t>Changing the scene
+Sometimes people living in metro Sydney can find it difficult to anticipate what it might be like to relocate to regional NSW, unless they know others who have made the ‘sea change,’ or if they’ve previously holidayed in the area. Brief exposure to rural and remote regions can dispel any reservations, showing that communities in regional NSW are waiting with vibrant and diverse experiences for individuals and families.
+In our previous blog post, we discussed our trial that used behavioural insights to successfully attract trainee teachers to apply for professional placements in rural and remote NSW. Our work translates into other sectors. Regional NSW towns and cities are not just welcoming new teachers; these communities are also offering exciting careers for trainees and experts in other fields, including engineering, nursing, medical doctors and business owners.
+The NSW Government has established a long-term plan to continue sustainable growth in regional economies. There is already plenty of support for people making the move, from finding fulfilling work, to joining community and sporting activities, to accessing quality health and education. Employers across multiple industries are offering satisfying career prospects. We just need more people to seize these opportunities.
+Here’s where BI can help.
+Make it easy and attractive to apply
+Reduce any hassle factors in the application process
+Often, more effort (friction costs) is required to apply for a regional rather than metro job. Auto-populate forms and make research about the location easy with hyperlinks.
+Check the default settings on application software
+Software may not show regional places at all or may match applicants on proximity to their home. Show all available jobs. Lists of available jobs should be “chunked” e.g. by region or broken up into groups of seven to ease the choice. 
+Use novelty and maximise the appeal of regional NSW
+People are inundated with email and requests. Use a medium, like a post-card, that is novel, eye-catching and cuts through. Tap into what appeals to applicants’ identity: career benefits, making a difference, challenge, adventure.
+Use social influencers and timely reminders to increase applications
+Use influential messengers to create network nudges
+Humans are social creatures. They listen to influential messengers: their parents, respected leaders, their peers. Testimonial videos can use the messenger effect to overcome risk aversion. Expose influential messengers to regional opportunities to start positive conversations or network nudges.
+Allow more planning time and timely reminders
+Regional applications require more planning. Time pressure can make applicants choose locations that they recognise (familiarity heuristic). Give applicants enough time to research locations. Send text reminders close to the deadline.
+Published: 26 September 2018</t>
+  </si>
+  <si>
     <t>Applying behavioural insights to get trainee teachers to rural and remote NSW</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/attracting-trainee-teachers-to-rural-and-remote-nsw</t>
   </si>
   <si>
+    <t>Worldwide, private and public sector employers struggle to attract and retain professional staff in rural and remote (R&amp;R) areas – be they nurses, teachers, or even bank tellers. At the BIU, we recently presented our progress in this area at the NSW Council of Deans conference in Newcastle, to the Tax and Transfer Policy Institute’s Conference on Behavioural Economics and Public Policy in Canberra, and to the Institute of Public Administration NSW’s Behavioural Insights Forum in Sydney. 
+While financial incentives like salary bonuses or tuition funding are typically used to attract more people to work in R&amp;R areas, money is just one possible motivator. Recognising this, the NSW Department of Education approached us in 2016 to complement their financial incentives with a behavioural approach. Our goal was to get more metropolitan trainee teachers to apply for professional experience placements in R&amp;R NSW.
+Behavioural science suggests that anyone offering choices is a ‘choice architect’ and can influence decisions by the way choices are offered. We applied choice architecture to the placement decision by making the process easy, attractive, and social, with timely reminders.
+ To understand how best to do this, we spoke with staff at the NSW Department of Education, Deans and professional experience placement officers at metropolitan universities, and we surveyed 230 trainee teachers online. We learned that trainee teachers want to enhance their career prospects, meet the challenge of broadening their work experience, or “make a difference”. They also like the idea of being able to support one another on placement: they shared stories with us of previous placements where they had been placed in the same school at the same time with other trainee teachers. Our research also identified behavioural barriers and triggers that needed to be addressed.
+Identifying behavioural barriers or triggers
+We learnt that gaining professional experience is extremely stressful for trainee teachers. The placement decision is filled with unknowns e.g. the school itself, the mentor teacher, the lesson plan. The placement decision typically also requires research about the school and its surrounds.
+Furthermore, trainee teachers were inclined to stick with the tried and tested, preferring to keep their commuting and family arrangements as unchanged as possible. (Known as the status quo bias, this barrier is aggravated when the required behaviour has high effort requirements or friction costs.) At some universities, the friction costs for a R&amp;R placement were far higher than for a metropolitan placement: trainee teachers had to email university staff if they wanted a R&amp;R placement, whereas metropolitan placements were offered as part of the placement process.
+Given the research effort involved, the friction costs and the uncertainty, trainee teachers were likely to use the familiarity heuristic or rule-of-thumb: they chose schools they knew more about over schools they knew less about. Indeed, we saw students open up a list of possible professional experience schools on their computer screen; skim through the list, and pick out familiar suburbs or school names.
+Across the three universities, we also noticed that their newly implemented placement software was directly influencing trainee teachers’ decisions. For example:
+The software showed schools in order of proximity to each trainee teacher’s home address. This order effect favoured the closest schools: most students didn’t bother to work through the entire list. In some instances, R&amp;R schools weren’t even shown.
+The software showed trainee teachers a list of dozens of schools. Faced with too many options, or choice overload, trainee teachers favoured familiar local schools over unknown schools.
+The software automatically matched secondary school trainee teachers, defaulting them to a placement at the school nearest to their home.
+Trainee teachers were inclined to rely heavily on the advice of influential messengers like family, peers and friends in their social network to avoid effortful research.
+We tried three interventions
+Together with our university partners, we co-designed three interventions. To overcome the status quo bias and use of the familiarity heuristic, we worked closely with the professional experience offices to simplify the application and research process to encourage R&amp;R placements.
+Using randomised controlled trials (RCTs), we tried three interventions in practice:
+Intervention 1: Timely and personalised communications
+In mid-2017, together with the University of Wollongong, we made the R&amp;R placement opportunity more noticeable and attractive using the appeals that students had shared with us. We compared the percentage of applications received from an under-graduate group receiving a personalised postcard, email, and reminder text message, with those of a control group.
+The intervention had a significant effect, getting three times more applicants for R&amp;R placements (12.6% versus 4.2% of all applications).
+Intervention 2: Simplifying the research process and using an influential messenger
+"I spent 4 weeks in Broken Hill at the end of 2016 doing a placement there on a Year 2 class and ... by far and away the best part of my degree." - Ellie Burgess
+In August 2017, working with Macquarie University, we added specific information about the R&amp;R school on offer (e.g. hyperlinks to the school’s web page and the tourism page for the school’s region) and the chance to go with a group. Our email used an influential messenger: a hyper-linked testimonial video from a trainee teacher who had previously undertaken a R&amp;R placement.
+Our results were promising, with a 9.8% R&amp;R application rate in the treatment group, as opposed to none in the control group.
+Intervention 3: Peer-placements
+In March 2018, Western Sydney University helped us to test peer-placements. Here we trialled offering the chance to go with a peer to a post-graduate trainee teacher group, using personalised emails and reminder texts. The peer-placement idea was popular and is worth exploring further despite not getting significantly more R&amp;R applications (1.7 times more applications).
+Why these trials were important
+Everyone knows that it’s not all about the money. We showed that other factors influence trainee teachers choosing placements in R&amp;R schools. Our trials were remarkably impactful: some of these trainee teachers have already accepted positions at the NSW R&amp;R schools where they did their placement and others have changed their perspective: “I will never hesitate to apply for a job in a rural/remote area after experiencing first-hand how incredible it can be" UOW – 2nd year trainee teacher.
+All three trial partner universities have adopted the interventions as business as usual. The NSW Department of Education will now drive implementation at identified major metropolitan universities.
+If you would like to read more about this project ,see our 2018 annual report (PDF 2.35MB).
+Published: 11 September 2018</t>
+  </si>
+  <si>
     <t>Improving domestic violence court attendance</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/improving-domestic-violence-court-attendance</t>
   </si>
   <si>
+    <t>Reducing rates of domestic and family violence in NSW is a Premier’s Priority. To address this complex behavioural problem, we worked with the Department of Justice to improve court attendance for recipients of Apprehended Domestic Violence Orders (ADVOs).
+In order to do this, we used an RCT to test the efficacy of a text message to improve court attendance.
+Out of a large pool of defendants, one group was randomly selected to receive SMS reminders for their upcoming court attendance. The other BAU group did not receive them. We compared the groups to see if the SMS improved court attendance.
+Results showed the SMS was effective in improving court attendance. The intervention group had a significantly lower court non-attendance rate of 13.5%, compared to the BAU group’s non-attendance rate of 17.6%, a relative decrease of 23%.
+Background
+Domestic violence imposes huge personal and societal costs on our community. In 2017, 30 people died as result of domestic violence in NSW. This represents 40% of total homicides during the same period.1 Reducing domestic violence reoffending is one of the NSW Premier’s Priorities.
+Since 2014, the NSW Behavioural Insights Unit (BIU) has partnered with the Department of Justice to test the application of behavioural insights to address the complex behaviour of domestic violence reoffending. Central to this effort have been initiatives aimed at increasing compliance with ADVOs. Following the implementation of the Plain English ADVO in 2016, BIU shifted its focus to the ADVO life cycle, looking at ways to improve compliance with ADVOs through greater engagement with court processes.
+Under NSW law, police or a person can seek protection from domestic violence by applying to court for an ADVO. Once an application is made, the defendant is required to appear before a magistrate to determine if a final ADVO should be made. If the ADVO application is contested, the defendant may be required to attend court on multiple occasions to have the matter heard. During this process, the police or the magistrate will usually issue an interim order before a decision is made on whether to issue a final order.
+Defendant engagement with the court process is an important part of enabling judicial efficiency and expediting protection for victims. On average, 18% of domestic violence defendants do not show up to their ADVO listing. Not attending court can impact court and police resources and may cause additional stress for victims. For example, when a defendant does not show up to court, the matter may be adjourned, leading to additional court listings. By attending court, perpetrators might better understand and agree with ADVO conditions.
+What we did
+BIU partnered with the Department of Justice and the NSW Police Force to run an RCT to determine whether text message reminders improve court attendance, and reduce breaches and reoffending. The trial was a two-pronged RCT design:
+BAU — no reminder SMS was sent to defendants.
+Intervention — this group received a reminder SMS the day before their court appearance.
+It was implemented across five local courts — Bankstown, Blacktown, Fairfield, Mt Druitt and Toronto — from 30 May 2016 to 1 January 2018.
+Our total sample size (BAU and intervention) was 4,388 ADVO recipients who had 8,314 court appearances. Altogether, 49% of people were in the intervention group, and 51% were in the BAU group. Of our entire sample, 83% were men and 11% were Indigenous.
+While the primary aim of the trial was to reduce court non-attendance, we were also interested to see if the intervention could have an impact on reducing breach rates and reducing domestic violence reoffending.
+What we learnt
+Court non-attendance decreased
+We found that the SMS reminder produced a significant increase in court attendance.
+Individuals who received an SMS prior to their court appearance were, on average, four percentage points more likely to attend their court appearance. Individuals in the BAU group failed to attend court 17.6% of the time, compared to the intervention group where people failed to attend only 13.5% of the time. This corresponds to a 23% relative decrease in non-attendance (p &lt; 0.001).1
+Court efficiency improved
+There was also a significant reduction in the average number of court listings that were scheduled for each defendant. The BAU group had an average of 3.3 appearances, compared with the intervention group, where the average case had 3.1 appearances (p = 0.005).
+Additionally, we observed that the reminder caused a significant reduction in the time taken to finalise each court case. In the BAU group, it took cases 74 days on average to finalise, compared with 69 days in the intervention group (p = 0.049).2
+No significant change in domestic violence reoffending
+We also observed a modest difference in domestic violence reoffending between the two groups. In the BAU group, 5.7% of individuals committed another domestic violence offence within six months of their court appearance, compared to the intervention group, where 5% reoffended. However, this difference is not substantial enough to be deemed statistically significant (p = 0.397).3
+No significant change in ADVO breach rates
+Similar to the reoffending rate, we observed a slight difference in breach rates within six months. In the BAU group, the breach rate was 11.9% compared to 10.4% in the intervention group. Again, this difference was not statistically significant (p = 0.16).
+Next steps
+When data is available, we will retest whether there has been an impact on reoffending and/or ADVO breaches within a 12-month period.
+We are currently working with the Department of Justice to scope options for potential applications of the intervention, and possibly a further trial to test whether alternative forms of behaviourally informed messaging can further improve court attendance for domestic violence defendants.
+Notes
+The sample size for each of the analyses below differs, depending on data availability. For example, we have court appearance data on 4,285 individuals, but breach and reoffending data on 3,381 individuals. This discrepancy is due to a number of individuals not being observed in the data for 180 days, as well as differences in how data collection operates at courts and in the police systems.
+Note: A limitation of this data is that we are not able to differentiate between cases where a defendant receives an ADVO and also has an associated charge (for example, an assault). This means that the time-to-finalisation value reflects a mix of people who just have an ADVO and those who have an ADVO and an associated charge.
+Note that the sample size for this group is slightly smaller than for the other analyses, as we had to wait for 180 days to elapse before we could look at 180-day outcomes. Not everyone in our sample has been in the trial for 180 days, so we have a slightly reduced sample.
+Published: 2 April 2018</t>
+  </si>
+  <si>
     <t>Encouraging women to apply for senior roles in the Government Sector</t>
   </si>
   <si>
     <t>https://www.nsw.gov.au//departments-and-agencies/behavioural-insights-unit/blog/promotion-of-women-government</t>
   </si>
   <si>
+    <t>We designed and tested two behaviourally informed interventions, an email and a phone call, to increase the proportion of women reapplying for senior roles in the NSW Government. The combined behavioural interventions increased the likelihood women would reapply for a senior role by 27% and significantly reduced the gender gap between men and women reapplying for senior roles from 45% to just 4%.
+Background
+In 2015, the Premier set an ambitious target to increase the proportion of women in senior leadership roles in the NSW Government sector to 50% by 2025. Since this time, the representation of women has steadily increased from 33% to 40%. While this increase is an important step, there is still a considerable way to go. Greater gender diversity in senior leadership can lead to better performance and innovation. This makes gender parity an imperative to delivering a stronger economy and better outcomes for the people of NSW. 
+What we did
+ The team took an innovative, data-driven approach to understanding the barriers and enablers to women in the NSW Government Sector. We analysed trends in over 1.1 million applications over five years, conducted 65 interviews and received survey responses from over 400 applicants. This research was used to generate insights and design innovative interventions to advance gender equality in senior roles in the government.
+Key insights Key insights from this research were:
+Women were less likely to apply for senior roles compared to men in all clusters of government.
+In comparison to men, women were much more likely to doubt their skills, despite on average being more likely to be hired when they applied for roles.
+Men were significantly more likely than women to reapply for a senior role within six months after they had narrowly missed out. 
+Using insights from this research, we developed two behaviourally informed interventions designed to encourage women to reapply for senior roles after they narrowly missed out. The interventions were an email and a phone call with a recruitment manager that focused on how well the applicant had done and encouraged them to apply again.
+Business as usual (BAU) recruitment for most candidates tends to end with a generic email advising that their application was not successful. Both interventions leverage the peak-end rule by trying to improve the conclusion to the recruitment process. The behavioural interventions aimed to disrupt this final impression which could have disproportionately large impact on the candidates’ overall experience.
+We tested these interventions using an RCT design with 1,614 candidates randomly allocated to receive BAU recruitment processes, a behaviourally informed email only or the behaviourally informed email and phone call. 
+What we learnt
+Two weeks after receiving the behavioural intervention (or not), candidates were sent a survey to record their overall satisfaction with the recruitment process, intention to reapply and likelihood to refer a colleague to apply for a role with the NSW Government.
+We then measured whether candidates reapplied for another senior role in the NSW Government within three and six months after receiving the interventions.
+Results
+Of the 29% of candidates involved in the trial who completed the survey, the interventions had a significant impact on candidates’ self-reported intention to reapply for a senior role. Receiving a behaviourally informed email significantly increased the likelihood candidates’ intentions to reapply for senior roles, from 49.2% to 68.1% (p &lt; 0.01). Receiving a behaviourally informed phone call from a recruitment manger as well as the email increased this further to 75.6% (p &lt; 0.001) (see Figure 1). The observed effect of the phone call was even larger for women, with 82.7% of female applicants who received the phone call and the email reporting that they would reapply for another role in the NSW Government.
+Candidates’ satisfaction and optimism with the recruitment process increased in a similar way as did their likelihood to refer a colleague to apply for a role with the NSW Government.
+“That’s a good gesture. Absolutely felt great about receiving the email”
+- candidate in the trial
+“really encouraging… the best recruitment I've been involved in"
+- candidate in the trial
+But did the interventions lead to actual behaviour change?
+Overall, the interventions did not lead to greater reapplication rates than control (all p values &gt; 0.20). However, this was because the interventions had a different impact depending on whether the candidate was male or female. 
+After 6 months 52% of women who received the BI interventions had reapplied compared to only 41% of women who received BAU recruitment processes – a 27% increase (p=0.096). The interventions significantly reduced the gender gap in likelihood to reapply within 6 months.
+Without the intervention, there was a significant gender difference in reapplication rates. Of the male candidates, 59.5% reapplied compared to 41% of women. That is, men were 45% more likely to reapply than women (p &lt; 0.001). The BI interventions reduce this gender gap to 12% in the email condition (a 5.5 percentage point difference), and just 4% in the phone and email condition (a 2.2 percentage point difference).
+Although men were still more likely to reapply, the difference between men and women was no longer statistically significant; a result that strongly contributes to the policy intent of increasing women in senior leadership. 
+When scaled across the entire NSW Government we estimate this could increase the proportion of women in senior roles by up to .5% each year and make a significant contribution to achieving equal gender representation in senior roles. 
+Next steps
+The simple, low cost interventions are now being scaled across the NSW Government, making better candidate care part of the BAU recruitment process. The Public Service Commission has developed a toolkit to help recruitment managers implement the interventions in their organisations.
+Published: 2 April 2018</t>
+  </si>
+  <si>
     <t>How reframing flexible working can drive up female recruitment</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/how-reframing-flexible-working-can-drive-up-female-recruitment/</t>
   </si>
   <si>
+    <t xml:space="preserve">Women are more likely to take a career break for various reasons, with the most common being full-time parenting. However, re-entering the workforce after an extended absence can be challenging.
+It is widely recognised that flexible work is one of the most important factors in helping women return to work, often due to ongoing caregiving responsibilities. Many women will only consider employers who offer such flexibility.
+Although the number of job ads featuring flexible options has increased in recent years, the presentation of this information may be undermining its impact, especially when aiming to attract women returning after a career break.
+BIT conducted research in partnership with the National Careers Institute (NCI) in the Australian Department of Employment and Workplace Relations to understand the careers information and support needs of women in their mid- to late-careers. 
+We ran an innovative online trial that simulated women’s experience of searching for jobs online. Our aim was to test ways of advertising flexible work that were attractive for women looking to return to work.
+The current problem with flexible work descriptions in job-ads
+Our previous trials have shown that promoting flexible work makes job ads more attractive to job seekers, particularly women. 
+In a field trial with over 20 million participants we found that employers attracted up to 30% more candidates when they advertised flexible conditions. We also found that employers who included part-time working options as a default when advertising roles boosted applications from women by 16%.
+However, today job ads often include vague generic offers of flexible work (e.g. “we offer flexible work”). Without specific flexible conditions on offer, women returners are less likely to apply for jobs which they may be well suited for. 
+Vague offers put the onus on the applicant to clarify or negotiate the specific flexible work conditions they require, which can feel onerous and intimidating. Such requests can also be met with resistance from employers. 
+As a result, job ads are failing to promote suitable opportunities to women returners, and employers are drawing from a smaller pool of potential candidates.
+Trialling how employers could better communicate flexible work opportunities
+We aimed to expand the existing evidence by testing how descriptions of flexible work in job ads impact the number of women returners applying. 
+We conducted an online trial with 460 current and recent women returners that simulated their experience of searching for available roles on an online job board, such as Seek. 
+Women returners repeatedly chose from pairs of job ad summaries, which looked similar except for the way that flexible work was framed. 
+We tested six different flexible work framings:
+None: a statement unrelated to flexible work was included to serve as baseline.
+Basic: “We offer flexible work”
+Request: “Flexible work available on request”
+Caregiver: “We support parents and caregivers with flexible work options”
+Specific: “This is a flexible position – you choose your days, hours and location (office, remote, hybrid)”
+Specific + culture: “We offer our staff the freedom to decide their own work/life balance – set your own work days, hours and location (office, remote, hybrid)”
+Example of job ad summaries from the trial. The first dot point in the first job ad is a “Specific” flexible work statement, while the other statements are irrelevant to flexible work, and randomised across ads and participants. The second job ad displays an example of the “None” condition, as none of the dot points relate to the availability of flexible work.
+Result: Women returners preferred job ads with specific, culture-related framings 
+Job ads that included specific information about what flexible work meant and included company endorsement of work/life balance significantly outperformed job ads that included a basic flexible work statement (“we offer flexible work”). 
+Women returners were three times more likely to choose the specific, culture-related framing over the basic one. 
+Notably, we also found that including a ‘request’ statement (“flexible work being available on request”) was just as off-putting to female applicants as having no flexible work statement at all. 
+Employers should rethink how flexible work is advertised when recruiting
+Career breaks can lead to an erosion of job skills, lost confidence and diminished professional networks. Women returners must overcome these barriers while taking on the lion’s share of household and familial caring duties. Unfortunately, these challenges stack up over time – the longer the career break, the greater the challenges and the less likely women are to return to work at all. 
+Our trial shows that small tweaks in how flexible work is framed can help overcome the barriers women face when returning to the workforce. 
+Effective framing can make the difference between attracting a diverse pool of candidates and unintentionally causing a potential candidate to disregard the job advert altogether.
+We recommend that employers write job adverts with specific details about what flexibility means for the advertised role and include signals of a supportive workplace culture. 
+Of course, framing is no silver bullet; it is just one technique from the evidence-based toolkit of behavioural insights. Similarly, flexible work is only one aspect of job adverts that candidates – including women returners – consider.
+If you are looking to increase the effectiveness of your job ads and broaden the diversity of your talent pool, get in touch with us to see how behavioural insights can make your efforts more effective. </t>
+  </si>
+  <si>
     <t>How to show true value in a CV in the gig economy</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/how-to-show-true-value-in-a-cv-in-the-gig-economy/</t>
   </si>
   <si>
+    <t>One in three Australian workers are employed in insecure work, which includes casual work, independent or fixed-term contracting, labour hire and gig economy work.
+People in insecure work often accrue valuable skills and experience, even though their employment history may include frequent job changes, gaps between jobs, or periods of unemployment. 
+Unfortunately, such fragmented work histories suffer from social stigma. Employers tend to undervalue skills and experience gained in insecure employment. Workers can then hesitate to list insecure jobs on their CVs, fearing negative impacts on their employment prospects.
+Although workers are often dissatisfied with the uncertainty and instability of insecure employment, many feel stuck when it comes to transitioning to secure, stable employment. 
+A crucial step for these workers is learning to present their work histories to employers in a way which showcases their valuable skills and experience.
+To try and help overcome bias against the insecurely employed, we partnered with the National Careers Institute in the Australian Department of Employment and Workplace Relations to run an online trial. We tested the best way of presenting a history of short-term roles in a CV.
+What format best highlights skills in a gig economy CV?
+Evidence shows even minor changes to how information is presented can boost job application success. 
+A previous BIT field trial, with over 9,000 applications, found highlighting professional experience by duration (e.g. 5 years) instead of specific dates (e.g. 2012-2017) helped overcome hiring biases against breaks in a career and significantly increased positive callbacks for candidates.
+Building on this evidence, we wanted to test whether enhancing skills visibility on CVs would similarly increase the job prospects for insecure workers. 
+Trialling CV formats
+We conducted an online trial where over 1,000 recruiters participated in a hypothetical hiring scenario for an entry-level, secure role. 
+Each recruiter reviewed a set of four CVs and selected the candidate they preferred. The content and experience of the candidates in the CVs were matched, and the only thing that changed was the CV format. We tested four different formats:
+Control: A basic CV without dates 
+Duration: A traditional CV using duration in a role as opposed to dates in a role
+Skills: Employment history organised by skills but with no dates provided
+Hybrid: Employment history organised by skills and cumulative experience listed
+Example of the Hybrid CV format, where employment history is listed by skill and experience is listed cumulatively
+Recruiters overwhelmingly preferred Hybrid CVs which emphasised skills alongside experience
+In our study, nearly half of the recruiters selected candidates with the Hybrid CV format. 
+This format also helped recruiters more accurately gauge candidate experience levels, outperforming even the Duration CV which explicitly listed years of employment. 
+This suggests the Hybrid CV format may be acting as an equaliser, helping recruiters to fairly appraise candidates with experience accrued in a diversity of roles.
+Employers should further unlock the potential of skills-based recruitment
+Many progressive employers are shifting towards skills-based recruitment, for instance by removing the requirement for degrees or using recruitment platforms such as Applied. This shift allows for a broader talent pool, crucial in today’s intense competition for skilled workers.
+The traditional CV format, which focuses on job titles and cumulative experience, does not align well with this approach. It obscures evidence of the valuable skills recruiters are seeking and disadvantages those with non-linear career paths.
+Our trial shows emphasising skills alongside experience in CVs can improve hiring outcomes for insecure workers, and help recruiters more accurately appraise candidate experience. 
+The findings suggest job seekers with insecure work histories should adopt the Hybrid CV to best showcase their skills and experience.
+We can already see the real-world impact of this trial, with community employment organisations offering free CV templates based on our findings. 
+Get in touch to see how you can harness the power of behavioural insights to improve your recruitment methods and make it easier to find candidates with the right skills for the job.</t>
+  </si>
+  <si>
     <t>“Together for a safer internet”: how and why we should put children and young people at the heart of designing future internet policy</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/together-for-a-safer-internet-how-and-why-we-should-put-children-and-young-people-at-the-heart-of-designing-future-internet-policy/</t>
   </si>
   <si>
+    <t>Today is Safer Internet Day, raising awareness globally of a safer and better internet for all, especially for children and young people. Lis Costa, Managing Director of BIT UK, considers how we might make this year’s theme of “Together for a safer internet” a meaningful reality. 
+I spent the Christmas period hanging out with my lovely teenage nieces in Australia. In between snorkelling and bush walks, they taught me the latest Gen Z lingo (much ‘slaying’ and exclamations of ‘bruh!’) Over the weeks, I also gently enquired about what they are doing on their phones and how they are keeping in touch with their friends over the holidays. 
+It’s clear that in just a generation, the way teenagers spend their time and build relationships has changed dramatically. My (early!) millennial friends and I often remark on our relief that we didn’t have social media when we were at high school. The photos we took on disposable cameras are dusting away in storage boxes, but otherwise our more embarrassing and awkward moments are preserved only in our memories. And when school broke we got a reprieve from navigating the trickier aspects of teenage friendships. In contrast, my nieces and their friends are far more connected to each other outside of school, and a lot of those interactions happen online.
+Responding to these trends global policymakers are stepping up efforts to keep children safe online through regulation like the new UK Online Safety Act. Clear and unequivocal regulation, and strict enforcement, is required for issues like pornography, sexual exploitation and self harm. As we saw in the Senate Judiciary Committee hearing in the US last week, it is unlikely tech companies will act quickly or decisively enough on their own, and some platforms may not act at all. 
+I hope that the focus and pressure on the tech companies following the congressional hearing translates to stronger regulation that addresses these pressing safety risks. Yet there is also a sizeable grey zone of more subtle ways in which social media influences childrens’ lives and relationships. Does it make for meaningful positive relationships? Do they know how to manage if they are getting excluded or bullied? Here, a more inclusive approach to policymaking is needed.
+Spending time with my nieces helped me to understand some of the nuances of how and why they interact with each other online. For instance, much of the attention on Snapchat is on the addictive design of ‘streaks’ which puts pressure on children to be consistently ‘on’. I hadn’t realised the extent to which young people use the Snap Map, which plots your friends on a real time map. It feels more nefarious to me than streaks, and indeed its safety has been widely debated. SnapChat has responded by taking some actions to strengthen the privacy features. Thinking about the grey zone, my mind also went to how bruised I would have felt as a teenager if I’d seen all of my friends in the same place without me. Yet when I asked whether they’d be upset by this, they seemed unperturbed – they have grown up with the Snap Map after all and perhaps it’s part of the new social norms. The map even led to some positive experiences, allowing us to divert a beach walk and meet up with some of my nieces’ friends. 
+I still feel conflicted about the Snap Map. But it was a good reminder of the bias we bring to designing policy solutions, and the need to challenge initial reactions based on our own experiences. At BIT we spend a lot of time understanding the perspective and experience of the person whose behaviour we are seeking to shift. The past few weeks have only strengthened my view that if we want to not only keep young people safe online, but support them to build respectful, constructive relationships, we need to work with them rather than doing to them.
+There are a few concrete ways to do this. 
+1: Put young people at the centre of the design process
+BIT is trailblazing this type of co-design approach in Australia, with Digital Compass – a behaviourally informed program designed to help young people behave ethically online. 
+Digital Compass focuses on the questions that mattered to teenagers. How could they intervene in online conflicts and dramas without putting themselves at risk? How could they better connect with their friends online? Rolled out in schools, the program gives young people the autonomy to reflect on their own values and whether they wanted to change their online behaviour to align with their values. It was co-designed at every stage and focused on what young people could do to have positive, ethical online interactions, rather than what they can’t do or shouldn’t do. 
+The programme has increased self-reported prosocial behaviours, and is being rolled out in schools across Victoria, Australia. Policymakers and funders should be looking at whether it can be scaled further, including to other countries and contexts. 
+2: Encourage tech companies &amp; regulators to give young people a distinct, collective voice
+I’ve written a lot about how tech companies can do more to understand the collective voice of their users, and reflect this in their governance and corporate decision-making. 
+We’ve piloted this approach with adults, running global community forums to enable Meta users to weigh in on how Facebook should tackle climate misinformation; how to curb bullying and harassment in the Metaverse and the guardrails for generative AI across Meta’s platforms. These have been a real success – engaging global social media users from very different backgrounds and giving them the agency to shape the online environments within which they make choices.
+It’s time to extend this governance model to other platforms like Instagram, Snapchat, and Youtube, and design community forums that are specifically for children and teenagers. In our Meta community forums, people have been highly engaged in the details and nuance of the policy choices facing the platform. We can trust teenagers to do the same – asking them to reflect on and shape how social media platforms can help them create safe, respectful and enjoyable online experiences.
+3: Build social media into the solution
+In building safe, positive online environments for young people we need to harness social media to our advantage. BIT is currently leading a UK adaptation and large scale replication of Betsey Paluck’s US-based Roots anti-bullying intervention. Grassroots uses network analysis to find a group of ‘social referent’ students in a school who are likely to be able to influence other students – and it’s not necessarily just popular kids. Those students are then asked to lead anti-bullying activities, including through social media, to prompt a shift in what the students deem to be acceptable behaviour. 
+It is about meeting young people where they are at – and they are online a lot of the time. More can be done to experiment with how young people can positively influence the behaviour of their peers, with social media forming a key part of the intervention itself. 
+Overall, spending time with my nieces makes me more hopeful for the future – they are amazing, thoughtful humans. As an aunt I worry and want to protect their safety and wellbeing online. As a policy maker I know that if we are to build effective, sustainable solutions, we need to give them and their peers a strong voice in designing and shaping the places they hang out. 
+If you work in tech or policy and want to explore running community forums to design safer online environments for children, please get in touch with us. 
+If you enjoyed reading this, keep an eye out for our upcoming series on Digital decision making which will be launching in March 2024.</t>
+  </si>
+  <si>
     <t>Eye robot: Using simulated eye-tracking as a behavioural research technique</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/eye-robot-using-simulated-eye-tracking-as-a-behavioural-research-technique/</t>
   </si>
   <si>
+    <t>Why are eye movements important for behaviour?
+It has been said that eyes are the windows to the soul. But for BIT, eyes are better thought of as the doorways to behaviour. This is because looking at things is one of the most obvious ways to understand attention, and attention itself is one of the most important aspects of understanding behaviour.
+Eye movements can reveal a person’s emotions, intentions, and cognitive processes. For example, psychology research has shown that specific eye movements can be linked to accessing memories, even when people themselves say they can’t remember something! Eye movements are also related to decision making, as they can reveal what someone considers attractive (i.e. the ‘A’ in EAST). When someone’s gaze is manipulated – eye movements can even actively increase the value people place on choices. This makes eye-tracking data very useful for understanding why people behave the way they do.
+However, to collect eye-tracking data requires expensive equipment, considerable expertise, and a fair amount of patience (see the photo of a traditional eye-tracking device below). These barriers mean that eye-tracking data is not used frequently in behavioural science. But what if there was a shortcut to achieve some of the insights of eye-tracking, without the costs?
+An alternative to physical eye-tracking
+Simulated eye-tracking refers to the process of using software to predict where a person’s eyes are likely to be looking as they interact with images, without actually using an eye-tracking device. This can provide valuable insights into how people engage with things they can see, without the time, expense, and expertise needed to set up, collect, and analyse real eye-tracking data. 
+Visual neuroscience has been developing these kinds of algorithms – trained and validated using real-world data – to predict where people will look at an image since the 1990s. However, recent advances in machine learning have made these algorithms much more accurate. Researchers even enter their algorithms in competitions, where they often come close to the accuracy seen with real human observers. These algorithms take an image as input (e.g. a website, screenshot, or digital photograph), and output a predicted salience map which, when overlaid on the original image, shows which areas on the image are likely to attract the most attention. Here’s an example of a salience heatmap, where the “hot spots” correspond to where people are most likely to look:
+This example comes from a trial we ran back in 2014, where we wanted to draw attention to a call to action (the “PAY NOW” stamp), that was added to penalty notices and penalty reminder notices. Compared to the control notice, the trial notice resulted in a 3.1 percentage point increase in fine payments, which has likely saved millions of dollars in enforcement fees and printing costs. The salience map generated for the notice shows why this worked so well; attention in the control notice is spread across a number of different elements, while in the trial notice, attention is almost fully focused on the call to action. 
+Apart from helping to explain why certain interventions can work, simulated eye-tracking can help inform design decisions in a wide range of situations by:
+Making sure critical information is prioritised;
+Identifying distracting content;
+Comparing competing visual elements;
+Improving accessibility in online environments;
+Figuring out where best to deploy visual materials in the real-world;
+Communicating how attention works.
+It is best used alongside other research methods (e.g. user testing, A/B tests) to provide a more complete and accurate understanding of how people interact with visual material. 
+Simulated eye-tracking in practice
+The BIT Australia team has used simulated eye-tracking to help with a number of projects. In one case, we used simulated eye-tracking to assess a previous version of the website of Victoria’s Environment Protection Authority (EPA). We were able to validate a number of design choices (e.g. the use of larger font, and human faces in images), as well as identifying areas that could be improved (prioritising information according to reading direction).
+In another project working with Transport for New South Wales, we used simulated eye tracking to inform small design edits of behaviourally-informed visual resources. In this case, we generated salience maps for different versions of posters and lanyards (which were aimed at improving employee engagement with resources around injury management and workers compensation). This helped understand whether attention was drawn to the core messages. When we tested these images with actual users, many of the things they said agreed with the simulated eye-tracking results.
+The limits of simulated eye-tracking
+It’s important to mention that while these predictions are convenient, simulated eye-tracking will always be less accurate than real data. There may be differences in eye movement patterns, visual impairments, external factors (such as lighting or environmental conditions) that mean that the predictions are not accurate. Simulated eye-tracking also can’t yet capture the dynamics of eye movements, like the order that people look at things or how long they spend looking. 
+But having an approximate insight into how attention works, and being able to communicate this using easy-to-understand salience maps, means that simulated eye-tracking is an innovative and powerful addition to any behavioural research toolkit. Combined with other behavioural insights methodologies, simulated eye-tracking offers a modern approach to research, understand, and influence human behaviour.
+Want to find out more? Get in touch with [email protected].</t>
+  </si>
+  <si>
     <t>System 2: A human-centred and data-driven approach to tackling disadvantage</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/system-2-a-human-centred-and-data-driven-approach-to-tackling-disadvantage/</t>
   </si>
   <si>
+    <t>Australia is sometimes referred to as the ‘lucky country’, but this masks the deep and persistent disadvantage faced by many families and communities across the country. More than 1.1 million young Australians are living in poverty. This number is increasing as the cost of living crisis bites even harder, and the impacts of COVID-19 on young people’s learning, mental health and employment are still emerging. 
+Despite significant investments across a range of domains and support services, most attempts to disrupt cycles of disadvantage have fallen flat. However, there are reasons to be hopeful. We now better understand what drives disadvantage and have access to richer data than ever before. As a result, we’re more able to identify bright spots and spread what works. There is also growing momentum behind major policy reforms in early childhood intervention, mental health and wellbeing, place-based initiative, education and employment.
+We’re excited to have set up a new applied research Not for Profit, System 2, with a launch mission focused on helping young Australians in disadvantage to thrive. System 2’s aim is to design, test and scale solutions to society’s biggest challenges, by drawing on behavioural science, co-design, data and experimentation. 
+This vision and toolkit is aligned with our sister organisations – The Behavioural Insights Team and Nesta. This connection enables System 2 to access a deep pool of international expertise and the latest evidence on what does and does not work (for example, through Nesta’s A Fairer Start mission and BIT’s work in education and skills, employment, justice, health and wellbeing). System 2 will combine this global reach and track record, with a strong focus on local partnerships and elevating the voices of young people and families. In terms of mindsets and methods, System 2 will think like a system, act like an entrepreneur, and combine deep listening with robust testing. 
+The name pays homage to the seminal work of Nobel Prize Winner Prof Daniel Kahneman. His book ‘Thinking Fast and Slow’ popularised the idea of ‘System 2’ as the deliberate, reflective part of the brain. System 2 will focus on tackling complex social problems through deep, reflective work that seeks to change behaviours at an individual, environmental and systemic level. 
+Our launch team: John, Prathesa and Robyn
+We are delighted to introduce our brilliant founding team, who together provide an exciting combination of skills and expertise, international and local experience:
+John Craven, Executive Officer: Before joining System 2, John was Director of the Social Mobility Commission, an independent statutory body sponsored by the U.K. Cabinet Office, where he led a team that carried out research that tracked and promoted social mobility. From 2016-2022, John was CEO of upReach, a social mobility charity that supports students from disadvantaged backgrounds to secure professional jobs. During that time, the charity grew tenfold, winning the Queen’s Award for Enterprise for Promoting Opportunity in 2022 and two national Charity of the Year awards in 2019 and 2022. Previously, John worked in investment banking for 11 years before retraining as a teacher.
+Prathesa Selvaraj, Program Officer: Prathesa has experience of driving and measuring impact in the youth sector in Australia. Until recently, she worked as the Digital Insights and Monitoring and Evaluation Lead at Blacktown Youth Services in Western Sydney, which supports young people with complex needs. Prathesa has a Masters in Public Health, and her passion lies in advocacy, social justice and powerful storytelling. In particular, she is focused on helping us to elevate the voice of young people and families in service design and delivery.
+Robyn Mildon, Research Committee Chair : Robyn is a world-leading ‘pracademic’ in the field of implementation science, evidence synthesis and knowledge translation, with a particular focus on human services, education and health systems. She is the Founder and Chief Executive Officer of the Centre for Evidence and Implementation, an Adjunct Associate Professor at Monash University, a Visiting Professor at the National University of Singapore, and a Board Member of the Benevolent Society. Robyn will Chair an Advisory Committee of researchers from across Australia to ensure that System 2 is drawing on the latest evidence and methods, whilst sharing our work and findings as we go. 
+Reimagining the employment system
+System 2’s inaugural program of work is focused on reimagining the employment system for young people who are not in education, employment and training, and families where no-one in the household has a job. Funded by the Paul Ramsay Foundation, it seeks to generate both bold new ideas and pragmatic, evidence-based solutions to support young people and families, in order to create a more equitable employment services system. We know that the current system is failing those with more complex needs, and the Paul Ramsay Foundation is funding System 2 alongside a wider portfolio of investments to help create a system where everyone is given the opportunity and support that they need to access secure and meaningful employment. We have been fortunate to be partnering with YLab to elevate the voice of people with lived experience throughout the process. For example, we have worked closely with three brilliant young people, who have direct experience of the unemployment system, and who have provided invaluable input on everything from interview questions to co-producing user journey maps. To map the system, we conducted a rapid evidence review, followed by fieldwork at employment services, social enterprises and training organisations in New South Wales, Victoria and Queensland. We interviewed policy, service delivery and academic experts, as well as young people and parents with lived experience to understand the range of perspectives of those involved in the system. 
+We’re now in the exciting (and messy) stage of co-designing solutions with stakeholders and people with lived experience. Last month, we ran a series of workshops with young people and parents, service providers, community organisations, social enterprises, employers and advocacy groups to identify potential solutions, which we are now refining and iterating with partners. 
+We’re looking forward to publishing the outcomes of this work early in the new year, and in the meantime, we are feeding into the thinking and reform processes that are currently in train (such as the Employment White Paper and Select Committee on Workforce Australia Employment Services). We’re encouraged by the direction of this work, which suggests a once-in-a-generation opportunity to take a more relational, evidence and place-based approach to employment services. 
+The System 2 website will be launched in December 2023, which will set out more information on our strategy and approach. If you would like to find out more about System 2 in the meantime, please reach out to John via: [email protected]</t>
+  </si>
+  <si>
     <t>Improving ethical behaviours online  - working with young people to crack the code</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/improving-ethical-behaviours-online-working-with-young-people-to-crack-the-code/</t>
   </si>
   <si>
+    <t>Today is Safer Internet Day, the annual global initiative to bring communities together to improve online safety. Perhaps BIT’s biggest contribution in this space is the design and delivery of Digital Compass – a behaviourally informed programme designed with young people to help them behave ethically online.
+Digital Compass is a school-based intervention which takes young people through a series of practical activities designed around common online experiences. External facilitators guide students through group discussions and core exercises, such as the ‘I wish people would…’ exercise, generated through evidence and collaboration with young people.Since the development of Digital Compass in 2017, the online world has changed almost beyond recognition for young people. Facebook is now Meta, and they are leaning in at full speed into the MetaVerse. TikTok is now visited more often than Google. And who knows what new app or website will become an all-consuming social phenomenon in the coming years? Things on the internet are changing so fast that pages now exist to update users on the trends to follow that week! 
+In the last month, attention has turned to the natural language AI platform ChatGPT for its uncanny ability to generate student essays that are capable of passing even University level assessments. Some reports indicate that usage is as high as 89% amongst students when completing their homework. Certain schools are outright banning the platform, others are encouraging its use and the AI platform itself is developing a tool to help teachers detect students who misuse it.
+If these technologies themselves can’t keep up with their own advancements and applications, how can we expect young people to? We can’t. Instead, we should shift the discussion towards core ethical values, thereby empowering young people to navigate new ethical dilemmas as and when they emerge. 
+This is the crux of the approach we have taken with Digital Compass. Given the pace and extent of technological changes, it is no small thing to keep tools and support for young people online continually relevant and up to date for young people. Digital Compass has been designed to be continually adaptable to this challenge and we hope can provide some useful insights for others managing this issue.
+Essentially we think there are three key reasons that enable Digital Compass to adapt and remain relevant:
+We co-design and iterate the program to keep the materials fresh
+We focus on underlying core values and behaviours
+We focus on what young people can do online, rather than what they can’t do 
+Digital Compass is the product of co-design
+Young people consistently told us that their online experiences don’t reflect the warnings and risks they are told about from parents, the news and school programmes. This lack of relevance, evidence and constant negativity about the online environment drives young people to disengage with their previous online safety programs. 
+Digital Compass offers a new perspective, engaging young people and educators in the process from the very beginning, through collaborative co-design. At every stage of rollout, we speak with young people to understand what behaviours are relevant to them and why. Facilitators consult participants before and after each session to gain valuable information that maintains the relevance of the program – particularly, what’s sticking with young people? Which elements of the program generated really meaningful discussion? Quite simply, we make sure those parts stay. We’ve also learnt what works for schools and teachers, and have redesigned the program so that schools can deliver the core materials in ways that suit them, rather than a single 8 week program. 
+Digital Compass focuses on underlying core values and behaviours
+Personal values are powerful tools that people use to decide how they should and should not behave across different contexts and environments – both offline and online. Yet our research suggests young people rarely reflect on their personal values, and also lack confidence in determining the right thing to do when faced with an ethically relevant situation.
+“[Digital Compass] made me think about how to handle situations if they come up” – DC participant, 2022
+Within Digital Compass, young people are given the autonomy to decide what their values are, how that differs or aligns with their peers and whether they themselves want to make changes to their online behaviour to align with their values. Once young people have developed a clearer idea of their values, they are given an opportunity to practise applying these to concrete examples of “online dramas” they might encounter in the real world. 
+This focus ensures young people feel empowered, equipped and motivated to respond to situations, triggered by their values rather than a specific online scenario. This also guarantees that we can teach about values and guiding principles, and teachers don’t have to pretend to understand the specifics of how the TikTok algorithm works!
+ “You guys taught us how we should treat other people and how the way we treat other people might have a consequence on them.”- DC participant, 2020
+Digital Compass focuses on what young people can, rather than can’t do
+We have spoken directly with Digital Compass participants and the key thing that stands out is that young people are put at the centre of the discussion, without any power imbalance. Why is this important? We believe that is why young people have genuinely engaged with us and openly discussed changes in their behaviour – they told us about limiting time on certain apps, monitoring their use of digital tech and reflecting on how they approach online conflict with greater awareness and empathy.
+ ‘‘It was a lot different to what we normally do. It wasn’t “you can’t do this’ ‘, it’s more like what we can do”- DC participant, 2022
+Importantly, the positive approach within Digital Compass also seems to resonate with schools – teachers and principals alike have told us how Digital Compass “hits the mark” in addressing the needs of young people. Teachers expressed the relevance for year 9 students and valued the fact that we are really “empowering them, rather than telling them what to do.”
+So, what next for Digital Compass? 
+We believe the online world will never stand still – there will always be developments and with each development, additional pressures are put on our young people. Today in Australia, 99% of 15-17 year olds are online in some capacity – it is imperative that we work with them to ensure offline ethics are extended into the online world. Partnering with The Alannah and Madeline Foundation, we are continuing to roll Digital Compass out across schools in Victoria, Australia. We genuinely believe that we don’t need to know the latest craze, trend or platform to be impactful in this space (and we promise we didn’t use ChatGPT to write this blog!). 
+The Digital Compass programme was created in partnership with the Alannah &amp; Madeline Foundation, and funded by the Vincent Family Fairfax Foundation.</t>
+  </si>
+  <si>
     <t>Australia: A government learning how to learn faster</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/australia-a-government-learning-how-to-learn-faster/</t>
   </si>
   <si>
+    <t>BIT’s CEO David Halpern recently visited Australia to meet with various leaders and officials there. Here are his reflections on the behavioural challenges and responses taking place there.
+After a week of events and meetings in Australia, one thing is for sure. The new Federal Government is in a measured, but determined hurry. 
+Don’t wait around…
+Prime Ministers and Premiers do not know how long they have. Both Blair and Cameron, Britain’s longest serving living Prime Ministers, have both spoken of how power declines while knowledge increases across a premiership. A key challenge for a new Prime Minister is to accelerate the latter: acquiring knowledge – and building a government machine to deliver – before the power and the moment ebbs away.
+There is an abiding piece of advice for new Ministers and Prime Ministers – figure out your priorities, and early
+Muthurkrishna’s work on what makes us smart shows the power of learning from those previously tried to crack a problem, even if they didn’t succeed. One newly appointed Minister, in the turmoil of the UK this year, had the wisdom to bring together every previous Secretary of State – from left to right – to have held the position to ask them what they learnt. None refused the invitation. It is a lesson others would do well to follow.
+Australian Prime Minister Anthony Albanese has brought in some bold thinkers and experienced reformers to help. These include the much respected Glyn Davis to head the machine, and Gordon de Brouwer to help drive a rejuvenated program of public service reform. 
+Clues to Davis’s thinking can be found in a recently published book, On Life’s Lottery. It conveys a deep passion for harnessing innovation and community mobilisation to find more effective ways of helping the most disadvantaged. His book starts with the image from Ursula Le Guin’s short story of a society whose prosperity painfully rests on the misery and isolation of a single child. This is not to be the model of Albanese’s Australia.
+Intent into action…
+As with so many early governments, there remains a gap between the ambition and the detail of how to get there. The new Australian Government has the framework of the Thodey review on which to build. But it is a framework that still needs filling, and success rests on bringing an army of public servants with you. Even if they are willing, the chasm between the intent of Prime Minister and Cabinet and the communities you wish to help – especially in Australia’s massive geography and cultural divides – is enormous.
+But, Government does not need to go it alone. I was very struck by the energy and imagination of many of Australia’s leading Foundations to support innovation and change – to make this moment matter, for example in discussions with The Paul Ramsay Foundation, Vincent Fairfax Family Foundation, Trawalla Foundation and Minderoo.
+The truth is, many Foundations and Third Sector organisations, with the best intent in the world, become caught in an endless struggle to plug gaps in service provision. They become further drawn in through being commissioned by the state itself. These forms of provision often become fossilised and stripped down. Despite the huge sums spent, both commissioners and deliverers are left with a lingering doubt that much of what is being done isn’t really helping. They are picking up the pieces, rather than finding deeper solutions. But some of the major service delivery providers are actively looking to work together to change this. 
+Forward thinking foundations, like forward thinking Governments, can have a particularly powerful impact because they can create room to do something different. They can break out of mental and institutional priors. The Susan McKinnon Foundation, set up by tech entrepreneur Grant Rule and Sophie Oh, may especially be one to watch. 
+McKinnon is planning to focus its efforts on what we would once have called ‘public administration’. Fix the machine, that’s there to fix other machines. It may not be fashionable, but it is clever. Here’s some quick reflections, echoing the three-fold focus of McKinnon, and the path that the APS will have to tread.
+Every government needs Ministers and advisors who understand the value of smart use of data and evaluation
+Effective elected representatives
+There is an abiding piece of advice for new Ministers and Prime Ministers. Figure out your priorities, and early. There are things your Department will do just fine: let them get on with those. There are things that you’d like to do, but where the battles are just too big: leave these for tomorrow. But there are things that you are elected to do, that your Department won’t do by itself, yet you could make happen: these are your target.
+Yet how would you know what these are? Here steps in the plague of ‘prediction errors’ and over-confidence (ie we predict that we are better at predicting the future than we are and the more senior we become, the worse these prediction errors become), and the deepest secret of government – that most of the time, we don’t really know what works.
+The good news is, at least some of these gaps can be plugged by learnable skills. BIT (and Philip Tetlock) has shown that specific exercises can enable us to be better ‘calibrated’, and prediction errors reduced. Similarly, along with learning from war stories and the experience of others, leaders can learn the methodological techniques that can answer the ‘what works’ question. 
+It’s not that we need our leaders to be running regressions in time they don’t have. It’s that knowledge of these techniques can sharpen their ‘bullshit detectors’. Crucially, they can then also push the public servants around them to up their game. 
+I sharply remember when Nick Clegg, then Deputy Prime Minister, intervened in an argument between two major Departments over a proposed innovative idea. ‘The thing is’ he said, ‘neither of you know if this will work. So why don’t we run it as a – what do you call it – a Randomised Control Trial.’ He was right. But no one expected him to say it.
+The new Australian Government is lucky. It has Andrew Leigh, an exceptionally sophisticated methodologist (and Randomista) as a Minister in Treasury. It should use him. Every government needs an Andrew Leigh. Or at least Ministers and advisors who understand the value of smart use of data and evaluation… 
+Robust state institutions
+Government Departments are, in general, massive legacy machines overseeing even more massive legacy public services. They do almost no R&amp;D to find better ways of doing what they do. So we shouldn’t be surprised that they will do tomorrow what they did today.
+There are of course innovators. (The hugely talented Victor Dominello being one in NSW.) But no Minister should rip up everything at once. People depend on the services governments deliver, imperfect though they are. Rather, governments and public service systems need more ‘innovability’, as system modellers call it.
+This is the characteristic of systems to try out alternative paths, but without catastrophic failures. The genetic code has such characteristics (as I’ve learnt, rather appropriately, from my research scientist son and the work of Nick Lane and others) – but most of public service does not. This is why this type of radical incrementalism was intentionally baked into the DNA of The Behavioural Insights Team. 
+Ironically, robustness comes from the ability to break and remake. We need government Departments with serious innovation teams and budgets. Departments that map what they don’t know, and plug those gaps. Departments – or partners – that ‘mine the variance’ to identify teachers, social workers, police officers, and community workers who achieve more, and figure out how they do it. And we need Departments that restlessly evaluate, scale and evaluate again – just as the UK’s Evaluation Task Force is learning. (For more details on the 10 things that government evaluation task forces need to do see a forthcoming blog based on my reflections as the UK’s National What Works Advisor). 
+Well-designed institutions don’t divide the pie – they make it bigger
+Quality policy dialogue
+Finally, governments need better ways of engaging, learning, and partnering with their citizens. This includes getting well beyond stale, conventional polling – which fails to draw out trade-offs – or small sample focus groups – which lack the statistical representativeness to bear the weight of decisions placed on them. There are so many more tools, but most are barely used by governments. These include, digitally enhanced ‘delphi’ and crowd voting methods that enable group interaction. And the whole family of deliberative mechanisms that BIT and others are continuing to evolve.
+My last day in Australia this trip was spent in Melbourne. It was there, a few years ago, that BIT worked with VicHealth on a deliberative forum to ask Victorians what they thought should be done about Australia’s growing obesity problem. They got to hear a range of evidence from experts and industry. They got to call forward more evidence where they wanted it. And for two days they wrestled and developed their own list of what they thought should be done – including the recommendation for a 20 percent sugar tax (yes that’s right – citizens asking for a tax rise).
+It was too radical for the Australian government of that time. But a government should be working with citizens and communities, not ‘doing to’ them. It should dust off such mechanisms and be prepared to trust its citizens – in discussion with each other – to find solutions that they own. 
+Power isn’t just a pie to be divided – where if leaders get more, others get less. Power is fragmented. But well-designed institutions can assemble that power, identifying common purpose and shared interest, that enables disperate actors to move together to get something done. Well-designed institutions don’t just divide the pie, they make it bigger.
+Conclusion
+I’m human too. Perhaps it’s just optimism bias. Australia has dabbled with the ‘What Works’ agenda, established internal Behavioural Insights Units and invested in other elements of public service reform and innovation. Now it’s getting serious. 
+Australia today seems like a country at the precipice of bold reform. I hope it succeeds. I hope it provides a case study we can all learn from.</t>
+  </si>
+  <si>
     <t>Parents' critical role in helping teens continue to say “no” to alcohol</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/parents-critical-role-in-helping-teens-continue-to-say-no-to-alcohol/</t>
   </si>
   <si>
+    <t>Navigating the teen years is a challenge for many parents. As children approach adulthood, one of the many questions parents might consider is: how can I positively shape the way my kids think about and behave toward alcohol? Fortunately, there is a wealth of research that can help parents make informed decisions on this matter.
+Underage drinking is actually less common than parents might think. Over the past 20 years, alcohol use among young people has declined in many countries including Australia, New Zealand, the United States, Canada, the United Kingdom, and parts of Europe. Among 14-17 year-olds in Australia, roughly 2 in 3 have never had a standard drink of alcohol.
+While abstinence is the norm, more work needs to be done – to help young people to keep saying ‘no’ to alcohol, and encourage the minority of under-18s who do drink to change their behaviour.
+The parental supply of alcohol to underage children is harmful
+Fortunately, most Australian parents already don’t give alcohol to their underage teens. However, for the minority of teens who drink while underage, a large proportion get their alcohol from their parents.
+Parents who give their underage teens alcohol may be well-intentioned, but research shows it’s more likely to do harm than good—even when accounting for factors such as parental alcohol consumption, familial alcohol problems, and peer substance use. By giving them alcohol, parents place underage teens who are not already receiving alcohol from other sources at greater risk of engaging in binge drinking, experiencing alcohol related harms, and receiving alcohol from friends or siblings in the following year.
+Discouraging parents from giving alcohol to their underage teens could therefore act as a lever that continues to drive down underage drinking rates.
+Discouraging parental supply using social norms messaging
+To pull this lever, we worked with DrinkWise to design evidence-based messages that will feed into an upcoming campaign. DrinkWise has a history of developing successful campaigns that encourage Australian parents to actively and positively shape how their children think about and behave toward alcohol.
+Because underage drinking and the parental supply of alcohol to underage children are uncommon behaviours, they are good candidates for a social norms messaging approach. Social norms messages are statements about what most people in a relevant group (eg teenagers, parents) do or approve of in relation to a behaviour (eg underage drinking, parental supply). When the actions or opinions of most people in the group are desirable, communicating these social norms can help to correct misperceptions about what is ‘normal’, and influence others similar to them to also do the behaviour.
+In partnership with DrinkWise, we designed, user tested, and refined two social norms messages aimed at parents. Drawing on published Australian statistics, one message highlighted the low prevalence of underage drinking (Teen Norms message), and the other highlighted the low prevalence of parental supply (Parent Norms message). Each message also contained a call to action (‘Help your teens make the smart choice by not giving them alcohol’ or ‘Support your kids by not giving them alcohol’) that advised parents what they should do, in a concrete and non-judgemental way.
+We tested these messages in an online randomised trial with 1,091 Australian parents of 8-17 year-olds, where roughly half the parents in the trial were shown the Teen Norms message, and the other half were shown the Parent Norms message.
+Parents in both groups reported that they would be unlikely to give alcohol to their underage children after viewing their assigned message. The Parent Norms message was especially effective. Parents who saw this message were more likely to say that they would not supply alcohol to their underage children, compared to parents who saw the Teen Norms message. This difference was statistically significant. (We controlled for: gender, age, number of sons, number of daughters, regionality [metropolitan/regional], household income, and parental supply status [never/sips/whole drinks)
+Regardless of which message they saw, parents told us that they agreed with the message and felt capable of implementing the call to action.
+Overall, the trial demonstrated that both messages were well received by parents, though the Parent Norms message was especially effective. The results of this trial fed into DrinkWise’s campaign to discourage Australian parents from giving alcohol to their underage teens, which launched in November 2022. Read more about the campaign here.</t>
+  </si>
+  <si>
     <t>Home is where their work is</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/home-is-where-their-work-is/</t>
   </si>
   <si>
+    <t>October is National Safe Work Month in Australia – a time to re-commit to building a safe and healthy workplace. This National Safe Work Month, we take the opportunity to raise awareness about the unique workplace safety issues faced by in-home disability and aged care workers. 
+‘Home’ is typically seen as a place of comfort, safety and independence. It is the starting point for many of our routines, the storing place for our memories and the place where we can most be ourselves.
+While many of us take this comfort of home for granted, for hundreds of thousands of Australians, the day-to-day tasks associated with living at home such as cooking, cleaning and gardening, can be difficult – if not impossible – without assistance from in-home care workers.
+However, the homes of others can be tricky, and sometimes even hazardous, workplaces. Despite this, very little research has been done on the safety risks faced by in-home care workers in Australia, or on how these risks are managed. In light of rapidly growing demand for in-home care services within Australia, we have partnered with the NSW Government’s Centre for Work Health and Safety (Centre for WHS) to develop an evidence-based framework that can be implemented to create a safer workplace environment for in-home care workers.
+Who are in-home care workers?
+As of last year, over a quarter of a million Australians were employed as in-home aged or disability care workers, with demand for in-home care more than tripling in the decade between 2011-21. The in-home care sector is one of the largest and fastest growing workforces in Australia (Palesy et al., 2018). It is likely that the sector will continue to grow in the coming years to meet the demands of an ageing Australian population. In fact, earlier this year, the Federal Government of Australia committed over $91 million as part of a Home Care Workforce Support Program to increase the number of in-home care workforce by 13,000 by mid 2023. 
+So, what does this growing workforce look like? According to the National Skills Commission (2021), 80% of in-home care workers are female, with an average age of 47. For reference, around 48% of the Australian workforce across all jobs is female, with an average age of 40. This means that in-home care workers are typically older and much more likely to be female than the average Australian worker.
+In addition, the National Skills Commission also suggests that the majority (57%) of in-home care workers do not hold formal qualifications, meaning they have not completed a nationally recognised training course on providing in-home care services. 
+What are the safety risks that in-home carer workers might face?
+In-home care workers face many work health and safety (WHS) risks on the job, which may cause psychological and/or physical harm. Some of these risks include injuries from doing manual labour tasks such as lifting clients or moving heavy objects. Other risks may include harms arising from abusive or aggressive clients, or witnessing traumatic or erratic behaviour from clients with more complex conditions such as dementia or mental health conditions. 
+In-home care workers also tend to work alone. This not only means that it is more difficult for workers to get help in the event of a workplace incident, but also that they do not have access to a peer network of other in-home care workers who can share WHS-related tips and advice. 
+On top of all of this looms the challenge that the workplaces of in-home carers are private homes, which are difficult to control from a WHS perspective (you can’t go into someone’s house and start rearranging the furniture) and are difficult to monitor for WHS risks on an ongoing basis. 
+How behavioural insights can improve work safety in complex work environments
+From the gig economy to the work-from-home revolution, new industries and ways of working have changed conceptions of what people consider to be their ‘work environment’. However, the more varied people’s workplaces become, the more difficult it becomes to rely on traditional WHS practices to keep workers safe. 
+The Behavioural Insights (BI) approach can be a powerful, worker-oriented tool for developing effective WHS policies for these new types of work environments. Put simply, the BI approach uses evidence-based principles from behavioural science to design systems and processes that work with the grain of human behaviour, rather than against it. BI practitioners achieve this in practice by approaching each new behavioural problem by: 
+Applying research methods to understand the specific context and relevant behavioural barriers
+Developing evidence-based solutions that address behavioural barriers, and
+Testing the solution rigorously, and scaling where it works.
+Because the BI approach starts by developing an understanding of how workers behave in context, and uncovering the real-world behavioural barriers that workers face in reducing WHS risks, it can be a responsive and agile approach to developing effective policies in complex or non-traditional workplace contexts. 
+For example, we have previously applied a BI approach to develop a road-safety messaging framework specifically targeted at food-delivery workers on gig-economy platforms, whom we found were particularly likely to take road-safety risks when they felt time-pressured to make deliveries. The BI approach was also applied to develop an app that could give truck-drivers real-time feedback on their safe-driving practices, even when driving alone. 
+Importantly, the BI approach can also uncover WHS interventions that may be unsuitable in certain contexts. For example, we found that social norms messages encouraging help-seeking actually made migrant workers in Singapore less likely to seek help.
+Applying a BI approach in our upcoming work with in-home care workers
+In our work with in-home care workers, we will apply the BI approach to first gain an understanding of the key WHS risks faced by in-home care workers, then develop a framework to minimise harm of in-home aged care and disability workers.
+The framework will list key stakeholder categories, outline their roles and responsibilities and set out practical guidance on how and when stakeholders should identify hazards, assess risks, control risks, and review their risk management processes. Importantly, we will apply BI to ensure that the framework is something that stakeholders are likely to understand and use effectively. 
+In-home care workers play a vital role in assisting some of the most vulnerable people in our society do something that most of us take for granted – living at home. However, in providing this care to the vulnerable, in-home care workers face a unique and growing set of workplace safety risks. Our work with the Centre for WHS hopes to uncover new insights and practical solutions for how we can help these workers stay safe in homes across Australia. 
+If you want to know more about this project reach out to Dr. Elizabeth Convery, Acting Head of Research and Evaluation – APAC.</t>
+  </si>
+  <si>
     <t>Investors are stuck between climate commitments and action</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/investors-are-stuck-between-climate-commitments-and-action/</t>
   </si>
   <si>
+    <t xml:space="preserve">We are now truly witnessing the devastating effects of the climate crisis. Heat waves, droughts, floods and violent storms are occurring more frequently and intensely, with the US experiencing one of the worst hurricanes in recorded history last week.
+This year has also seen increased urgency of climate action, from the Glasgow COP to the US passing the Inflation Reduction Act – a bill that will invest $369 billion in climate solutions and environmental justice. There has also been a rush of demand for sustainable products from consumers and investors, with a 71% rise in searches for sustainable goods in highincome countries over the past five years. 
+In response, many mainstay financial institutions such as BlackRock and Vanguard have announced major climate commitments and net-zero investment targets. Such financial firms can play a critical role in redirecting financial flows towards greener investments, boosting low-carbon industries and funding research in emerging technologies. But are these commitments backed by real shifts in investment outlook, or are they empty claims to capitalise on greener consumer preferences?
+Has institutional investment behaviour really changed? 
+12 months ago we found a sample of 60 institutional investors from mainstream Australian investment organisations were not prioritising climate risk compared to more traditional financial metrics such as CEO performance and capital management. We recently repeated this survey to see if corporate strategy had changed over the last 12 months in this influential cohort of Australian investors.
+To carry out this survey, we partnered with interactive market insights company MarketMeter and sustainable finance library Altiorem. Our sample this year included 115 institutional investors and equity analysts from major Australian financial institutions. 
+Institutional investors continue to downplay climate risk
+We asked investors to score and prioritise a list of 27 corporate performance metrics including ESG, financials, management, strategy and shareholder engagement criteria. We found some noteworthy shifts, for instance culture and conduct had increased from 19th to 7th most-important priority.
+This change might reflect the increased reputational risk businesses face following the recent #MeToo and Black Lives Matter movements. In Australia there has also been broader discussion on sexism and workplace culture, sparked by an inquiry into sexual harassment and bullying in Australia’s parliament. However despite the increased urgency of the climate crisis and major climate announcements by financial firms, climate risk remained close to the bottom in terms of investment priority.
+Source: MarketMeter
+Our research shows that institutional investors are stuck in the void between climate ambitions and climate actions
+What’s behind the commitment – action gap?
+We wanted to unpack the gap between corporate climate commitments and real action when it comes to investment decisions. We asked a series of open-ended questions about how institutional investors factor climate risk into their investment decisions. Three themes emerged. 
+Qualitative themes and insights from institutional investors
+There is a lag between investor attitudes and actions
+The results of our survey suggest a disconnect in how investors acknowledge value in incorporating climate risk but don’t prioritise it. They believe markets are responding fast enough, despite energy stocks increasing in value as temperatures soar and wildfires burn.
+In addition, the focus on the Russia/Ukraine war highlights how immediate concerns can overshadow perceived long-term concerns around climate change. From the quantitative data, we also see that global social movements can affect the perceived value of companies, yet climate change movements have yet to manifest in greater prioritisation of climate risk in the same way.
+Regulation is catching up with the greenwashers
+Investors also told us that substantive action cannot be substituted with greenwashing. Yet our study finds evidence that the increased climate announcements by major firms might reflect a change in rhetoric rather than real action. Our previous work showed greenwashing can effectively mislead consumers into believing firms are green, especially consumers who are concerned about the environment. A number of large financial firms including BNY Mellon and Goldman Sachs have recently made headlines for engaging in financial greenwashing.
+The financial industry should take note, as anti-greenwashing regulation is gaining pace both at home and abroad. Both the Australian Securities and Investments Commission (ASIC) and the Australian Competition and Consumer Commission (ACCC) have recently announced a focus on corporate greenwashing, including investment products and their advertised ESG credentials. Financial institutions will need to ensure they invest in the resources required to properly integrate climate change risk management into their investment frameworks, or risk punitive action.
+Bold action is needed
+Our research shows that institutional investors are stuck in the void between climate ambitions and climate actions. They could take inspiration from Patagonia CEO Yvon Chouinard’s recent move to give away the company to fight climate change! As bold climate action gains momentum, it would be great to see the finance industry step up to the challenge. 
+Our report on green pensions has several suggestions for how behavioural insights can help investors and fund managers make greener investment decisions. Get in touch with us if you want to help your organisation take action. </t>
+  </si>
+  <si>
     <t>Combating panic buying with behavioural insights</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/combating-panic-buying-with-behavioural-insights/</t>
   </si>
   <si>
+    <t>Some of the memorable images of the COVID-19 pandemic were pictures of empty shelves in supermarkets, as shoppers panic bought in response to public health restrictions. Here in Australia, we’ve seen the country go in and out of major restrictions over the past couple of years, with panic buying occurring almost every time restrictions were announced. More recently, we’ve also seen panic buying of fuel in the US and the UK, with recent bouts driven by the conflict in Ukraine.
+Of course, panic buying is, at its core, a behavioural problem with a range of behavioural drivers. These drivers can include perceptions of scarcity, a need to take control in an uncertain situation, and wider psychosocial factors. But while there’s a lot of research about what causes panic buying, there’s relatively little out there about what we can actually do to reduce panic buying.
+The Victorian Department of Jobs, Precincts and Regions wanted to understand what could be done to reduce panic buying. They were concerned that panic buying disproportionately impacts vulnerable people, in addition to disrupting supply chains and causing frustration for everyone.
+To explore solutions, the Victorian Department of Jobs, Precincts and Regions commissioned us to conduct an online randomised control trial across Australia. We showed participants a scenario where they’d just read the news about significant COVID-19 restrictions being introduced in their state. Participants were randomised so that the scenario included a message at the end, corresponding to one of four treatments. We developed some potential messages that the literature suggested could have an impact on panic buying:
+Treatment Message Control No message Appeal to morals “If you’re greedy and buy more than you need at the supermarket, there will be gaps on shelves and the state’s most vulnerable people will miss out.” Combatting scarcity “Australia produces three times as much food as it consumes. We’re not going to run out so please buy only what you need at the supermarket.” Norms + reciprocity “To help your family and your community, please buy only what you need and think of others when you shop at the supermarket. Most people do the right thing.”
+Importantly, we included a control condition that had no message as we were worried about the potential for a “backfire effect” – that is, any communication that sought to correct misperceptions about panic buying could inadvertently increase people’s propensity to panic buy, by reminding them that it was a potential issue!
+We then asked people about their intentions to increase their purchasing of several categories of products in response to the scenario. Participants responded on a 1-7 scale, where 1 = “I’d want to buy a lot less”, 4 = “No change”, and 7 = “I’d want to buy a lot more”. As you can see below, the appeal to morals message led to a small but statistically significant reduction in intentions to panic buy.
+That’s a great result in and of itself – but of course, you’re not reading the Intention Insights Team blog, you’re reading the Behavioural Insights Team blog. There are many aspects of life for which people often don’t follow through with their stated intentions (e.g. diet, exercise, new year’s resolutions, learning new languages, etc.). So, we put together a behavioural decision task to really see whether the messages could shift behaviour.
+In our trial, that translated to reminding our participants of the scenario, and asking them to pick a product, and asking how much they would need for 2 weeks at home. We considered this as a participant’s “baseline” amount – all that they needed. After this, participants were given the option to either choose to purchase more than their baseline (which represents panic buying), or the same (or less than) the amount they selected as their baseline (which represents not panic buying). Participants were told that they could earn an additional payment depending on their choice and the choices of others – these additional payments were structured to reflect the payoffs for a prisoner’s dilemma.
+That meant the best outcome overall was for everyone to not panic buy, but participants could earn even more on an individual level if they decided to panic buy. In essence, this incentive structure pits the common good against an individual’s own interests – much like panic buying. The treatment message was repeated before they made their choice.
+As you can see, there was a large and significant reduction in simulated panic buying behaviour from both the appeal to morals and norms + reciprocity message. Both results are interesting – the appeal to morals message reduces both intentions and behaviour, suggesting that there’s something very powerful about making a strong moral appeal. In contrast, the norms + reciprocity message doesn’t seem to affect intentions at all, but it has a very big impact on behaviour – this is not uncommon, as we often underestimate how powerful social influences can be on our behaviour.
+It’s also interesting that our results suggest that it’s really only a minority of people that actually panic buy – this is consistent with what we found when we asked people about their past panic buying behaviour, and is also consistent with international evidence. This means there’s a role for governments and the media to make it clear that most people do the right thing, to dispel stories that may create a false impression that panic buying is a widespread phenomenon.
+The Victorian Department of Jobs, Precincts and Regions is incorporating these findings into its messaging. We also know that panic buying can spread quickly, so the Department is giving other jurisdictions and stakeholders an opportunity to consider how to include these findings in their messaging.
+This is a really exciting result – we’re not aware of other research that has tried to address panic buying in this way. There’s also a lot more to learn – for example, are there other messages that we can use that will also shift simulated panic buying behaviour? Does the effectiveness of the message vary depending on the messenger? Can we use messages to target specific products? Would the results change if participants repeated the behavioural decision task multiple times? If you’re interested in these questions and want to work with us to find more ways to combat panic buying, or are facing other thorny consumer behaviour challenges, contact Ravi Dutta-Powell.</t>
+  </si>
+  <si>
     <t>Encouraging employees to return to the office while maintaining flexibility and choice</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/encouraging-employees-to-return-to-the-office-while-maintaining-flexibility-and-choice/</t>
   </si>
   <si>
+    <t xml:space="preserve">Hybrid working is here to stay. Although many organisations offer hybrid work arrangements, there are still some ongoing challenges. Specifically, organisations have observed misalignment and even tension between managers and employees about their preferred number of days in the office. This is described in detail in the recent RMIT report, The Office Clash. In the current climate of the Great Resignation and ongoing labour shortages, managers need to think carefully about how they resolve this misalignment.
+Managers and employees are misaligned on how many days they should work from the office 
+The RMIT survey, which was conducted with 800 respondents, found that managers and employees are misaligned on a number of factors related to hybrid working. Managers and employees differ in their perception of the importance of working in the office, their view of motivations for working from home, and their preferences regarding the number of days they work at home versus in the office. 
+Interestingly, when we ran a survey at a thought leadership event with 185 managers, we found that they have different expectations for the amount of time that employees and employers should spend in the office on average. We asked managers how many days they would like to spend in the office as an employer, and then asked them how many days they would like to spend in the office as employees. This framing changed their answers! 
+Some organisations have responded to this misalignment by providing a high degree of employee choice – but there are risks with a totally ‘hands-off’ approach
+The RMIT survey found that 66% of organisations with hybrid work models provide some level of employee choice. Of these, about one-third give employees complete control over when they are in this office. While employee choice is incredibly important, there is a risk that too much choice can create choice overload or inertia. In these scenarios, some employees might not end up going into the office very much at all. 
+Emerging research has shown that there are some risks with having significant variability in how often different groups come into the office. If some people consistently work from home more often, there are likely to be long-term impacts on their careers. Our own work has found that people with dependants and/or disabilities are more likely to favour a greater number of days working from home. Organisations should continually monitor the outcomes of hybrid working, to ensure that it doesn’t entrench inequities. If these unintended outcomes are observed, organisations should act quickly to resolve them. If your organisation fails to keep an eye on this, it may exacerbate inequities and make your company a less appealing place to work in the long-term. 
+A hands-off approach to hybrid work may also hurt your company’s bottom line. There is plenty of evidence that collaboration leads to innovation, but this can be harder to do in hybrid environments. A study of Microsoft employees in 2020 found firm-wide remote working resulted in collaboration networks becoming more static and siloed, with fewer bridges between different divisions. Therefore, a totally hands-off approach to working from home without careful planning could significantly reduce creativity and innovation in your organisation. 
+When providing significant employee choice, softer nudges may be needed to overcome work from home inertia and ensure employees experience the benefits of working from the office 
+We recently presented to organisations about how they can apply behavioural insights to encourage employees to return to the office. By using ‘nudges’, organisations are able to preserve employee flexibility and choice, while effectively addressing common barriers to coming into the office. For example, organisations should ensure senior manager attendance in the office is visible, as they are important role models. Our previous trials on increasing uptake of flexible work have shown that employees are highly influenced by the work patterns of managers (see the Harvard Business Review article for more information about our trial). 
+Download the infographic here for simple, evidence-based solutions to encourage your teams to come into the office more often
+When encouraging employees to return to the office, it is important to ensure the environment is safe – from COVID and the flu
+In the middle of 2022, many organisations are well-versed in strategies and practices to keep the workplace COVID-safe. However, a key concern this winter season is the flu. In Australia, we’ve already seen low uptake of vaccinations and a significant increase in workplace sick leave. These trends could soon be replicated in the northern hemisphere later this year. Many of the practices and behaviours that protect us from COVID can also be effective in reducing the risk of catching the flu.
+Download the infographic here for strategies to encourage COVID-safe – and flu-safe – behaviours in your workplace (beyond providing extra hand sanitiser!)
+If your organisation is looking for support to embed, review or improve hybrid ways of working – including monitoring and responding to inequities – please reach out to us. </t>
+  </si>
+  <si>
     <t>Protecting consumers from greenwashing</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/there-is-a-growing-epidemic-of-climate-anxiety/</t>
   </si>
   <si>
+    <t>A recent study of over 10,000 young people across 10 countries found that more than half think humanity is doomed, while 45% say climate-related anxiety and distress is affecting their daily lives.
+This large and growing group of concerned citizens want to take meaningful action to avert the climate crisis. This means changing a range of behaviours including what products they buy, what foods they eat, what job they apply for and who they vote for. 
+Understanding why consumers can be mislead by greenwashing is the first step to learning how we can protect them from it. We use behavioural insights to further understand why consumers act as they do.
+For concerned citizens to take meaningful climate action, they need accurate information on the environmental impacts of their choices. 
+What is Greenwashing?
+Most consumers and voters live busy lives, and look no further than marketing materials to assess the green credentials of their energy company or political party. However these days everyone has “gone green” – or at least that’s the way it looks on the surface. Organisations make bold environmental claims, often in place of substantive green action – a misleading practice known as greenwashing. The doublespeak of high-polluting corporations was perhaps best exposed by an HSBC responsible investment executive who recently said the quiet-part loud: “Who cares if Miami is 6 metres underwater in 100 years?”. 
+Many environmental groups have been concerned about greenwashing for some time – one such group, Clean State, approached us to help them learn more about greenwashing. 
+We wanted to understand how harmful greenwashing is, and what can be done to protect consumers, so we ran an online trial. 
+How easy is it to spot Greenwashing?
+Research on greenwashing is nascent, so we selected two interventions shown to protect people from online misinformation. Participants were randomly assigned to receive either:
+A literacy intervention – we provided information to help participants understand greenwashing and its intentions. This intervention most closely resembles existing anti-greenwashing campaigns
+A pre-bunking intervention – participants imagined they were an energy company and were asked to plan a marketing campaign with a greenwashing goal. The idea is that weakened exposure to greenwashing strategies can build resistance to future manipulation. 
+A control intervention – no greenwashing intervention.
+They then saw greenwashed ads we mocked up depicting fictional energy companies deploying common greenwashing strategies. One ad distracted consumers from the wider impact of the energy company, by drawing attention to a vague low impact action (“our offices are now green”).
+The other greenwashed ad exaggerated individual responsibility by promoting a carbon footprint calculator. Both claims are not negative in and of themselves, rather they act as smoke-and-mirrors, distracting consumers from the wider environmental impact of an energy company’s operations. We also showed participants a non-greenwashed ad (“we’re creating thousands of jobs”).
+Unfortunately, Greenwashing definitely works. From our study we found that over half (57%) of consumers (in the control condition) believed that greenwashed claims were a reliable source of information about a company’s eco-practices. Consumers were also much more likely to agree that greenwashing energy companies had strong green credentials, compared to energy companies depicted in a non-greenwashed advertisement.
+Note that the firms were entirely fictional, and one of the advertisements did not even make any specific claim about the firms environmental practices; it merely suggested using an online calculator to calculate a person’s carbon footprint. Nonetheless, the imagery was enough to increase perceptions of green credentials.
+But our interventions worked to protect people from greenwashing
+The good news is, the interventions made consumers more sceptical about greenwashing companies. Consumers who received both the literacy and prebunking interventions rated the green credentials of the fictional companies significantly lower compared to the control group. They resulted in an approximate 0.6 point shift on a 7 point scale.
+What type of Consumer is most susceptible to Greenwashing?
+Consumers who were more concerned about the environment were highly susceptible to greenwashing. Perversely, this means that the growing number of concerned consumers motivated to make a difference are the biggest victims of greenwashing. Despite intending to make greener choices, they may be selecting products or services that are much more harmful than they believe. However the silver lining is that these consumers benefited most from our interventions, making them prime targets for future greenwashing literacy and pre-bunking campaigns. 
+How We Can Best Protect Consumers from Greenwashing 
+In order to empower citizens and especially those most concerned about climate, we need to protect them from the harms of greenwashing. The greatest impact is likely to be achieved by tightening regulations of advertising standards, as the French government has recently done. French organisations accused of greenwashing could be fined up to 80% of the cost of false green campaigns.
+In the absence of regulatory change, our trial demonstrates that evidence-based literacy and pre-bunking campaigns provide substantial protection from greenwashing. Organisations already doing important work in this space (see Greenpeace’s campaign to cut through the greenwashing of energy retailers) should be bolstered by this evidence. If engaged with en-masse, these interventions could re-enfranchise consumers to make more meaningful choices for the planet. 
+We can help with analysing how and why consumers react to greenwashing in the ways they currently do. Please take a look at our Understanding Behaviour page to have a further look into this.
+Of course, there’s lots of ways that this work could be extended – if you’re interested in talking about how we can go about tackling this challenge or thinking about how we can tackle this issue, get in touch.</t>
+  </si>
+  <si>
     <t>Allowing fathers to be present</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/allowing-fathers-to-be-present/</t>
   </si>
   <si>
+    <t xml:space="preserve">Fathers can be quite important. I’ve got a good one and am very grateful for it. The behavioural science evidence also backs me up. Early paternal participation has a positive impact on a child’s IQ, mental and physical health, career success, and happiness. When fathers do spend time with their babies, they are also likely to experience higher life satisfaction.
+The benefits of spending time with babies when they are born are also not limited to the child and the father. Research in Sweden has also suggested that every additional month of parental leave taken by the father increases the mother’s earnings by 6.7%. This is important as maternity is a factor (among others) that can explain the gender pay gap. As the burden of pregnancy, childbirth and then parental leave typically all fall on the birthing parent this leaves an economic scar that can leave many women struggling to catch up with men in the labour market. 
+Despite the benefits of shared parental leave, it has taken us a long time to implement systems that allow it. When I was born in the 1980s, my father was not able to take time off to spend time with me. My partner’s dad was only given enough time off to be there for her birth and then had to return to work – and he worked in the very hospital that she was born.
+Some anec-data
+Thankfully, in many workplaces this is no longer the case. In many countries, secondary carers are given parental leave. At BIT Australia new fathers are also lucky to receive 20 weeks of paid leave if they are the primary carer. (Our other offices also have similarly generous policies.) From December to May, I was able to take this time off to spend with my daughter, Teddy. 
+My experience was very much in line with what the countless studies on the subject would have predicted. Sleepless nights aside, spending time with Teddy was delightful and definitely increased my life satisfaction. (Despite my psychological training I have restrained myself from administering any IQ tests to Teddy just yet.) 
+There were also benefits that I had not seen in the literature. Many of the services that I needed to use were in my community. These ranged from health services to playgroups in the local school. Being the primary carer brought me closer to my community as I started to get to know other parents in the area and got to know the volunteers, educators and health workers who delivered these vital programmes.
+I was not the only person to get the benefit from my parental leave. Rather than leaving my partner economically scarred, my partner was able to jump ahead in her career during my paternity leave and found a new job. We both gained different perspectives on parenthood and a shared empathy. Both of us experienced being a primary carer left at home with your baby and being the working parent apart from your child. Finally, my team was able to take on more responsibilities in the company and develop their own careers. 
+Sadly my experience is atypical. Many employers will not top-up pay for fathers, in the same way that they do for mothers and many fathers do not take it even if it is available to them. In 2021 my colleagues in the UK completed a project to encourage men to take up paternity leave. Their work found that men at two banks viewed people who took paternity leave as just as committed as their colleagues and just as competent. They also found that twice as many male workers at two banks supported male colleagues taking at least 4 months of leave as they had assumed.
+This is a case of pluralistic ignorance, the phenomenon whereby people hold a particular opinion privately while mistakenly believing the majority of people disagree with that opinion. This pluralistic ignorance has a chilling effect on the number of men taking paternity leave, as men fear that they will be judged for taking leave.
+Thankfully, the trial pointed at some potential solutions. Providing feedback highlighting that most men are supportive of taking parental leave significantly increased participants’ intentions to take 5 and 8 weeks of parental leave. Sadly, it also identified some potential unintentional effects. These were mitigated in a replication of the trial, but did highlight that further work does need to be done in this area. 
+What does this mean for fathers?
+The process of running the trial did highlight other potential solutions. One of these is having senior managers visibly and authentically endorsing the use of shared parental leave. This is part of the reason for writing this blog. If you are a male senior manager (we are overrepresented here) and in a position to take parental leave, then I hope that this blog has persuaded you to consider taking it. And enjoying it. 
+However, even if you are not a male senior manager and in a position to take parental leave, there is still something you can do. You can address the pluralistic ignorance I mentioned before and speak openly about your support for shared parental leave. You can work with your HR team to ensure that shared parental leave is available. You also get in touch with us to develop new interventions to allow new fathers to be present from the start. </t>
+  </si>
+  <si>
     <t>It pays to try public transport</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/it-pays-to-try-public-transport/</t>
   </si>
   <si>
+    <t>In Australia, the tyranny of distance has led to a historical reliance on commuting by car. But small vehicles account for a total of 10% of Australia’s greenhouse gas emissions, and the emissions from these vehicles are as much as 40% higher than other countries. This comes in addition to the risk of increasing air pollution, and increasing congestion in cities.
+While changes in working flexibility might ease some of the problems with car-based commuting, there is still a profound challenge for people who rely on transport to get to and from work. Historically, shifting transport mode is very difficult, as commuting is a strong default, and a very habitual behaviour. On top of this, private car travel has many advantages, including privacy, convenience, and flexibility, while public transport infrastructure is often found lacking. So, how do we shift people away from private car travel to more environmentally friendly alternatives, such as public transport?
+One of the more blunt instruments we have in our behavioural science toolkit is financial incentives, or “hard nudges”. These have been somewhat successful at changing travel modes. For example in Copenhagen, a free month of travel on public transport significantly increased self-reported use of public transport both during the trial period, and five months later. Perhaps it’s a bit obvious to say that paying people to take public transport will make them take public transport. But the theory here is that if you can encourage some people to try public transport just once, they might overcome some of the existing prejudice they might have and realise it’s actually more convenient than they thought!
+We worked with the Department of Transport in Western Australia to put this theory to the test, aiming to shift retail staff at a large shopping centre in Perth from commuting via car to public transport. We gave 134 staff at the shopping centre a free SmartRider card. For the next four weeks, at the start of each week, we loaded the card up to $25 worth of value. We also sent emails to staff each week (using different behaviourally-informed messages) to remind them that they could essentially travel for free, and they should try out their cards if they hadn’t already.
+To see if this actually changed people’s commuting behaviour, we compared trips taken on these cards to those in a “waitlist” control group, who received cards but were told that they would be getting funds in the near future. We told the 101 staff in this control group that they could (and should) still use their cards on their own dime during this period. By comparing the treatment group with this control group, we essentially ran a randomised controlled trial, but while equitably providing funds to both groups.
+When we collected data from the SmartRider cards, we could see that the financial incentive and emails increased the likelihood of taking public transport. As shown in the graph below, staff were more than twice as likely to take public transport when they received weekly funding and email reminders. 
+It’s great that people were taking up this offer and using public transport, but what if these were people who would normally take public transport even if we didn’t fund their commute? 
+We don’t think this is the case, as we asked participants before, during, and after the funding period what proportion of trips to and from work they were taking public transport. The graph below shows that funding increased the proportion of trips taken compared to before the intervention. More importantly, we can also see that the proportion of trips taken using public transport remained higher than before the intervention even after the intervention had finished, suggesting that this had a lasting impact on behaviour – even when we weren’t paying for trips any more!
+It’s important to emphasise that we don’t know how much longer this behaviour sticks around. At the very least, this shows that people are likely to use public transport if organisations like shopping centres or larger businesses subsidise it on an ongoing basis. At the very best, this trial shows that – in line with our theory – making it easy for people to experience public transport for themselves gives them the opportunity to realise that it can be better than driving to work.
+[I have] never taken public transport to work in the last 7 years so this was a great way to test it out and I found it was actually not as bad as I had expected!” 
+The challenge to switch to more sustainable transport methods is not going away any time soon. Across the globe, we’ve been looking at other ways to change transport behaviour, including reducing car commuting in Canada, and encouraging EV uptake in the UK. If you have any ideas, or are keen to take up this challenge with us, get in touch!
+This trial would not have been possible without the kind participation of the managers, staff and Centre management at the shopping centre, and advice and support from the Public Transport Authority, Western Australia.</t>
+  </si>
+  <si>
     <t>Changing how young people behave online</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/changing-how-young-people-behave-online/</t>
   </si>
   <si>
+    <t xml:space="preserve">This week marked Safer Internet Day, a global initiative which aims to raise awareness about online safety issues. This is a story that we hear frequently in the media: that the internet, especially social media, is an unsafe space, filled with dangerous content and cyber bullying. In particular, with technology becoming increasingly fundamental in their everyday lives, there’s a growing panic that young people are growing up devoid of a moral compass, because of the influences of the online world. 
+The reality, though, is of course far more nuanced than this story suggests. It’s true that young people are experiencing antisocial behaviours, such as swearing and abuse during online gaming. But they are also using online spaces to connect, learn and support each other.
+The answer, then, isn’t to avoid online spaces, or solely focus on highlighting the dangers of cyber criminals, bullies and predators. To really make the internet safer for young people, what they need — and what they’ve told us they want — is support and guidance to navigate their increasingly interconnected digital lives. 
+Download the Digital Compass Brochure
+With the right support, can we change the way young people act online?
+The short answer is: yes, we can.
+Our BIT Australia team, along with our collaborators The Vincent Fairfax Family Foundation and The Alannah and Madeline Foundation, developed and trialled a behaviourally-informed in-school program, Digital Compass. Digital Compass is an 8 week in-school program for 14-16 year olds. It uses evidence-based practical activities, data-driven insights, and guided group discussions to help young people reflect on past behaviours and modify future behaviours.
+It empowers young people with the tools to safely intervene in conflicts, challenge social norms, and adjust their online environments to support more socially conscious behaviour. Importantly, Digital Compass was developed in an iterative codesign process with young people to ensure their voices were embedded in the solution. 
+Results from our randomised controlled trial with 461 students suggest that Digital Compass does work to help young people behave more ethically online. Digital Compass increased the number and frequency of self-reported prosocial behaviour, like complimenting or comforting a friend online. Promisingly, this increase was greatest in more challenging, visible prosocial behaviours, such as standing up for others online — behaviours young people felt were more socially risky, but ones that were important for setting online social norms and perceptions of acceptable behaviour. 
+You guys taught us how we should treat other people and how the way we treat other people might have a consequence on them.”
+Digital Compass participant
+However, a complex problem like changing young peoples’ online behaviours doesn’t come without a complex answer. 
+The flip side is that Digital Compass also had the opposite effect: it increased the number and frequency of self-reported antisocial behaviours as well, such as insulting or excluding someone online. While we weren’t expecting this result, we believe it was because Digital Compass increased young people’s awareness of these behaviours as problematic, and caused them to report more of that behaviour than they had previously — a theory that was validated by young people in post-trial interviews. 
+Although this result seems like a contradictory one, it’s also a nuanced one. A raised awareness of problematic behaviours online is an overall positive outcome, if it can lead to more ethical decision making. It shows us, though, that changing young people’s online behaviour is possible — but it’s not black-and-white, and not without challenges. 
+Download the Digital Compass Brochure
+Where do we go from here? 
+While initial results are promising, feedback from young people, teachers and parents has highlighted opportunities to further develop the program. In particular, young people told us they valued exploring data on their personal online behaviours, debating what is and is not OK with their peers, understanding how social media platforms influence their behaviours, and, crucially, opportunities to build their ethical muscles and practice online behavioural changes.
+We’re now working with VFFF and AMF to iterate the program to deepen the impact of Digital Compass. Commencing in 2022, we’re partnering with schools who have the need and capacity to address this issue, to contextualise and roll out the program. We hope to expand this to more schools each year to create meaningful, sustainable behaviour change for young people in Australia, and ideally globally, in a way that’s relevant for them. 
+Keen to know more? Want to get Digital Compass into your school? Looking for other ways to get involved? Get in touch with Sheridan Hartley to talk all things Digital Compass, ethical behaviour online, and codesign with young people. 
+* Results caveat: The RCT was intended to be in the field for two school terms in 2021. However, a COVID-19 outbreak shifted schools into remote learning, and so we were unable to complete the RCT. This means our ability to detect an effect was reduced. To help address this challenge, we conducted 15 student interviews and a number of data shareback sessions with students to explore our findings directly with the young people who contributed to them. </t>
+  </si>
+  <si>
     <t>Safer Internet Day: 5 behavioural projects to improve online safety</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/safer-internet-day-5-behavioural-projects-to-improve-online-safety/</t>
   </si>
   <si>
+    <t>Digital products and the internet are integral to much of modern life. Last year, there were 4.66 billion active internet users worldwide, representing 59.5% of the global population. However, these products and services are not always designed with the safety of users in mind. The risks of harm online can range from controlling what data services collect about us, to the kinds of content children have unfiltered access to, through to fraud and harassment. 
+Today is Safer Internet Day, a day used to campaign for all stakeholders to ‘make the internet a safer and better place for all, and especially for children and young people.’ Below we outline why online platforms are so adept at influencing human behaviour and showcase five projects we’ve been working on to make the internet safer for everyone
+Online platforms – the ultimate choice architects
+Given how much time we spend online (a staggering average of nearly 5 hours per day just on our phones), the way people make decisions online, and how this differs from ‘offline’ decision making, is a surprisingly underexplored area. Online environments tend to be highly curated and deliberately designed to encourage particular choices. In many ways, this makes online platforms and businesses the ultimate choice architects. They can help individuals and businesses to make better choices, for example banking apps can give people a simple visual representation of their bank balance to help stick to their monthly budget. 
+But it also comes with a darker side, especially when paired with the ability of online platforms and businesses to collect vast amounts of data and experiment on their users. For example, platforms can encourage us to choose options that share more data than we might be comfortable with, or pressure us into making a purchase with messages like ‘only 2 left, 59 people are viewing this right now’. BIT is seeking to understand these mechanisms and rebalance online environments in favour of the consumer so that our online choices are in line with our own goals and preferences. 
+1. Helping young people to make good online decisions
+Technology has fundamentally changed the way young people grow, learn and interact. Since 2017 we have been working in Australia to support young people to behave more ethically online. Many of the ethical dilemmas that young people find themselves in online are ambiguous and it isn’t clear what the norms are. The rapid pace of technological change often leaves moral codes for new online spaces unwritten, so young people look to each other.
+As part of this project, we collaborated with young people in Sydney to explore how they experience the online world and what is important to them.
+The culmination of our research was the development of an 8 week in-school program called Digital Compass, which uses the power of social norms, along with other evidence based mechanisms, to support behaviour change in young people. Crucially, the program helps young people work out what they can do online instead of just telling them what they can’t, a criticism of existing programs.
+2. Reducing consumers’ vulnerability to fraud online
+In 2019, ~780 000 people in France (1.6% of the adult population) bought a product or service that was subsequently not delivered, did not meet claimed quality standards or led to hidden costs. In half of cases, this led to financial losses of more than €100, whilst 11% of cases led to losses of over €1000.
+In an attempt to reduce consumer vulnerability to online shopping fraud, we worked with the Direction Interministérielle de la Transformation Publique (DITP, France’s modernisation department) and the Direction générale de la concurrence, de la consommation et de la répression des fraudes (DGCCRF, France’s consumer and fraud authority), to develop and evaluate an intervention to generate awareness among consumers without incurring losses. 
+To do this, we set up an online (you guessed it, fraudulent 😈) market simulation – DiBartolo.fr, a coffee machine manufacturer – which we promoted through Facebook ads. The site used several common fraudulent practices (‘dark patterns’) to entice consumers to make a purchase. If we had collected payments, our fake offer would have generated €150,000 in revenue in less than four weeks.
+We ran an RCT, and after consumers were “scammed” they: 1) were told they would be contacted shortly to gather payment (control group); 2) were told they were about to be scammed and to be more careful next time (teachable moment); or 3) were told they were about to be scammed and given rules of thumb training on how to detect fraudulent offers in future (rules of thumb). 
+To evaluate whether our interventions had an effect, we later re-targeted the target sample with a new fraudulent offer. Whilst our sample was too small to draw statistically significant conclusions, our results indicate encouraging directional effects on reducing consumers’ vulnerability to fall for a future scam.
+Read the final report (in French!) 
+3. Helping families control their screen use at home
+Over the last few years, children’s screen time has grown exponentially across the world – a phenomenon that was only accelerated by the pandemic. Yet despite the enormous benefits of access to these new technologies, the evidence on the impact of this is still nascent with growing concerns about the potentially harmful effects of screens for children, including their physical and mental health, cognitive development and online safety. 
+Since 2019, we have assisted the Direction Interministérielle de la Transformation Publique and the Mission interministérielle de lutte contre les drogues et les conduites addictives (MILDECA, France’s interministerial mission on drugs and addiction) – on a project to help families in France have a healthier relationship with screens.
+With a focus on children aged 6-11, we conducted an exploratory project to understand how families currently approach screens at home and the barriers they faced to a ‘healthy’ screen use. Parents told us that they often felt overwhelmed with information on the dangers linked to screens, but also felt both ill-equipped and unsupported when it came to how to best support and regulate their children’s use of screens. 
+Together with DITP and MILDECA, we developed, in partnership with the digital education company Tralalere, a digital family mediation tool – Faminum. This tool provides information and support to parents, and guides them to create a personalised strategy to better manage screens at home. The tool is being launched today in France, with results from a small evaluation pilot expected in the coming weeks – watch this space!
+4. Empowering users to make active choices
+In 2020-21, we worked with the Centre for Data Ethics and Innovation (CDEI) in the UK to explore how to create ‘active’ choices; choices where individual users are empowered to better control how they use digital products and services.
+Here we tested the participants’ ability to make informed choices about their privacy and personalisation settings using new user designs prototypes for smartphone, web browser and social media contexts.
+This project sought to generate ideas that inspire and provoke change through proof-of-concept. For example, simplified and bundled privacy settings made it easier for consumers to make the changes they wanted. We recommend that active choice should be prioritised in online environments rather than passive consent, and the complexity of these active choices should be minimised.
+5. Reducing online gambling harm
+The 2018 Health Survey for England estimated that over 1.75 million people could be classed as ‘at-risk gamblers’. In September 2021 BIT launched the Gambling Policy and Research Unit, a dedicated team of specialists with a mandate to develop and rigorously test methods and approaches to significantly reduce gambling harms.
+Our vision for the Gambling Policy &amp; Research Unit is to make the UK gambling market the most safely regulated in the world. Much of the work of the GPRU will consider how to make online gambling environments safer for people.
+Our ongoing commitment to gambling work builds on previous work on gambling including Improving the uptake of gambling management tools by identifying and reducing the friction typically associated with accessing them and demonstrating that removing high anchors often found with deposit limits leads customers to set lower limits.
+In the near future we are looking forward to publishing the results of more ongoing work from the GPRU about reducing harm in online gambling.</t>
+  </si>
+  <si>
     <t>Can nudging improve student wellbeing? Results from an RCT in Australia</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/can-nudging-improve-student-wellbeing-results-from-an-rct-in-australia/</t>
   </si>
   <si>
+    <t>Studying at university can be challenging at the best of times: students are often juggling financial stress, challenging course content, living or studying in a new city, and changes to their friendships and social support networks. The events of 2020 certainly do not appear to have helped: a recent survey of Australian university students found that 65% of students reported low or very low wellbeing.
+We were interested in exploring how we could proactively improve student wellbeing and social support. 
+This is important because subjective wellbeing—which includes life satisfaction, social support, and emotional status or “affect”— is related to student success.* In fact, emotional health is often cited as a key reason students consider leaving their studies, whereas students with social support are more likely to stay in university.
+We designed a text message intervention to encourage students to practice wellbeing-supporting behaviours
+In collaboration with the Australian Department of Social Services (DSS) and Western Sydney University, we designed the “Wellbeing Project”— a five-week series of text messages that provided students with prompts and tips to practice behaviours that have been empirically shown to enhance wellbeing.
+We designed the text prompts to encourage behaviours related to gratitude, altruism, and mindfulness (see sample messages below).
+The Wellbeing Project boosted life satisfaction, social support, and community participation
+We ran the Wellbeing Project for five weeks during the spring semester of 2020 (October-November 2020), and evaluated its effectiveness using a randomised-controlled trial (RCT) with 1,116 students, with half of the students receiving the new text messages and half receiving business as usual. Students in the treatment group received 3-5 text messages a week prompting them to practice a wellbeing-supporting behaviour, such as expressing gratitude to someone, doing something kind for someone, or practicing mindfulness. Students in the control group only received messages about completing two surveys: one halfway through the trial and one at the end. These surveys measured several contributing factors to wellbeing, including students’ life satisfaction (using the measures from the UK Office of National Statistics), social support, and how connected students felt to their communities. 
+The intervention had a significant positive impact on life satisfaction. We saw an increase in life satisfaction of 0.49 units on the ONS scale. Without much context, this may not mean much to readers. However, this is about the same difference in average life satisfaction for someone who has an annual household income of $18,000, versus someone who has an annual household income of $27,000.
+Students who received the wellbeing prompts reported a 7.3% increase in life satisfaction relative to students who did not
+The group who received the messages also practiced and expressed gratitude to others in their lives more often, talked to people in their life that support them more often, and felt more connected with their community (compared to those who didn’t get the messages). These are positive outcomes that suggest the benefits of the intervention are not only seen in life satisfaction, but also in people’s daily lives and relationships with others. 
+Students liked the intervention, and felt that it enhanced their resilience during difficult periods 
+The surveys that we used showed us that the text messages increased students’ life satisfaction, but we were also interested in what the students thought about the messages, and how students would respond to them. We began to develop an understanding of this from the student responses to our surveys, and the text message prompts themselves. For example, we learnt that many students appreciated the reminders being sent to them throughout the week, and that it helped to keep things in perspective:
+I really liked the reminder about what I wrote that I felt grateful for – sometimes when things are difficult I lose sight of the good things in my life so it really put some perspective back into my life and reminded me of what was important”
+Several responses to the text messages indicated that students were struggling with stress and isolation on a daily basis. But, when we prompted them to reflect, many appreciated thinking about small things to be grateful for.
+Today it rained, steady and beautiful. I am in a state right now, anxiety high, things going wrong, people around me at the brink of collapse; but to stand in the rain and breathe in that smell of wet earth, feel the drops hitting me and hear that calming sound of rain on concrete really helped.”
+Even looking up at the sky every sunny day is my favourite thing during this lockdown period… Even if we’re not able to go out… The sky is still above us.”
+This demonstrates that small nudges, such as text messages to reflect on the things students appreciate, have the potential to have large impacts on life satisfaction, resilience, and practice of wellbeing enhancing behaviours. 
+If you’d like to hear more about this trial, or how to scale this in your university, let us know by getting in contact!
+Get in touch 
+The Wellbeing Project was part of the Strengthening Students’ Resilience program of work – a partnership between BIT and BETA (the Behavioural Economics Team of the Australian Government) funded through the Australian Government Department of Social Services Try Test Learn fund. Visit www.dss.gov.au for more information
+*In this blog we focus on life satisfaction as a proxy measure of wellbeing, but there are many components of wellbeing. We acknowledge that there’s lots of things that contribute to positive outcomes for students, but we’ve kept the discussion brief here.</t>
+  </si>
+  <si>
     <t>How can we encourage institutional investors to make climate friendly decisions?</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/how-can-we-encourage-institutional-investors-to-make-climate-friendly-decisions/</t>
   </si>
   <si>
+    <t xml:space="preserve">To meet net zero emissions all sectors of the global economy will need to embark on unparalleled transformation. The financial industry is a key player in this transition – with the potential to accelerate us towards that goal or impede the journey, depending on investment and divestment strategies. However, fossil fuel projects continue to attract investment and increase atmospheric greenhouse gas emissions, which are higher now than they were in 2016 after the Paris climate accord.
+More urgent than ever
+To combat climate change, US$90 trillion is needed in sustainable investments by 2030. However markets aren’t moving fast enough. The Paris Climate Agreement calls out the role of the finance industry in boosting green innovation and low carbon industries. The question remains however, as to whether shifting to more sustainable investment is in the industry’s interest.
+Investing for the climate makes financial sense
+It’s becoming clearer that climate friendly investing is financially worthwhile. There are two reasons for this. One is to reduce exposure to financial risk as we move towards a low carbon economy. Fossil fuel extraction companies have declined in value over the last 10 years while some projects have been written off completely. On the other hand, green investments offer economic opportunities as the economy shifts gears – with indices of companies which factor in climate risk outperforming the market in recent times. 
+But institutional investors have been slow to respond
+Institutional investors (i.e. banks, pension funds, fund managers) manage the majority of the world’s assets, and despite increasing interest in eco-friendly investing, have not responded fast enough. There is an urgent need to understand why – in order to establish effective ways to encourage more climate friendly investments sooner. 
+We asked institutional investors about their investment decisions
+We collaborated with the interactive market insights company MarketMeter to investigate the values, attitudes and behaviours of 60 institutional investors, representing a group of ‘mainstream’ investment organisations and firms in Australia. We asked a series of questions about how they made investment decisions over the past 12 months.
+We found that Institutional investors are not prioritizing climate risk 
+When we asked about the importance of 26 corporate priorities, climate risk ranked close to the bottom of those priorities (see chart below). Perhaps unsurprisingly, the top rated priorities were all more traditional benchmarks of financial performance e.g. earnings quality and execution of strategy. 
+Source: MarketMeter
+The climate investment mindset is held back by behavioural patterns
+We wanted to understand what was behind the low prioritisation of climate risk. Investors told us that a range of factors prevented (barriers) or encouraged them (levers for change) to consider climate risk in their investment decisions, presented in the table below.
+Behavioural insights can help change investor behaviour
+The climate crisis represents an existential risk, but also opens a number of economic opportunities for forward-looking and prudent investors. However financial professionals are not responding fast enough. While there are wider systemic and market factors at play, our research highlights several behavioural barriers, as well as possible levers to catalyse change. Informed by these findings and the behavioural science literature, we make the following suggestions for where behavioural insights could help organisations and the wider financial system nudge financial professionals towards more sustainable investments:
+Communicate dynamic social norms. Communicating that increasing numbers of people are adopting a behaviour, for example eating less meat, can motivate behaviour change. Climate finance may not yet be the mainstream, but we can draw attention to the fact that more and more investors factor in climate risk, and highlight that public interest in ethical investment is on the rise (as shown by Google Trends data) and that more and more governments are adopting strong net zero emissions goals.
+Anchoring and defaults. We rely heavily on reference points when making decisions. Investors are no different, and commonly compare performance relative to financial benchmarks – broad measures of how the economy or certain sectors are performing. Climate benchmarks, such as the EU Climate Transition Benchmark should be promoted as the default comparison yardstick when reporting performance.
+Loss aversion. We are more influenced by losses than we are equivalent gains. Highlighting the increasing financial risk of extreme weather events or stranded assets (i.e. fossil fuel projects abandoned when no longer profitable) is likely to influence institutional investors looking to insulate their clients or portfolios from heavy financial losses.
+Find out more
+We will be presenting this research as part of a wider report on barriers to climate finance entitled We Need A New Anchor, written in collaboration with non-profit ethical investment library and research centre Altiorem at the Responsible Investment Australasia RI Australia 2021 conference on May 7th 2021. </t>
+  </si>
+  <si>
     <t>What impact does remote working have on workplace sexist and sexually harassing behaviours?</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/what-impact-does-remote-working-have-on-workplace-sexist-and-sexually-harassing-behaviours/</t>
   </si>
   <si>
+    <t>Everyone should be valued and treated as equal regardless of gender. Yet in too many workplaces, sexist behaviours and sexual harassment are still a problem. In Australia, one in three people have been sexually harassed in the workplace in the past 5 years. Reducing sexist behaviours and sexual harassment in the workplace provides safer, more productive environments; improves mental health; and creates more diverse opportunities and greater empowerment for women by making it clear that they are valued in the workplace equally.
+How the Pandemic Brought the Lack of Research into Sexism in Remote Workplaces to Light
+Coronavirus drastically changed our working lives in 2020. As workplaces moved online, many workers found themselves almost exclusively communicating with each other through online channels including email, messaging services, and online meeting platforms.
+There has been a lack of research into sexism and sexual harassment in remote workplaces, despite the current and future importance of this work. Without the knowledge of how exactly sexist and sexually harassing behaviours are manifesting in online work environments, workplaces, practitioners and policymakers are unable to design effective response and prevention strategies.
+Addressing this Knowledge Gap with BIT
+BIT, in partnership with Women Victoria and the Victorian Health Promotion Foundation (VicHealth), ssurveyed a representative sample of 1,109 Victorian workers about their experiences of sexism and sexual harassment while working remotely during the pandemic in order to further understand behaviours in a remote workplace setting. We asked them a series of questions exploring whether they experienced, witnessed or how they responded to 10 sexist or sexually harassing behaviours.
+Across 9 out of 10 behaviours asked about, workers thought that sexist and sexually harassing behaviours occurred less frequently while working remotely compared to in the office. These can be seen in the chart below. This perceived reduction is a hopeful sign that remote working can protect workers from sexist and sexually harassing behaviours.
+We can take the finding above at face value and assume that these behaviours are reduced in a remote working setting. However, it is important to remember that it may be difficult for workers to gain a clear picture of sexist behaviours and sexual harassment across a workplace while working remotely.
+It is also critical to recognise that despite the perceived reduction, many workers continued to be subject to sexist and sexually harassing behaviours during online working. Our survey found that almost one in five workers experienced sexism and sexual harassment while working remotely (regardless of their gender), and one in three saw or heard about sexism and sexual harassment happening to others. We also found that women, young people and entry-level employees were more likely to experience sexism and sexual harassment, compared to men, older and more senior workers.
+More work needs to be done to unpack these findings so that workplaces, practitioners and policy makers understand the prevalence of these behaviours, and what can be done to prevent sexist behaviours and sexual harassment during remote working.
+Thoughts on Our Survey
+Dr Karen Tindall, Principal Advisor in our Sydney office, says:
+Workers should be able to attend physical workspaces or work remotely at their discretion, without being subject to gender discrimination or harassment. Remote working needs to be implemented in alongside other efforts to address this.”
+VicHealth CEO Dr Sandro Demaio said businesses have a responsibility to ensure their workplace cultures are safe for women, free of sexual harassment.
+Despite the progress we have made towards gender equality, women are still commonly exposed to sexist and sexually harassing behaviours in the workplace. It’s positive to see that working remotely in 2020 has protected some workers of all genders from these behaviours, however it doesn’t solve the issue. We need more employers to commit to creating workplace cultures that seek to prevent sexist behaviours and sexual harassment for staff who are both working remotely and in traditional work environments.”
+In light of our survey results we recommend that workplaces should continue to offer flexible working arrangements to all workers after coronavirus related lockdowns end. However, doing so does not address the underlying causes of workers engaging in sexist and sexually harassing behaviours. While small changes can make a big difference, we need workplaces to implement holistic solutions and strategies to address sexist and sexually harassing behaviours.
+What can you do about this?
+If you would like to know more about what you or your colleagues can do about this, you can:
+Read our report, for the full details on the findings of our survey and further recommendations.
+Find out what’s happening in your workplace so that you can do something about it? For workplaces who wish to do research into what is happening in their specific context, we will release a workplace survey template to help them do this. This template will be available in April 2021. You can also email Emma Hunt, Senior Advisor at BIT to learn more about what we are doing here.
+Send our report to others, this will help scale interventions to address sexism and sexual harassment.
+Work With Us to Address Behaviours in the Workplace
+Do you want to improve gender equality in the workplace? At BIT we work across multiple industries helping to provide useful behavioural insights that can be actioned to work towards a better workplace. Get in touch to discuss any potential projects, or to enquire about our excellent training courses.</t>
+  </si>
+  <si>
     <t>Applying behavioural insights to public transport pricing complexity</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/applying-behavioural-insights-to-public-transport-pricing-complexity/</t>
   </si>
   <si>
+    <t xml:space="preserve">Navigating the pricing structures of public transport systems in new cities is something even experienced travellers dread. There’s lots of different things to think about: the mode of transport you’d like to use; the distance you’re travelling; and even time of day changes to transport fares. 
+A behavioural insights lens can help us understand how people interpret information and online tests can help us understand how these insights might influence behaviour. We used an online environment where we could systematically control and vary information presented to people to understand how the information they are presented influences decisions. You can read the full report here.
+What we did
+We worked with Infrastructure Victoria and SGS Economics and Planning to understand how incorporating complexity via multiple pricing elements influences comprehension of the pricing structure. To do this, we conducted an online randomised controlled trial with 2,011 Australians where we showed respondents four different pricing structures. These pricing structures incorporated an increasingly complex set of elements: 
+Making peak travel more expensive; 
+Varying the price of certain modes of transport (i.e., bus, tram, or train; and making peak travel more expensive);
+Pricing based on distance travelled (i.e., an additional 10 cents per kilometre travelled, and whether or not the travel was at peak times) or; 
+Having a structure that incorporated a peak travel surcharge, transport mode differences, and a distance-based charge. 
+We then asked respondents to think about a friend who is trying to navigate these transport systems, and to recommend the cheapest fare for their friend for a series of hypothetical public journeys. Our outcome was the total number of fares participants correctly selected as the cheapest (out of 20 hypothetical journeys), and participants were offered an additional incentive if they correctly indicated the cheapest fare on 80% of the journeys presented.
+As complexity increases, comprehension decreases
+We found that when complexity increased (i.e., when more elements were incorporated into a pricing structure), individuals were less able to choose the cheapest fare for their friend. This finding is not particularly groundbreaking. However, we were also able to uncover some surprising insights about how individuals use complex pricing structures to make decisions.
+Read the full report here
+Not all types of complexity are created equal
+One of the surprising things we found is that certain pricing elements are more difficult than others for individuals to use to make decisions. We asked participants to rate how difficult they found the pricing structure, and found that pricing structures that included distance-based pricing were rated as significantly more difficult than those that included peak-only or combined peak + mode pricing. We also found that the combined peak + mode pricing resulted in significantly more correct responses compared to the peak only pricing.
+This difference in levels of understanding between the mode and distance elements of a pricing structure may be because distances are more difficult to visualise and use in decision-making than modes of transport. This suggests that pricing structures that incorporate distance-based elements may lead to some confusion, and that incorporating a simpler, more intuitive zone-based charge could aid in decision-making.
+Different people approach complexity in different ways
+ Broadly speaking, we also saw different approaches to the task: intuitors, and calculators. Intuitors are those who have a sense of the pricing structure, but rely on mental shortcuts or heuristics to choose the cheapest fare. On the other hand, calculators are those who have internalised the pricing structure and its nuances and are happy to invest some time in working out the prices via doing the maths.
+We found that as pricing complexity increased, the number of intuitors increased and the number of calculators decreased. These results were also reinforced by qualitative interviews that SGS Economics and Planning conducted with consumers. 
+This suggests that when faced with complexity, people might be more likely to ‘throw up their hands’. This can be a problem – often public transport fares are designed with some sort of price signal (e.g., a peak hour charge is designed to deter travel during peak times). But, if the system is too complex for people to understand, then it will fail to meet the ultimate policy objectives. It also suggests that when designing pricing schedules, we should make them as intuitive as we can, to capture those who will still try and ‘intuit’ their way through decisions. </t>
+  </si>
+  <si>
     <t>2020</t>
   </si>
   <si>
@@ -472,42 +2565,170 @@
     <t>https://www.bi.team/blogs/how-can-we-support-physical-distancing-in-the-office/</t>
   </si>
   <si>
+    <t>As office workers in many parts of Australia are returning to workplaces, we’re confronted with the ‘new normal’: the need to maintain physical distance. For many employees, even simple rules like “stay 1.5m apart” are proving hard to consistently follow in practice. Fortunately, behavioural science gives us clues as to how we can design the work environment and practices to encourage physical distancing and help keep us safe in the months ahead.
+Supporting physical distancing at a major Australian bank 
+To understand how to best support physical distancing in workplaces, we partnered with a large Australian bank and Professor Robert Slonim to undertake some rapid research. This formed part of a broader objective for the bank to become a COVID-safe workplace, and to find creative ways to help their employees do the right thing.
+As one of Australia’s biggest employers, the bank had been quick to implement a range of measures that prioritised employee and customer safety over the last 6 months. They moved rapidly to support working from home, implemented industrial quality cleaning, restricted numbers in meeting rooms, introduced temperature checks at entrances, and added clear signage in buildings. And, as for many workplaces, boosting physical distancing behaviours was a top priority.
+We started by collecting data from observations, surveys and focus groups, and reviewing existing administrative data (such as building entry and exit times), in order to diagnose the behavioural issues and identify opportunities for practical changes.
+[if IE 9]&amp;gt;&lt;video&gt;&amp;lt;![endif]
+Webinar: Applying behavioural insights to COVID-19 comms
+The good news: most people want to and do comply
+Most team members were keen to comply with physical distancing rules—and most of them did, most of the time. Observational data showed that the majority of those entering the building kept a distance of 1.5m from others. Where there were issues, these understandably occurred at peak times. Likewise, people didn’t tend to overcrowd tables in the building’s cafés, especially at smaller tables (where adding an extra person is much more noticeable than at a larger table). Employees also suggested that they wanted to encourage others to follow the guidelines too.
+The challenge: certain norms and environments enable breaches
+Just because people want to follow the rules, though, doesn’t mean they always do so. This is an example of the classic problem of the intention-action gap. In addition, our surveys and focus groups showed that there was a gap between the number of people who felt that it was right to tell others to leave a full meeting room, not enter a crowded lift, or stop gathering at the building entrance, and the number who said they were likely to actually do this in practice. This suggests bystander inaction plays a key role in preventing people from speaking out when others aren’t following physical distancing guidance.
+This gap can be seen in the diagram below. We asked bank employees whether they thought it was right to tell people who were breaching the 1.5m rule at the building entry to space out. Most people agreed. However, when we asked them whether they would take action, many stated they weren’t likely to do so. Even some of the people who strongly agreed that it was right to take action stated that they were very unlikely to do so.
+Routine and automatic behaviours also affected physical distancing, especially while queuing at counters and cafés during peak periods. Where there were clear markers that reminded people to stay 1.5m apart while queuing, people did so fairly well. But when the reminders were less salient or the social and physical environment encouraged pre-COVID routine behaviours, this norm quickly dropped off. Clear examples of this were café counters that have traditionally encouraged people to lean over them to speak to servers, waiting times during which people focused on their phones rather than their physical proximity to others, or when staff were queuing with friends or team mates whom they have routinely stood close to in the past. Ironically, some of the measures implemented also accentuated these issues.
+The “watch out”: even good intentions can backfire
+Despite good intentions, some of the new measures being widely implemented across workplaces can create unintended consequences. For example, as people entered the building, they initially had to go through a temperature check queueing system and had the opportunity to use hand sanitizer. However, this meant that people were funneled into tight spaces, increasing the likelihood of people standing within 1.5m of each other—especially during the 9am peak. This should serve as a final warning: sometimes the best intentioned changes open up new and different risks. It’s important to keep evaluating your measures, to make sure they’re achieving their goal.
+The fix: designing around human behaviour
+To overcome bystander inaction, employers should empower their people to reinforce positive behaviours and challenge non-compliance. They can do this by drawing on social norms to highlight that most people think it is right to encourage physical distancing and that all employees have the right to speak up and take action when others aren’t following the rules. Identifying and using managers and influential team members to help shift social norms can be vital in encouraging others to do the right thing—especially since our qualitative data suggests that senior management aren’t often the best role models in terms of physical distancing.
+To avoid people falling back into old habits, the key is to create environments that discourage these routine behaviours and keep the need for physical distancing salient. Following our research, the bank has implemented a number of changes; for example, they have gone beyond floor markers and signage and installed physical barriers to prevent people from standing too close to café counters. They have also removed excessive furniture from meeting rooms and café tables to ensure the ‘affordances’ don’t facilitate the wrong behaviours, and have introduced life-size eye-catching reminders of how far 1.5m actually is. Additionally, they are proactively encouraging flexible start times, to smooth the morning, lunch and evening peaks and reduce pressure on entry and exit points.
+Want to know more?
+If you want to know more or are interested in working with us on similar projects, get in touch.
+Thanks to Professor Robert Slonim, Alex Berger, Julia de Sterke, Laura Chapman, Harrison Nguyen and Michael Zhang at the University of Sydney.</t>
+  </si>
+  <si>
     <t>How can we prepare young people for the future of work?</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/how-can-we-prepare-young-people-for-the-future-of-work/</t>
   </si>
   <si>
+    <t>COVID-19 has had profound impacts on the way societies function, including the nature of work. Young people are particularly affected, with youth unemployment in Australia at the highest it’s been in 22 years. To address this crisis, young people need to be adaptable and demonstrate a broader range of skills than ever before. However, a recent review of the education system conducted by the Council of Australian Governments Education Council found that our education system doesn’t meet this need.
+Across Australia, the education system focuses heavily on a single grade based on academic performance in the final year of school – the Australian Tertiary Admissions Rank (‘ATAR’). The ATAR functions primarily as an entry to universities, and the emphasis placed on it effectively positions university as the default pathway for many young people leaving school. 
+However, for some young people, university does not offer the best employment outcomes, and other pathways would be more suitable. Our research, which fed into the Education Council’s report found that university acts as a strong default. It also found that many young people who would benefit from pursuing other pathways such as apprenticeships, don’t know about or consider these options. 
+The focus on the ATAR also means that other skills learnt during secondary schooling (such as teamwork, communication skills, adaptability and emotional skills) are not formally recorded, despite being recognised as crucial for the future of work. This makes it hard for young people to pursue careers and record achievements based around these broader skills. We need to develop a new system for recognising young peoples’ holistic skills and achievements. This will help change the perception of university as the default post-school pathway, and help young people pursue the pathways that are right for them. 
+As one way to address this, the Education Council recommends the development of student ‘Learner profiles’, which capture the range of skills, capabilities and interests of young people – both academically and more broadly. These would allow students to track the range of skills they acquire during their schooling, and help them communicate these to tertiary institutions, training organisations and employers.
+Behavioural science has an important role to play in helping the transition to a more holistic and representative education system, and ensure young people are prepared for the changing world of work. 
+This important role is acknowledged by the Education Council which notes in its report that: 
+Behavioural psychology will help governments to understand how, why and when young people make decisions… Big data integration and analysis – across schooling, tertiary education and training, and the labour market – will provide insights into the exercise of individual choice over time. It will help policymakers to understand why students begin education and training courses and why, too often, they decide to drop out. It will help ensure that spending on education gets the biggest bang for its buck. It will help us to prepare senior secondary students for their futures by getting the public policy settings right…. Governments will increasingly understand the decisions that young people make and know better how to nudge them in the right direction.
+We are excited to have undertaken work in this critical space. If you’d like to hear more about this work, reach out to Emma Hunt at [email protected].</t>
+  </si>
+  <si>
     <t>Speaking to consumers unlocked insights into how we can help them save on energy</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/speaking-to-consumers-unlocked-insights-into-how-we-can-help-them-save-on-energy/</t>
   </si>
   <si>
+    <t xml:space="preserve">As the economic effects of COVID-19 become more apparent, consumers are cutting back on spending. Energy bills are often an area where many people can make savings. However, navigating this market can be a difficult task. Information is often presented in confusing ways that make it harder for people to make good decisions. Part of a regulator’s role is to make this information easier to understand, but this can be a difficult task. 
+Making energy pricing information easy to understand
+In Australia, two regulators, namely the Australian Energy Regulator (AER) and the Australian Competition and Consumer Commission (ACCC), have been leading the way in trying to understand how consumers best interpret pricing information (see our joint report here). 
+In July 2019, the AER introduced the concept of the ‘reference price’ to the Australian public. This was designed to allow consumers to compare apples with apples across energy offers from different companies. It acts as a benchmark price which must be displayed across all energy ads, enabling consumers to compare different offers to it. However, the AER and ACCC were quick to realise that the specific term ‘reference price’ was not that easy to understand. Therefore, we used a simple, but relatively novel methodology to understand how consumers interpret the term ‘reference price’. We asked them. 
+Interviews unlocked insights into how people interpreted pricing information 
+The AER and ACCC’s suspicions that the reference price was not clear was supported by the interviews we did with consumers. Consumers told us they had little idea of what the reference price referred to or what it should be used for. One of our interviewees described the situation very pithily: ”And we have to be smart enough to work out this concept?”
+In the second half of the interviews we showed participants mock energy ads containing the reference price and asked them questions to investigate how they understood the information on the ads. Over the course of the interviews, we prototyped and iterated alternative ways of communicating the reference price to improve comprehension (see mock ads below). This methodology has proved illuminating in previous trials, where along with the AER, we found that energy consumers responded more to information that was framed in terms of potential losses more so than equivalent gains, and that energy consumers overestimate their ability to make good decisions based on the information available. 
+We tested our interview insights using an online RCT
+The interviews inspired us to create three ad candidates for explaining the reference price, which we then tested in an online randomized control trial. These candidates were:
+A control ad which used the wording from the established regulatory code
+A descriptive label which stated that the price was set by the Government
+A purpose-based label which highlighted how the reference price should be used
+A combination of the descriptive and the purpose-based label
+The methodology involved showing consumers various versions of an energy ad and then asking consumers specific questions to identify their level of comprehension. We compared the three labels against a control group, which used the wording from the regulatory code. 
+Using clear descriptive language (i.e telling consumers what the price is and who sets it) increased consumer comprehension and their ability to use the reference price to select the best deal on a life-like comparison website. This framing improved comprehension by 15.8%, a finding which will inform the AERs‘ work on the Retail Pricing Information Guideline, and the ACCC’s work enforcing the Electricity Retail Code. 
+While all the new ways of framing the reference price showed statistically significant increases in comprehension above the control, the framing which clarified who set it had the biggest impact. Describing how the reference price should be used, in addition to what it is, conferred no additional benefit.
+This project demonstrates the importance of inviting citizens to the table when designing and implementing policy. The reference price is a useful concept, but only if consumers know what it means and trust the body who sets it. Our trial shows how simpler, non-technical language that is more descriptive and explains concepts – rather than assumes knowledge – can increase comprehension of the reference price and empower consumers to make better decisions when it comes to their energy providers.
+If you would like to know more about the work, you can read the report here and you can also drop a line to [email protected] or [email protected]. </t>
+  </si>
+  <si>
     <t>Beyond disclosure</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/beyond-disclosure/</t>
   </si>
   <si>
+    <t>This month, the Australian Securities and Investments Commission (ASIC) and the Dutch Authority for the Financial Markets (AFM) published their report calling time on disclosures. ‘Disclosure’ means requiring firms to provide more information to customers, in the hope that they can then make informed choices about what they buy. With extensive evidence and a contents page that reads like a charge sheet – ‘Simplifying disclosure does not solve complexity’; ‘Few consumers pay attention to disclosure’; ‘Warnings can backfire’ – the report takes apart the idea that this alone can be a panacea.
+This leaves us with a hard question: if disclosure isn’t enough, where should financial regulators look next? We think one answer is to start holding firms accountable for the outputs of customer decision-making (“Do your customers buy the product that actually turns out to be right for them?”) as much as for the inputs (“Is it theoretically possible to make the right choice based on the information provided?”). 
+We already know that thoughtful, situation-specific nudges can make a big difference. At BIT, we’ve seen how adding a simple credit card repayment slider can increase average repayments (from £225 to £276), or how a one-page ‘Pensions Passport’ can multiply the number of people engaging with retirement planning tenfold (from 1% to 11%). 
+But case-by-case interventions don’t solve the basic asymmetry between resource-constrained regulators on the one hand, and an inventive financial sector with control over the ‘choice architecture’ of consumers’ decisions on the other. A company that can decide how offers are presented, when and where they are made, who they are marketed to, and how they are personalised has everything it needs to frustrate the best intentions of regulators. Indeed, ASIC reports that its own superannuation dashboard fell foul of this: firms gamed the metrics, and in reality only a tiny fraction of consumers were able to navigate the information correctly. 
+An alternative course is to take a stronger line on the relative merits of the products being offered. Richard Thaler has written about “no-brainer” options in health insurance, which are better in every way than ‘dominated’ alternatives offered by the same firm. When companies persist in offering these dominated alternatives, whether by accident or design, they are setting a kind of trap. The consumer is faced with a ‘decision’ which is less like picking what flavour of ice-cream they want, and more like a maths question with a set of trick answers. 
+In extreme cases, we can be mathematically certain that a product would be a bad choice for everyone, under all circumstances. But regulators don’t have to suspend judgment in situations which are less clear cut. They can instead start asking (and answering) some empirical questions:
+For a given product class, how much variation in consumer needs is there really? 
+Are there products which in reality would be a bad choice for most consumers, most of the time? 
+In practice, are consumers finding the options that are right for them, or are they falling through trap doors? 
+And can we use data to make this objective? For example, can we use consumers’ spending and repayment patterns on a credit card and to say with certainty if they would have been better with an alternative plan to the one they chose?
+These are hard questions to answer, but they could eventually make parts of regulators’ jobs easier. Holding companies accountable by scrutinising the actual choices of a random sample of customers means that you no longer need to check every detail of their product information packages or automated phone warnings. 
+At the moment, regulators have to play whack-a-mole with firms’ lazy or hostile choice architecture: fix one problem, and another pops up. As ASIC and AFM’s report shows, this is a losing battle. We should instead push for a world where it is the responsibility of those firms to stop posing trick questions, and to start letting their customers skip to the answer.*
+* Ryan Buell’s recent experiment suggests that this might not be so bad for firms either: being upfront about the trade-offs between different types of credit card increased usage, and cut cancellation rates by 20.5%.</t>
+  </si>
+  <si>
     <t>How to stop sexual harassment as a bystander</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/how-to-stop-sexual-harassment-as-a-bystander/</t>
   </si>
   <si>
+    <t>In the wake of the #MeToo movement, many organisations and universities are searching for evidence-based strategies to combat sexual harassment. 
+Encouraging bystanders, those who witness or hear about sexual harassment, to take action is a promising way to do this. 
+When bystanders take action, they protect and support the person targeted, discourage the perpetrator, and show that sexism and sexual harassment are not acceptable in any setting – whether a workplace, a university campus, or the broader community.
+The challenge is that although many people want to intervene when they witness these behaviours, most fail to do so. Research by the Australian Human Rights Commission found that 1 in 4 students reported being sexually harassed in Australian university settings in 2016, but only 20% of bystanders in these situations reported taking any action. Inaction can be due to fear, anxiety, concern about what others would think, and lack of skills and confidence. 
+Exciting new findings from The Behavioural Insights Team show that it is possible to help bystanders overcome these barriers and take action. In our work with the Victorian Health Promotion Foundation, we partnered with two universities and carried out trials to see whether behavioural insights can empower more people to take action against sexism and sexual harassment. A summary of our results can be found here, along with tools and guides for running your own bystander action campaign.
+Our intervention tested a number of messages to encourage people to take action after witnessing sexism and sexual harassment.
+We sent a series of five behaviourally-informed emails to just under 30,000 staff and students. These provided specific advice on how to take action. We called this the ‘knowhow’ element of the intervention. 
+We added two different types of social norms messages to the knowhow text to see if it would boost the impact of the emails. Recipients either saw a ‘majority norm’ message, for example: “Most of us studying on campus think it’s right to call someone out for making sexist jokes or comments … And 78% said they themselves would intervene if they saw sexism and sexual harassment on campus”, or a ‘minority norm’ message, for example: “Most of us studying on campus think it’s right to call someone out for making sexist jokes or comments … But only 46% of us actually do”.
+We compared these new messages to a control group who received no emails. The results showed that people who received the majority social norms messaging were more likely to take action against sexual harassment compared to the control group.
+Figure: Rates of active bystanding after witnessing sexual harassment in the previous 8 weeks
+We also looked at the impact of the messages on sexist behaviours. For women, those who received social norms messaging were also more likely to take action against sexist behaviours. We defined sexist behaviours as making assumptions about a person’s abilities or attitudes based on their gender; responding differently to the same behaviours when they are exhibited by women and men; or making sexist comments or jokes. 
+Interestingly, the email series’ were not effective at encouraging bystander action against sexism among men. We found that men were also less likely than women to notice sexism and sexual harassment, and less likely to recognise them as requiring intervention. Future initiatives targeted at encouraging men to take action against sexism could focus more deeply on explaining what sexism is, how to identify it and why it’s problematic; and use social norms or messengers from groups that men are most likely to identify with. 
+We learned a number of important lessons during this work, which will be valuable for others looking to combat sexual harassment. 
+Firstly, it’s crucial to design messages that fit your specific context. We’ve provided a number of toolkits for different contexts here, but it is important to make sure that they are fit for your organisation. Co-designing your intervention materials with your target audience is key, and it’s also important to test out different messaging to see what works best for different cohorts. Secondly, when you are evaluating your intervention, do so by measuring behaviour change, not just people’s intentions to take action. Decades of research has shown that people’s intentions to act were not good predictors of taking action. 
+Next up, we will be working with Victorian workplaces to encourage bystander action among staff. Get in touch – [email protected].
+Want to learn more about how behavioural science can help tackle sexual harassment? Check out our BX2019 Session on combatting sexual harassment including talks from Dr Tiina Likki and Dr Iseult Cremen of BIT and Professor Betsy Levy Paluck of Princeton University.</t>
+  </si>
+  <si>
     <t>Singapore super-medics, notes from Down Under, and getting ready for a new PM</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/singapore-super-medics-notes-from-down-under-and-getting-ready-for-a-new-pm/</t>
   </si>
   <si>
+    <t>It’s nearly a decade since BIT was formed in the newly minted Cameron-Clegg No10 of 2010. The UK’s new Prime Minister this week will be BIT’s third at home, though we’ve been lucky to work with Premiers’ offices around the world over the years since our formation. As the UK civil servants polish the preparatory notes for the new PM, and Australian civil servants put theirs away, it seems a good time to reflect back, and to look forward.
+Being in Australia this week (feels a strange time to be away from Westminster!) brings back memories of a time well before BIT when our two countries were exchanging thoughts on ‘behaviour change’. 
+In the UK Prime Minister’s Strategy Unit (PMSU), under Tony Blair, we’d written a paper on ‘Behaviour Change and Personal Responsibility’. It drew on conversations with Danny Kahneman (before his Nobel); on an obscure but interesting paper on ‘libertarian paternalism’; and on early evidence about the power of defaults. The ideas within it resonated with senior figures in the then Australian administration.
+The basic notion the PMSU paper explored is now very familiar to BI teams across the world: if we wanted to take on the big policy issues, we needed solutions built around a better understanding of human behaviour. Health was the most striking example. The freshly minted Wanless review had laid the issue bare. The biggest gains in healthy life expectancy were to be had from shifts to healthier lifestyles. Indeed Wanless argued that if we failed to make this shift, the costs in our healthcare systems would soar. In the language of the time, citizens and businesses needed to take more ‘personal responsibility’ too. 
+PM - sin taxes and public health
+But as a public narrative, the argument didn’t go down particularly well. Media commentators had a field day with what was characterised as the ‘nanny state’, particularly around so-called ‘sin taxes’. Five PM’s later, and the issue is still live—as illustrated by concerns raised by the UK’s likely new PM, Boris Johnson.
+Behavioural scientists, even with a decade of success under their belts, should not dismiss potential public concerns. In Richard Thaler’s foreword to Inside the Nudge Unit (an updated edition due out this week!) he talks about the power of hindsight bias to make us think that the path we have been on was inevitable, including the success of behavioural science. As more variants on the approach emerge, bolstered by sister disciplines such as data science and machine learning, we would do well to remember how past attempts to address the behavioural causes of social policy challenges have sometimes floundered.
+With the Wanless report in mind, it was very exciting to be at the launch of an initiative by the National University of Singapore’s (NUS) Medical School. They are going to create a new Institute dedicated to bringing behavioural and implementation science into the heart of medicine. It is the brainchild of the School’s new Dean, Prof Chong Yap Seng. 
+Imagine a world where medics are trained not only to treat the patient, but to address the deeper factors that caused it
+It is a fabulous idea, and one that I hope other Schools of Medicine might study carefully. Imagine a world where medics are trained not only to treat the patient, but to address the deeper factors that caused it. As Theresa Marteau et al argued in their recent Lancet piece, to seek to address health issues such as obesity without addressing the wider drivers would be akin to treating a patient for cholera and then discharging them back into a community with contaminated water. I also look forward to working more closely with implementation scientist Robyn Mildon—implementation issues need to be treated with the same empirical rigour as the primary development of interventions and policy.
+In the meantime, work continues in the UK—see the new green paper on preventative health measures, for example, released on Monday.
+It’s also been interesting to see how the various BI units in Australia are getting on, on the other side of their recent elections. As readers will know, Australia was an early adopter of BI approaches, with BIT assisting New South Wales (NSW) to set up a team back in 2012. Sydney was also the first city to host the Behavioural Exchange conference, and to host it twice. NSW is now breaking new ground by incorporating its BI team in the heart of a new super-department of Customer Service. I was also intrigued that its new Minister Dominello has a track record of seeking to make markets work better, having put in place a tool to enable citizens to compare petrol prices before they fill-up (something we tried to do in No10, and didn’t really succeed).
+The Victoria BI Unit and Commonwealth BETA teams followed not long after NSW, and are producing a steady stream of interesting results. Our team in Sydney is working closely with these Government teams as well as with other partners, like the Vincent Family Fairfax Foundation and VicHealth, to produce cutting edge work tackling complex problems like teenagers’ ethical use of technology and sexual harassment on university campuses. 
+While in Melbourne I was particularly struck by the Victorian Government’s focus on rebuilding its transport infrastructure, strengthening its focus on place, and continuing the drive on efficiency.
+We asked our colleagues to talk to strangers - this is what happened
+It’s surprising how often it is overlooked that major infrastructure projects are never just about engineering. Infrastructure is also shaped by the decisions that citizens make about where to live and how far to commute. It is shaped by the value that citzens get from the time they commute as by the minutes saved: can they sit and work, or—shock horror—talk to their fellow commuter? And getting infrastructure built on time and on budget is strongly affected by whether communities are fighting for or against it, not least because of the perceived social impact it will have. There is behavioural science in all of this. 
+We are a guest in people’s homes. The decisions and choices that we talk about are the fabric of people’s lives, decisions and hopes
+A final reflection, as our new PM prepares for office, and other Premiers begin their terms: behavioural scientists, data analysts, innovation teams, and the latest kids on the block, must remember a key lesson of early failures. We are a guest in people’s homes. The decisions and choices that we talk about are the fabric of people’s lives, decisions and hopes. We have to be on their side, including against the abusive use of BI by businesses or governments.
+We are their servants, not the other way round. Our place in governments—however good our technical methods and results—rests on that humility and compact.</t>
+  </si>
+  <si>
     <t>Unemployed after 40 years: what next?</t>
   </si>
   <si>
     <t>https://www.bi.team/blogs/unemployed-after-40-years-what-next/</t>
   </si>
   <si>
+    <t>Keith Lowe worked at the BHP steelworks in Newcastle, a regional city in Australia, for nearly 40 years before it closed in 1999.
+Despite the shock of closure, Keith walked out of the steelworks’ gates for the last time with confidence in his future. Keith likes using his hands. Before the steelworks closed he took up a training voucher and used it to get a certificate in massage therapy. Keith went on to a long career in the eco-resorts of the nearby Hunter Valley. Still today, in his early seventies, he travels to Sydney to work with favourite clients.
+Developed countries are struggling to deal with the consequences of regional economic decline. The upheaval caused by factory closure and loss of jobs are felt daily in our politics and policies. Within this debate, a core question is how do we encourage more stories like Keith’s?
+Transitioning a career is hard. It is even harder when demand for your job and profession lowers dramatically. Policymakers know the fundamentals of transition programmes – training, payouts and general career guidance – but this is not enough to maximise success. At BIT, we believe transitions must be designed with a better understanding of human nature.
+An abandoned paper mill in Vicksburg, United States
+Job loss impacts our identity and forces complex decisions
+Our sense of ourselves is built around the groups we identify with; our community, our sports team, our ethnicity, our profession. Losing a job, or the prospect of losing a job, causes anxiety over both future earnings and the impact to our identity. In many cases, people need time to come to terms with what has happened. We can be reluctant to consider alternative paths that conflict with the identity we hold. In the worst cases, shocks can affect our sense of self-worth with lasting consequences on our approach to employment and community.
+Even if we are ready for change, how do we begin to sort the jobs we can or would like to do from an infinite list of options? Jobseekers need to make complex decisions about the availability of roles, longer-term prospects and job location. Information about the employment market is available but difficult to navigate and much of it is not relevant. Further, career choices are highly personal. We all recognise the temptation of consulting friends and family rather than seeking professional advice, especially when it comes to sensitive life decisions. Unfortunately, this can reinforce the image of traditional and visible careers as the main available routes.
+Finally, the process of identifying career opportunities, undertaking retraining and searching for a job requires serious motivation, often in the face of rejection and setbacks.
+Behavioural insights can help workers reorientate and retrain following job loss
+A behavioural approach is promising when we consider two areas core to successful transition: an internal mindshift towards a new job or career and the practical steps needed to acquire new skills and find a new path.
+First, transition programmes must address the impact of job loss on our sense of self. Solutions should consider how our identity and social networks influence decisions and how these structures can also broaden our horizons.
+For example, BIT’s work shows how messages from peers can help broaden the scope of education ambitions. We also find exercises where we reflect on our values, in order to decrease the emphasis on other aspects of our identity, can help us to reimagine ourselves at critical moments.
+If you’re an accountant who has just lost their job, would you be more likely to listen to the experience of other accountants in similar situations? Or someone with the same education from your area? Would you be motivated by reflecting on what you value in a career? Trialling the impact of peer messages and values affirmation for those forced to reorientate their careers because of factory closure and economic decline could be a promising approach.
+Second, transition programmes must help with the practical steps required to search for a new job, identify adjacent and in-demand skills and persist in learning. Solutions should focus on easy and timely prompts alongside tools that help us keep at tasks.
+Has a piece of advice ever sent you in a new direction that you previously didn’t consider? Our work in education suggests a text message or letter at the right moment could help job seekers look for jobs in adjacent (and not declining) sectors or outside of their immediate network. Creating and emphasising links between training and potential employers also improves income and employment prospects. Finally, many of us have benefitted from a kind word or piece of encouragement at a moment we felt like quitting a task. Timely messages can increase persistence and engagement. These are approaches worth trialling in communities experiencing economic transition as people search for new jobs and careers.
+Of course, a behavioural approach will have little impact without wider action to improve growth and community wellbeing. For a start, access to skills, credit and infrastructure are vital. Still, helping communities will be harder if policy fails to understand how economic decline impacts identity and behaviour.
+We are looking to work with cities and regions seeking to achieve successful economic transitions. If you are interested in this work or would like to explore some of the proposed interventions contact [email protected].</t>
+  </si>
+  <si>
     <t>2018</t>
   </si>
   <si>
@@ -527,21 +2748,6 @@
   </si>
   <si>
     <t>Supporting the recruitment and retention of people with disability</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Keywords</t>
   </si>
 </sst>
 </file>
@@ -894,851 +3100,1091 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>250</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>135</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>157</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>163</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
       </c>
       <c r="D55" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>166</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
       </c>
       <c r="D56" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>169</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
       </c>
       <c r="D57" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>173</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
+        <v>176</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>178</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>181</v>
+      </c>
+      <c r="C61" t="s">
+        <v>182</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>184</v>
+      </c>
+      <c r="C62" t="s">
+        <v>185</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>187</v>
+      </c>
+      <c r="C63" t="s">
+        <v>188</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>190</v>
+      </c>
+      <c r="C64" t="s">
+        <v>191</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>193</v>
+      </c>
+      <c r="C65" t="s">
+        <v>194</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>196</v>
+      </c>
+      <c r="C66" t="s">
+        <v>197</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>199</v>
+      </c>
+      <c r="C67" t="s">
+        <v>200</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>202</v>
+      </c>
+      <c r="C68" t="s">
+        <v>203</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>205</v>
+      </c>
+      <c r="C69" t="s">
+        <v>206</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>208</v>
+      </c>
+      <c r="C70" t="s">
+        <v>209</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>211</v>
+      </c>
+      <c r="C71" t="s">
+        <v>212</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>214</v>
+      </c>
+      <c r="C72" t="s">
+        <v>215</v>
       </c>
       <c r="D72" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>217</v>
+      </c>
+      <c r="C73" t="s">
+        <v>218</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>220</v>
+      </c>
+      <c r="C74" t="s">
+        <v>221</v>
       </c>
       <c r="D74" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>223</v>
+      </c>
+      <c r="C75" t="s">
+        <v>224</v>
       </c>
       <c r="D75" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>226</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>227</v>
+      </c>
+      <c r="C76" t="s">
+        <v>228</v>
       </c>
       <c r="D76" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>230</v>
+      </c>
+      <c r="C77" t="s">
+        <v>231</v>
       </c>
       <c r="D77" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>233</v>
+      </c>
+      <c r="C78" t="s">
+        <v>234</v>
       </c>
       <c r="D78" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>236</v>
+      </c>
+      <c r="C79" t="s">
+        <v>237</v>
       </c>
       <c r="D79" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>239</v>
+      </c>
+      <c r="C80" t="s">
+        <v>240</v>
       </c>
       <c r="D80" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>242</v>
+      </c>
+      <c r="C81" t="s">
+        <v>243</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>245</v>
+      </c>
+      <c r="C82" t="s">
+        <v>246</v>
       </c>
       <c r="D82" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/blog_post.xlsx
+++ b/blog_post.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickrehill/PycharmProjects/causalforestreview/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickrehill/PycharmProjects/RCTAustraliaReview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD42248B-6F7F-3248-B4F4-C585038666E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AE6AA6-44DE-074E-90D1-53D4341FFDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="254">
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="255">
   <si>
     <t>Hiring tradeswomen - a best practice guide for employers</t>
   </si>
@@ -2748,6 +2736,21 @@
   </si>
   <si>
     <t>Supporting the recruitment and retention of people with disability</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Keywords</t>
   </si>
 </sst>
 </file>
@@ -3100,1091 +3103,1094 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B64" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B65" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B66" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C66" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B67" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C68" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C69" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C70" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B71" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C71" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D71" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C72" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D72" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B73" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C73" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B74" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D74" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B75" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D75" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B76" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C76" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D76" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B77" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C77" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D77" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B78" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D78" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C79" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D79" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C80" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D80" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C81" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D81" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B82" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C82" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D82" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
